--- a/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
+++ b/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erione Technologies\Pim-Terceiro-Semestre-1\BackLog Produto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4920D6-288C-4385-B407-BDAE146871B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1A6F0F-58A9-4E87-B8E1-AB8B35EE834E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="1" r:id="rId1"/>
@@ -1709,7 +1709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1858,6 +1858,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1874,15 +1916,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,6 +1945,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1930,60 +1972,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5786,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21C7278-4439-4CF1-82AD-0D14D81CCEDD}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5807,92 +5801,74 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:16" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-      <c r="L4" s="115" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
+      <c r="L4" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
     </row>
     <row r="5" spans="1:16" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="32"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
       <c r="J5" s="21"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
     </row>
     <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
       <c r="J6" s="21"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
     </row>
     <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
       <c r="J7" s="21"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5923,12 +5899,12 @@
       <c r="G10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:16" ht="215" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="102"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="46" t="s">
         <v>46</v>
       </c>
@@ -5950,7 +5926,7 @@
       <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:16" ht="215" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="102"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="37" t="s">
         <v>48</v>
       </c>
@@ -5972,7 +5948,7 @@
       <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:16" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="102"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="37" t="s">
         <v>49</v>
       </c>
@@ -5994,7 +5970,7 @@
       <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:16" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="99"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="37" t="s">
         <v>50</v>
       </c>
@@ -6016,7 +5992,7 @@
       <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="103"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="37" t="s">
         <v>51</v>
       </c>
@@ -6038,7 +6014,7 @@
       <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:16" ht="146" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="102"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="37" t="s">
         <v>53</v>
       </c>
@@ -6060,7 +6036,7 @@
       <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:10" ht="179.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="102"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="37" t="s">
         <v>54</v>
       </c>
@@ -6082,7 +6058,7 @@
       <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="102"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="37" t="s">
         <v>55</v>
       </c>
@@ -6104,7 +6080,7 @@
       <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="225.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="103"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="37" t="s">
         <v>56</v>
       </c>
@@ -6187,7 +6163,7 @@
       <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="102"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="37" t="s">
         <v>60</v>
       </c>
@@ -6251,7 +6227,7 @@
       <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="102"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="37" t="s">
         <v>88</v>
       </c>
@@ -6273,14 +6249,14 @@
       <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" ht="175.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="81" t="s">
         <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>151</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="75" t="s">
         <v>155</v>
       </c>
       <c r="F27" s="11" t="s">
@@ -6301,7 +6277,7 @@
         <v>153</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="100" t="s">
+      <c r="E28" s="75" t="s">
         <v>156</v>
       </c>
       <c r="F28" s="11" t="s">
@@ -6315,14 +6291,14 @@
       <c r="J28" s="58"/>
     </row>
     <row r="29" spans="1:10" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="81" t="s">
         <v>159</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>157</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="100" t="s">
+      <c r="E29" s="75" t="s">
         <v>158</v>
       </c>
       <c r="F29" s="11" t="s">
@@ -6339,7 +6315,7 @@
       <c r="B30" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D30" s="2"/>
@@ -6357,24 +6333,24 @@
       <c r="J30" s="58"/>
     </row>
     <row r="31" spans="1:10" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="110"/>
-      <c r="E31" s="109" t="s">
+      <c r="D31" s="84"/>
+      <c r="E31" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="111" t="s">
+      <c r="F31" s="85" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="64">
         <v>7</v>
       </c>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
       <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -6383,12 +6359,12 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="89"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="110"/>
     </row>
     <row r="34" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="5"/>
@@ -6413,10 +6389,10 @@
         <v>81</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="81" t="s">
+      <c r="I35" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="82"/>
+      <c r="J35" s="103"/>
     </row>
     <row r="36" spans="2:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
@@ -6427,8 +6403,8 @@
         <v>82</v>
       </c>
       <c r="H36" s="28"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="84"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="105"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
@@ -6439,8 +6415,8 @@
         <v>69</v>
       </c>
       <c r="H37" s="28"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="84"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="105"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
@@ -6451,8 +6427,8 @@
         <v>70</v>
       </c>
       <c r="H38" s="28"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="84"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="105"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
@@ -6463,8 +6439,8 @@
         <v>71</v>
       </c>
       <c r="H39" s="28"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="84"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="105"/>
     </row>
     <row r="40" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="5"/>
@@ -6475,8 +6451,8 @@
         <v>72</v>
       </c>
       <c r="H40" s="28"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="86"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="107"/>
     </row>
     <row r="41" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
@@ -6578,12 +6554,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
     </row>
     <row r="3" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" s="5"/>
@@ -6608,10 +6584,10 @@
         <v>81</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="82"/>
+      <c r="K4" s="103"/>
     </row>
     <row r="5" spans="3:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D5" s="5"/>
@@ -6622,8 +6598,8 @@
         <v>82</v>
       </c>
       <c r="I5" s="28"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="105"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D6" s="5"/>
@@ -6634,8 +6610,8 @@
         <v>69</v>
       </c>
       <c r="I6" s="28"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D7" s="5"/>
@@ -6646,8 +6622,8 @@
         <v>70</v>
       </c>
       <c r="I7" s="28"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="105"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D8" s="5"/>
@@ -6658,8 +6634,8 @@
         <v>71</v>
       </c>
       <c r="I8" s="28"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="84"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="105"/>
     </row>
     <row r="9" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D9" s="5"/>
@@ -6670,8 +6646,8 @@
         <v>72</v>
       </c>
       <c r="I9" s="28"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
@@ -6709,16 +6685,16 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="3:11" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D16" s="5"/>
@@ -6743,16 +6719,16 @@
     </row>
     <row r="19" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="80"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="32"/>
@@ -6895,16 +6871,16 @@
     </row>
     <row r="29" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="80"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="113"/>
     </row>
     <row r="31" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C31" s="32"/>
@@ -7023,16 +6999,16 @@
     </row>
     <row r="38" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="80"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="113"/>
     </row>
     <row r="40" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="32"/>
@@ -7128,16 +7104,16 @@
     </row>
     <row r="46" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="80"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="113"/>
     </row>
     <row r="48" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C48" s="32"/>
@@ -7259,16 +7235,16 @@
     </row>
     <row r="55" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C56" s="78" t="s">
+      <c r="C56" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="80"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="3:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C57" s="32"/>
@@ -7301,7 +7277,7 @@
       </c>
     </row>
     <row r="59" spans="3:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="96" t="s">
+      <c r="C59" s="72" t="s">
         <v>108</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -7364,25 +7340,19 @@
     </row>
     <row r="64" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="65" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C65" s="78" t="s">
+      <c r="C65" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="80"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="113"/>
     </row>
     <row r="66" spans="3:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C66" s="32"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
       <c r="J66" s="21"/>
     </row>
     <row r="67" spans="3:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -7436,7 +7406,7 @@
       </c>
     </row>
     <row r="69" spans="3:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C69" s="98" t="s">
+      <c r="C69" s="73" t="s">
         <v>29</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -7461,12 +7431,6 @@
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C70" s="32"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="97"/>
-      <c r="F70" s="97"/>
-      <c r="G70" s="97"/>
-      <c r="H70" s="97"/>
-      <c r="I70" s="97"/>
       <c r="J70" s="21"/>
     </row>
     <row r="71" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7511,11 +7475,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
@@ -7595,9 +7559,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="93"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="119"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="57">
@@ -7667,7 +7631,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="59"/>
-      <c r="B16" s="120"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="60"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -7738,7 +7702,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="62"/>
-      <c r="B23" s="120"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="60"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -7808,7 +7772,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="121"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
     </row>
@@ -7879,7 +7843,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="121"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
     </row>
@@ -7950,7 +7914,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="121"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
     </row>
@@ -7961,7 +7925,7 @@
       <c r="B45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="122" t="s">
+      <c r="C45" s="58" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7972,7 +7936,7 @@
       <c r="B46" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="122" t="s">
+      <c r="C46" s="58" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7983,7 +7947,7 @@
       <c r="B47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="122" t="s">
+      <c r="C47" s="58" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7994,7 +7958,7 @@
       <c r="B48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="122" t="s">
+      <c r="C48" s="58" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8005,7 +7969,7 @@
       <c r="B49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="122" t="s">
+      <c r="C49" s="58" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8016,7 +7980,7 @@
       <c r="B50" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="123" t="s">
+      <c r="C50" s="65" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8045,10 +8009,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="69"/>
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
@@ -8080,7 +8044,7 @@
       <c r="A5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="89" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8088,7 +8052,7 @@
       <c r="A6" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="90" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8104,7 +8068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E69F5A-B02F-42AF-8116-2B76A69569A0}">
   <dimension ref="B1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -8116,7 +8080,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="125" t="s">
+      <c r="G2" s="94" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8143,7 +8107,7 @@
       <c r="B8" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="124">
+      <c r="C8" s="93">
         <v>1.7142857140000001</v>
       </c>
       <c r="D8">
@@ -8165,7 +8129,7 @@
       <c r="B10" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="124">
+      <c r="C10" s="93">
         <v>1.142857142</v>
       </c>
       <c r="D10">
@@ -8187,7 +8151,7 @@
       <c r="B12" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="124">
+      <c r="C12" s="93">
         <v>0.57142857000000002</v>
       </c>
       <c r="D12">
@@ -8209,7 +8173,7 @@
       <c r="B14" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="124">
+      <c r="C14" s="93">
         <v>0</v>
       </c>
       <c r="D14">
@@ -8249,7 +8213,7 @@
       <c r="C42" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="124">
+      <c r="D42" s="93">
         <v>24.553571428571399</v>
       </c>
       <c r="E42">
@@ -8271,7 +8235,7 @@
       <c r="C44" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="124">
+      <c r="D44" s="93">
         <v>23.660714285714199</v>
       </c>
       <c r="E44">
@@ -8293,7 +8257,7 @@
       <c r="C46" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="124">
+      <c r="D46" s="93">
         <v>22.767857142857</v>
       </c>
       <c r="E46">
@@ -8315,7 +8279,7 @@
       <c r="C48" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="124">
+      <c r="D48" s="93">
         <v>21.874999999999801</v>
       </c>
       <c r="E48">
@@ -8337,7 +8301,7 @@
       <c r="C50" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="124">
+      <c r="D50" s="93">
         <v>20.982142857142598</v>
       </c>
       <c r="E50">
@@ -8359,7 +8323,7 @@
       <c r="C52" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="124">
+      <c r="D52" s="93">
         <v>20.089285714285399</v>
       </c>
       <c r="E52">
@@ -8381,7 +8345,7 @@
       <c r="C54" t="s">
         <v>188</v>
       </c>
-      <c r="D54" s="124">
+      <c r="D54" s="93">
         <v>19.1964285714282</v>
       </c>
       <c r="E54">
@@ -8403,7 +8367,7 @@
       <c r="C56" t="s">
         <v>190</v>
       </c>
-      <c r="D56" s="124">
+      <c r="D56" s="93">
         <v>18.303571428571001</v>
       </c>
       <c r="E56">
@@ -8425,7 +8389,7 @@
       <c r="C58" t="s">
         <v>192</v>
       </c>
-      <c r="D58" s="124">
+      <c r="D58" s="93">
         <v>17.410714285713802</v>
       </c>
       <c r="E58">
@@ -8447,7 +8411,7 @@
       <c r="C60" t="s">
         <v>194</v>
       </c>
-      <c r="D60" s="124">
+      <c r="D60" s="93">
         <v>16.517857142856599</v>
       </c>
       <c r="E60">
@@ -8469,7 +8433,7 @@
       <c r="C62" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="124">
+      <c r="D62" s="93">
         <v>15.6249999999994</v>
       </c>
       <c r="E62">
@@ -8491,7 +8455,7 @@
       <c r="C64" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="124">
+      <c r="D64" s="93">
         <v>14.7321428571422</v>
       </c>
       <c r="E64">
@@ -8513,7 +8477,7 @@
       <c r="C66" t="s">
         <v>200</v>
       </c>
-      <c r="D66" s="124">
+      <c r="D66" s="93">
         <v>13.839285714284999</v>
       </c>
       <c r="E66">
@@ -8535,7 +8499,7 @@
       <c r="C68" t="s">
         <v>202</v>
       </c>
-      <c r="D68" s="124">
+      <c r="D68" s="93">
         <v>12.9464285714278</v>
       </c>
       <c r="E68">
@@ -8557,7 +8521,7 @@
       <c r="C70" t="s">
         <v>204</v>
       </c>
-      <c r="D70" s="124">
+      <c r="D70" s="93">
         <v>12.053571428570599</v>
       </c>
       <c r="E70">
@@ -8579,7 +8543,7 @@
       <c r="C72" t="s">
         <v>206</v>
       </c>
-      <c r="D72" s="124">
+      <c r="D72" s="93">
         <v>11.1607142857134</v>
       </c>
       <c r="E72">
@@ -8601,7 +8565,7 @@
       <c r="C74" t="s">
         <v>208</v>
       </c>
-      <c r="D74" s="124">
+      <c r="D74" s="93">
         <v>10.267857142856201</v>
       </c>
       <c r="E74">
@@ -8623,7 +8587,7 @@
       <c r="C76" t="s">
         <v>210</v>
       </c>
-      <c r="D76" s="124">
+      <c r="D76" s="93">
         <v>9.3749999999989999</v>
       </c>
       <c r="E76">
@@ -8645,7 +8609,7 @@
       <c r="C78" t="s">
         <v>212</v>
       </c>
-      <c r="D78" s="124">
+      <c r="D78" s="93">
         <v>8.4821428571416995</v>
       </c>
       <c r="E78">
@@ -8667,7 +8631,7 @@
       <c r="C80" t="s">
         <v>214</v>
       </c>
-      <c r="D80" s="124">
+      <c r="D80" s="93">
         <v>7.5892857142845003</v>
       </c>
       <c r="E80">
@@ -8689,7 +8653,7 @@
       <c r="C82" t="s">
         <v>216</v>
       </c>
-      <c r="D82" s="124">
+      <c r="D82" s="93">
         <v>6.6964285714273002</v>
       </c>
       <c r="E82">
@@ -8711,7 +8675,7 @@
       <c r="C84" t="s">
         <v>218</v>
       </c>
-      <c r="D84" s="124">
+      <c r="D84" s="93">
         <v>5.8035714285701001</v>
       </c>
       <c r="E84">
@@ -8733,7 +8697,7 @@
       <c r="C86" t="s">
         <v>220</v>
       </c>
-      <c r="D86" s="124">
+      <c r="D86" s="93">
         <v>4.9107142857129</v>
       </c>
       <c r="E86">
@@ -8755,7 +8719,7 @@
       <c r="C88" t="s">
         <v>222</v>
       </c>
-      <c r="D88" s="124">
+      <c r="D88" s="93">
         <v>4.0178571428556999</v>
       </c>
       <c r="E88">
@@ -8777,7 +8741,7 @@
       <c r="C90" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="124">
+      <c r="D90" s="93">
         <v>3.1249999999984999</v>
       </c>
       <c r="E90">
@@ -8799,7 +8763,7 @@
       <c r="C92" t="s">
         <v>226</v>
       </c>
-      <c r="D92" s="124">
+      <c r="D92" s="93">
         <v>2.2321428571412998</v>
       </c>
       <c r="E92">
@@ -8821,7 +8785,7 @@
       <c r="C94" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="124">
+      <c r="D94" s="93">
         <v>1.3392857142840999</v>
       </c>
       <c r="E94">
@@ -8843,7 +8807,7 @@
       <c r="C96" t="s">
         <v>230</v>
       </c>
-      <c r="D96" s="124">
+      <c r="D96" s="93">
         <v>0.44642857142690001</v>
       </c>
       <c r="E96">

--- a/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
+++ b/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erione Technologies\Pim-Terceiro-Semestre-1\BackLog Produto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E7C81-7CF3-4EC5-927B-116E5320784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3593DE9B-7AE9-4D0E-A812-602B2438F78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="260">
   <si>
     <t>PLANEJAMENTO</t>
   </si>
@@ -1064,6 +1064,9 @@
   </si>
   <si>
     <t>Dia 7</t>
+  </si>
+  <si>
+    <t>FINALIZADO - SCRIPT DE CRIAÇÃO DO BANCO DE DADOS ; EM ANDAMENTO MANUTENÇÃO DOS CASOS DE USO E DIAGRAMAS UML</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2039,6 +2042,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2128,28 +2149,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6916,69 +6915,69 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:16" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
-      <c r="L4" s="100" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
+      <c r="L4" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
     </row>
     <row r="5" spans="1:16" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="32"/>
       <c r="J5" s="21"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
     </row>
     <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="86" t="s">
         <v>150</v>
       </c>
       <c r="J6" s="21"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
     </row>
     <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="87" t="s">
         <v>166</v>
       </c>
       <c r="J7" s="21"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="88" t="s">
@@ -7474,12 +7473,12 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="G33" s="113" t="s">
+      <c r="G33" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="115"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="123"/>
     </row>
     <row r="34" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="5"/>
@@ -7504,10 +7503,10 @@
         <v>81</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="107" t="s">
+      <c r="I35" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="108"/>
+      <c r="J35" s="116"/>
     </row>
     <row r="36" spans="2:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
@@ -7518,8 +7517,8 @@
         <v>82</v>
       </c>
       <c r="H36" s="28"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="110"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
@@ -7530,8 +7529,8 @@
         <v>69</v>
       </c>
       <c r="H37" s="28"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="110"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
@@ -7542,8 +7541,8 @@
         <v>70</v>
       </c>
       <c r="H38" s="28"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="110"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
@@ -7554,8 +7553,8 @@
         <v>71</v>
       </c>
       <c r="H39" s="28"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="110"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="118"/>
     </row>
     <row r="40" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="5"/>
@@ -7566,8 +7565,8 @@
         <v>72</v>
       </c>
       <c r="H40" s="28"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="112"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="120"/>
     </row>
     <row r="41" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
@@ -7669,12 +7668,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="115"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" s="5"/>
@@ -7699,10 +7698,10 @@
         <v>81</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="108"/>
+      <c r="K4" s="116"/>
     </row>
     <row r="5" spans="3:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D5" s="5"/>
@@ -7713,8 +7712,8 @@
         <v>82</v>
       </c>
       <c r="I5" s="28"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="110"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D6" s="5"/>
@@ -7725,8 +7724,8 @@
         <v>69</v>
       </c>
       <c r="I6" s="28"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="110"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D7" s="5"/>
@@ -7737,8 +7736,8 @@
         <v>70</v>
       </c>
       <c r="I7" s="28"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D8" s="5"/>
@@ -7749,8 +7748,8 @@
         <v>71</v>
       </c>
       <c r="I8" s="28"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
     </row>
     <row r="9" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D9" s="5"/>
@@ -7761,8 +7760,8 @@
         <v>72</v>
       </c>
       <c r="I9" s="28"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="112"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
@@ -7800,16 +7799,16 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="3:11" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="121"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="129"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D16" s="5"/>
@@ -7834,16 +7833,16 @@
     </row>
     <row r="19" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="126"/>
     </row>
     <row r="21" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="32"/>
@@ -7986,16 +7985,16 @@
     </row>
     <row r="29" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="118"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="126"/>
     </row>
     <row r="31" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C31" s="32"/>
@@ -8114,16 +8113,16 @@
     </row>
     <row r="38" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="116" t="s">
+      <c r="C39" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="118"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="126"/>
     </row>
     <row r="40" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="32"/>
@@ -8219,16 +8218,16 @@
     </row>
     <row r="46" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="116" t="s">
+      <c r="C47" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="118"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="126"/>
     </row>
     <row r="48" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C48" s="32"/>
@@ -8350,16 +8349,16 @@
     </row>
     <row r="55" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C56" s="116" t="s">
+      <c r="C56" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="117"/>
-      <c r="J56" s="118"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="126"/>
     </row>
     <row r="57" spans="3:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C57" s="32"/>
@@ -8455,16 +8454,16 @@
     </row>
     <row r="64" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="65" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C65" s="116" t="s">
+      <c r="C65" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="117"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="117"/>
-      <c r="I65" s="117"/>
-      <c r="J65" s="118"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="126"/>
     </row>
     <row r="66" spans="3:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C66" s="32"/>
@@ -8578,8 +8577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53D959B-E411-475F-8D2F-46A6BAEF8854}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8590,11 +8589,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
@@ -8674,9 +8673,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="122"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="124"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="132"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="57">
@@ -9101,11 +9100,11 @@
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="125" t="s">
+      <c r="A54" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="B54" s="126"/>
-      <c r="C54" s="127"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="135"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="61">
@@ -9327,7 +9326,9 @@
       <c r="B76" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="58"/>
+      <c r="C76" s="58" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="57">
@@ -9336,7 +9337,9 @@
       <c r="B77" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="58"/>
+      <c r="C77" s="58" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="57">
@@ -9345,7 +9348,9 @@
       <c r="B78" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="58"/>
+      <c r="C78" s="58" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="57">
@@ -9354,7 +9359,9 @@
       <c r="B79" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="58"/>
+      <c r="C79" s="58" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="57">
@@ -9363,16 +9370,20 @@
       <c r="B80" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="58"/>
+      <c r="C80" s="58" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="130">
+      <c r="A81" s="100">
         <v>45415</v>
       </c>
       <c r="B81" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="65"/>
+      <c r="C81" s="58" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="59"/>
@@ -9380,13 +9391,13 @@
       <c r="C82" s="59"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="131">
+      <c r="A83" s="101">
         <v>45418</v>
       </c>
-      <c r="B83" s="132" t="s">
+      <c r="B83" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="133"/>
+      <c r="C83" s="103"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="57">
@@ -9425,7 +9436,7 @@
       <c r="C87" s="58"/>
     </row>
     <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="130">
+      <c r="A88" s="100">
         <v>45418</v>
       </c>
       <c r="B88" s="64" t="s">
@@ -9439,13 +9450,13 @@
       <c r="C89" s="59"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="131">
+      <c r="A90" s="101">
         <v>45419</v>
       </c>
-      <c r="B90" s="132" t="s">
+      <c r="B90" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="133"/>
+      <c r="C90" s="103"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="57">
@@ -9493,18 +9504,18 @@
       <c r="C95" s="58"/>
     </row>
     <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="134"/>
-      <c r="B96" s="134"/>
-      <c r="C96" s="135"/>
+      <c r="A96" s="104"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="105"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="131">
+      <c r="A97" s="101">
         <v>45420</v>
       </c>
-      <c r="B97" s="132" t="s">
+      <c r="B97" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="133"/>
+      <c r="C97" s="103"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="57">
@@ -9552,18 +9563,18 @@
       <c r="C102" s="58"/>
     </row>
     <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="134"/>
-      <c r="B103" s="134"/>
-      <c r="C103" s="135"/>
+      <c r="A103" s="104"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="105"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="131">
+      <c r="A104" s="101">
         <v>45421</v>
       </c>
-      <c r="B104" s="132" t="s">
+      <c r="B104" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C104" s="133"/>
+      <c r="C104" s="103"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="57">
@@ -9602,7 +9613,7 @@
       <c r="C108" s="58"/>
     </row>
     <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="130">
+      <c r="A109" s="100">
         <v>45421</v>
       </c>
       <c r="B109" s="64" t="s">
@@ -9636,10 +9647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="137"/>
       <c r="C1" s="69"/>
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
@@ -9695,7 +9706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E69F5A-B02F-42AF-8116-2B76A69569A0}">
   <dimension ref="B1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
@@ -9815,112 +9826,112 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="138" t="s">
+      <c r="B27" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="138" t="s">
+      <c r="D27" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="139">
+      <c r="B28" s="107">
         <v>47209</v>
       </c>
-      <c r="C28" s="138">
+      <c r="C28" s="16">
         <v>40</v>
       </c>
-      <c r="D28" s="138">
+      <c r="D28" s="16">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="139">
+      <c r="B29" s="107">
         <v>11049</v>
       </c>
-      <c r="C29" s="138">
+      <c r="C29" s="16">
         <v>35</v>
       </c>
-      <c r="D29" s="138">
+      <c r="D29" s="16">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="139">
+      <c r="B30" s="107">
         <v>37012</v>
       </c>
-      <c r="C30" s="138">
+      <c r="C30" s="16">
         <v>30</v>
       </c>
-      <c r="D30" s="138">
+      <c r="D30" s="16">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="139">
+      <c r="B31" s="107">
         <v>37377</v>
       </c>
-      <c r="C31" s="138">
+      <c r="C31" s="16">
         <v>25</v>
       </c>
-      <c r="D31" s="138">
+      <c r="D31" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="139">
+      <c r="B32" s="107">
         <v>37742</v>
       </c>
-      <c r="C32" s="138">
+      <c r="C32" s="16">
         <v>20</v>
       </c>
-      <c r="D32" s="138">
+      <c r="D32" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="139">
+      <c r="B33" s="107">
         <v>38108</v>
       </c>
-      <c r="C33" s="138">
+      <c r="C33" s="16">
         <v>15</v>
       </c>
-      <c r="D33" s="138">
+      <c r="D33" s="16">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="139">
+      <c r="B34" s="107">
         <v>38473</v>
       </c>
-      <c r="C34" s="138">
+      <c r="C34" s="16">
         <v>10</v>
       </c>
-      <c r="D34" s="138">
+      <c r="D34" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="139">
+      <c r="B35" s="107">
         <v>38838</v>
       </c>
-      <c r="C35" s="138">
+      <c r="C35" s="16">
         <v>5</v>
       </c>
-      <c r="D35" s="138">
+      <c r="D35" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="138">
+      <c r="C36" s="16">
         <v>0</v>
       </c>
-      <c r="D36" s="138">
+      <c r="D36" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10560,13 +10571,13 @@
       </c>
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C105" s="140" t="s">
+      <c r="C105" s="138" t="s">
         <v>243</v>
       </c>
-      <c r="D105" s="140"/>
-      <c r="E105" s="140"/>
-      <c r="F105" s="140"/>
-      <c r="G105" s="140"/>
+      <c r="D105" s="138"/>
+      <c r="E105" s="138"/>
+      <c r="F105" s="138"/>
+      <c r="G105" s="138"/>
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
@@ -10601,7 +10612,7 @@
       <c r="C108" t="s">
         <v>248</v>
       </c>
-      <c r="D108" s="136">
+      <c r="D108" s="106">
         <v>7</v>
       </c>
     </row>
@@ -10609,18 +10620,18 @@
       <c r="C109" t="s">
         <v>249</v>
       </c>
-      <c r="D109" s="136">
+      <c r="D109" s="106">
         <v>7</v>
       </c>
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C110" s="137" t="s">
+      <c r="C110" t="s">
         <v>245</v>
       </c>
-      <c r="D110" s="136"/>
+      <c r="D110" s="106"/>
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C111" s="137" t="s">
+      <c r="C111" t="s">
         <v>246</v>
       </c>
     </row>

--- a/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
+++ b/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erione Technologies\Pim-Terceiro-Semestre-1\BackLog Produto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3593DE9B-7AE9-4D0E-A812-602B2438F78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0796331C-4FEF-469F-8BCC-36F3207B88D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="287">
   <si>
     <t>PLANEJAMENTO</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>REALIZADO (HORAS)</t>
-  </si>
-  <si>
-    <t>EM ANDAMENTO</t>
   </si>
   <si>
     <t>DATA</t>
@@ -708,9 +705,6 @@
     <t>Gabriel; Arieli; Mateus</t>
   </si>
   <si>
-    <t>Ana Beatriz; Luana ; Fábio</t>
-  </si>
-  <si>
     <t>AMARELO= Em andamento</t>
   </si>
   <si>
@@ -1066,14 +1060,101 @@
     <t>Dia 7</t>
   </si>
   <si>
-    <t>FINALIZADO - SCRIPT DE CRIAÇÃO DO BANCO DE DADOS ; EM ANDAMENTO MANUTENÇÃO DOS CASOS DE USO E DIAGRAMAS UML</t>
+    <t>FINALIZADO - FINALIZAÇÃO DO PROTÓTIPO DE TELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINALIZADO - SCRIPT DE CRIAÇÃO DO BANCO DE DADOS </t>
+  </si>
+  <si>
+    <t>FINALIZADO - SCRIPT DE CRIAÇÃO DO BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Beatriz; Luana </t>
+  </si>
+  <si>
+    <t>FINALIZAÇÃO DOS PROTÓTIPOS DE TELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCLUÍDO </t>
+  </si>
+  <si>
+    <t>ENTREGA SPRINT 6 E RETROSPECTIVA DA SPRINT</t>
+  </si>
+  <si>
+    <t>06-05-24 | Segunda-Feira</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>atividade 1</t>
+  </si>
+  <si>
+    <t>atividade 2</t>
+  </si>
+  <si>
+    <t>atividade 5</t>
+  </si>
+  <si>
+    <t>atividade 6</t>
+  </si>
+  <si>
+    <t>atividade 7</t>
+  </si>
+  <si>
+    <t>atividade 8</t>
+  </si>
+  <si>
+    <t>atividade 9</t>
+  </si>
+  <si>
+    <t>atividade 10</t>
+  </si>
+  <si>
+    <t>Atividades:</t>
+  </si>
+  <si>
+    <t>Total de horas:</t>
+  </si>
+  <si>
+    <t>Restante:</t>
+  </si>
+  <si>
+    <t>Estimado:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 30 </t>
+  </si>
+  <si>
+    <t>Dia 01/05</t>
+  </si>
+  <si>
+    <t>Dia 02/05</t>
+  </si>
+  <si>
+    <t>Dia 03/05</t>
+  </si>
+  <si>
+    <t>Dia 04/05</t>
+  </si>
+  <si>
+    <t>Dia 05/05</t>
+  </si>
+  <si>
+    <t>Dia 06/05</t>
+  </si>
+  <si>
+    <t>Dia 29/04</t>
+  </si>
+  <si>
+    <t>Gráfico de Burndown (em horas) SPRINT 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,8 +1242,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1241,8 +1329,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1530,45 +1630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1831,14 +1892,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1847,7 +2043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1924,9 +2120,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1934,7 +2127,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1960,40 +2153,39 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -2004,62 +2196,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2126,32 +2343,35 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4148,6 +4368,570 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" b="1"/>
+              <a:t>GRÁFICO BURNDOWN</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR" b="1"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BURNDOWN!$B$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Restante:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>BURNDOWN!$C$131:$K$131</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Total de horas:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dia 29/04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 30 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 01/05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 02/05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 03/05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 04/05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 05/05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 06/05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BURNDOWN!$C$142:$K$142</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2D8-4BC4-8895-39178A923F77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BURNDOWN!$B$143</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimado:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BURNDOWN!$C$131:$K$131</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Total de horas:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dia 29/04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 30 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 01/05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 02/05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 03/05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 04/05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 05/05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 06/05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BURNDOWN!$C$143:$K$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2D8-4BC4-8895-39178A923F77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1039188127"/>
+        <c:axId val="1039183807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1039188127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039183807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1039183807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039188127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4229,6 +5013,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5803,6 +6627,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5846,13 +7186,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
+      <xdr:colOff>536574</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14940</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -5882,15 +7222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>59765</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>366059</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5910,6 +7250,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>15064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>164352</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90382A67-FB6B-9591-A8BE-4653497992AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6894,7 +8270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21C7278-4439-4CF1-82AD-0D14D81CCEDD}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -6915,73 +8291,73 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="114"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="127"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:16" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="111"/>
-      <c r="L4" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="124"/>
+      <c r="L4" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
     </row>
     <row r="5" spans="1:16" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="32"/>
       <c r="J5" s="21"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
     </row>
     <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="86" t="s">
-        <v>150</v>
+      <c r="B6" s="82" t="s">
+        <v>148</v>
       </c>
       <c r="J6" s="21"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
     </row>
     <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="87" t="s">
-        <v>166</v>
+      <c r="B7" s="83" t="s">
+        <v>164</v>
       </c>
       <c r="J7" s="21"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="88" t="s">
-        <v>167</v>
+      <c r="B8" s="84" t="s">
+        <v>165</v>
       </c>
       <c r="J8" s="21"/>
     </row>
@@ -6998,14 +8374,14 @@
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>2</v>
@@ -7013,43 +8389,43 @@
       <c r="G10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:16" ht="215" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="66" t="s">
-        <v>47</v>
-      </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="47" t="s">
+      <c r="E11" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="45">
         <v>5</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="58"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:16" ht="215" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="76"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>7</v>
@@ -7059,19 +8435,19 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="58"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:16" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>6</v>
@@ -7081,19 +8457,19 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="58"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:16" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="74"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>6</v>
@@ -7103,19 +8479,19 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="58"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="76"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>6</v>
@@ -7125,19 +8501,19 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="58"/>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:16" ht="146" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="76"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>6</v>
@@ -7147,19 +8523,19 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="58"/>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:10" ht="179.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="76"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>7</v>
@@ -7169,19 +8545,19 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="58"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="76"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>7</v>
@@ -7191,19 +8567,19 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="58"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="225.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="77"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>7</v>
@@ -7213,18 +8589,18 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="58"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="98" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>6</v>
@@ -7234,18 +8610,18 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="58"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>6</v>
@@ -7255,18 +8631,18 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="58"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="7">
@@ -7274,19 +8650,19 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="58"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="76"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>7</v>
@@ -7296,61 +8672,61 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="58"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="7">
         <v>3</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="58"/>
+      <c r="J24" s="54"/>
     </row>
     <row r="25" spans="1:10" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="7">
         <v>3</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="58"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="76"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>5</v>
@@ -7360,18 +8736,18 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="58"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="175.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="81" t="s">
-        <v>152</v>
+      <c r="B27" s="77" t="s">
+        <v>150</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="75" t="s">
-        <v>155</v>
+      <c r="E27" s="71" t="s">
+        <v>153</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>5</v>
@@ -7381,18 +8757,18 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="58"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="198.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="71" t="s">
         <v>154</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="75" t="s">
-        <v>156</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>5</v>
@@ -7402,18 +8778,18 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="58"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="81" t="s">
-        <v>159</v>
+      <c r="B29" s="77" t="s">
+        <v>157</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="75" t="s">
-        <v>158</v>
+      <c r="E29" s="71" t="s">
+        <v>156</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>5</v>
@@ -7423,18 +8799,18 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="58"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="149" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>5</v>
@@ -7444,28 +8820,28 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="58"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="84"/>
-      <c r="E31" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="85" t="s">
+      <c r="D31" s="80"/>
+      <c r="E31" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="60">
         <v>7</v>
       </c>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="65"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="61"/>
     </row>
     <row r="32" spans="1:10" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7473,12 +8849,12 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="G33" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="123"/>
+      <c r="G33" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="136"/>
     </row>
     <row r="34" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="5"/>
@@ -7486,10 +8862,10 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
@@ -7500,13 +8876,13 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="116"/>
+      <c r="I35" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="129"/>
     </row>
     <row r="36" spans="2:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
@@ -7514,11 +8890,11 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="28"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="118"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="131"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
@@ -7526,11 +8902,11 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" s="28"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="118"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="131"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
@@ -7538,11 +8914,11 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" s="28"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="118"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="131"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
@@ -7550,11 +8926,11 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" s="28"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="118"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="131"/>
     </row>
     <row r="40" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="5"/>
@@ -7562,11 +8938,11 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H40" s="28"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="120"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="133"/>
     </row>
     <row r="41" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
@@ -7646,13 +9022,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E39882E-15E1-49D7-8705-F56E6D1328C9}">
   <dimension ref="C1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="17.453125" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" customWidth="1"/>
     <col min="6" max="6" width="21.90625" customWidth="1"/>
@@ -7668,12 +9044,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="123"/>
+      <c r="H2" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" s="5"/>
@@ -7681,10 +9057,10 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
@@ -7695,13 +9071,13 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="116"/>
+      <c r="J4" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="129"/>
     </row>
     <row r="5" spans="3:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D5" s="5"/>
@@ -7709,11 +9085,11 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="28"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="131"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D6" s="5"/>
@@ -7721,11 +9097,11 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="28"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D7" s="5"/>
@@ -7733,11 +9109,11 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="28"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="131"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D8" s="5"/>
@@ -7745,11 +9121,11 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="28"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
     </row>
     <row r="9" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D9" s="5"/>
@@ -7757,11 +9133,11 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="28"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="120"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
@@ -7799,16 +9175,16 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="3:11" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="129"/>
+      <c r="C15" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="142"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D16" s="5"/>
@@ -7833,16 +9209,16 @@
     </row>
     <row r="19" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="126"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="32"/>
@@ -7850,10 +9226,10 @@
     </row>
     <row r="22" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>2</v>
@@ -7868,7 +9244,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>4</v>
@@ -7877,19 +9253,19 @@
     </row>
     <row r="23" spans="3:11" ht="16" x14ac:dyDescent="0.4">
       <c r="C23" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="49">
         <v>5</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="30">
         <v>3</v>
@@ -7898,22 +9274,22 @@
         <v>45383</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="3:11" ht="16" x14ac:dyDescent="0.4">
       <c r="C24" s="35"/>
       <c r="D24" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="50">
         <v>5</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="16">
         <v>3</v>
@@ -7922,22 +9298,22 @@
         <v>45383</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="3:11" ht="16" x14ac:dyDescent="0.4">
       <c r="C25" s="35"/>
       <c r="D25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="50">
         <v>5</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="16">
         <v>3</v>
@@ -7946,22 +9322,22 @@
         <v>45383</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="16" x14ac:dyDescent="0.4">
       <c r="C26" s="35"/>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="50">
         <v>5</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="16">
         <v>3</v>
@@ -7970,7 +9346,7 @@
         <v>45383</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7985,16 +9361,16 @@
     </row>
     <row r="29" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="126"/>
+      <c r="C30" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
     </row>
     <row r="31" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C31" s="32"/>
@@ -8002,10 +9378,10 @@
     </row>
     <row r="32" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>2</v>
@@ -8020,28 +9396,28 @@
         <v>11</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>4</v>
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="3:10" ht="44" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:10" ht="29.5" x14ac:dyDescent="0.4">
       <c r="C33" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="49">
         <v>5</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="30">
         <v>6</v>
@@ -8050,22 +9426,22 @@
         <v>45390</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="16" x14ac:dyDescent="0.4">
       <c r="C34" s="35"/>
       <c r="D34" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="49">
         <v>5</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="30">
         <v>6</v>
@@ -8074,22 +9450,22 @@
         <v>45390</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="3:10" ht="16" x14ac:dyDescent="0.4">
       <c r="C35" s="35"/>
       <c r="D35" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="49">
         <v>5</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="30">
         <v>6</v>
@@ -8098,7 +9474,7 @@
         <v>45390</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8113,27 +9489,27 @@
     </row>
     <row r="38" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="126"/>
+      <c r="C39" s="137" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="139"/>
     </row>
     <row r="40" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="32"/>
       <c r="J40" s="21"/>
     </row>
     <row r="41" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="49" t="s">
-        <v>15</v>
+      <c r="C41" s="46" t="s">
+        <v>14</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>2</v>
@@ -8148,7 +9524,7 @@
         <v>11</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J41" s="20" t="s">
         <v>4</v>
@@ -8156,54 +9532,54 @@
     </row>
     <row r="42" spans="3:10" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="47">
         <v>8</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="48">
+        <v>74</v>
+      </c>
+      <c r="H42" s="45">
         <v>4</v>
       </c>
       <c r="I42" s="29">
         <v>45397</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="3:10" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="51">
+      <c r="F43" s="48">
         <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I43" s="38">
         <v>45397</v>
       </c>
-      <c r="J43" s="42" t="s">
-        <v>78</v>
+      <c r="J43" s="39" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8218,16 +9594,16 @@
     </row>
     <row r="46" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="126"/>
+      <c r="C47" s="137" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="139"/>
     </row>
     <row r="48" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C48" s="32"/>
@@ -8235,10 +9611,10 @@
     </row>
     <row r="49" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C49" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>2</v>
@@ -8253,27 +9629,27 @@
         <v>11</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J49" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C50" s="46" t="s">
-        <v>31</v>
+    <row r="50" spans="3:10" ht="16" x14ac:dyDescent="0.35">
+      <c r="C50" s="43" t="s">
+        <v>30</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F50" s="47">
         <v>4</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H50" s="30">
         <v>2</v>
@@ -8282,59 +9658,59 @@
         <v>45404</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="51">
+      <c r="F51" s="48">
         <v>9</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H51" s="7">
         <v>5</v>
       </c>
-      <c r="I51" s="41">
+      <c r="I51" s="38">
         <v>45404</v>
       </c>
-      <c r="J51" s="44" t="s">
-        <v>78</v>
+      <c r="J51" s="41" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="3:10" ht="16" x14ac:dyDescent="0.35">
-      <c r="C52" s="45" t="s">
-        <v>85</v>
+      <c r="C52" s="42" t="s">
+        <v>84</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F52" s="51">
+        <v>144</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="48">
         <v>2</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H52" s="7">
         <v>7</v>
       </c>
-      <c r="I52" s="41">
+      <c r="I52" s="38">
         <v>45404</v>
       </c>
-      <c r="J52" s="44" t="s">
-        <v>78</v>
+      <c r="J52" s="41" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8349,16 +9725,16 @@
     </row>
     <row r="55" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C56" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="126"/>
+      <c r="C56" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="138"/>
+      <c r="E56" s="138"/>
+      <c r="F56" s="138"/>
+      <c r="G56" s="138"/>
+      <c r="H56" s="138"/>
+      <c r="I56" s="138"/>
+      <c r="J56" s="139"/>
     </row>
     <row r="57" spans="3:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C57" s="32"/>
@@ -8366,10 +9742,10 @@
     </row>
     <row r="58" spans="3:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C58" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>2</v>
@@ -8384,44 +9760,44 @@
         <v>11</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J58" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="3:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="72" t="s">
-        <v>108</v>
+      <c r="C59" s="68" t="s">
+        <v>107</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="48">
+      <c r="F59" s="45">
         <v>13</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H59" s="48">
+        <v>104</v>
+      </c>
+      <c r="H59" s="45">
         <v>7</v>
       </c>
       <c r="I59" s="29">
         <v>45411</v>
       </c>
-      <c r="J59" s="44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="J59" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C60" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>7</v>
@@ -8430,16 +9806,16 @@
         <v>9</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H60" s="7">
         <v>6.5</v>
       </c>
-      <c r="I60" s="41">
+      <c r="I60" s="38">
         <v>45411</v>
       </c>
-      <c r="J60" s="44" t="s">
-        <v>78</v>
+      <c r="J60" s="41" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8454,77 +9830,79 @@
     </row>
     <row r="64" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="65" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C65" s="124" t="s">
-        <v>169</v>
-      </c>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="126"/>
+      <c r="C65" s="137" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="138"/>
+      <c r="E65" s="138"/>
+      <c r="F65" s="138"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="138"/>
+      <c r="J65" s="139"/>
     </row>
     <row r="66" spans="3:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C66" s="32"/>
       <c r="J66" s="21"/>
     </row>
-    <row r="67" spans="3:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" s="39" t="s">
+    <row r="67" spans="3:10" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C67" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F67" s="39" t="s">
+      <c r="F67" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="39" t="s">
+      <c r="G67" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H67" s="39" t="s">
+      <c r="H67" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="J67" s="40" t="s">
+      <c r="I67" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J67" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="3:10" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="45">
+        <v>10</v>
+      </c>
+      <c r="G68" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="H68" s="45">
         <v>7</v>
       </c>
-      <c r="F68" s="7">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="41">
+      <c r="I68" s="29">
         <v>45418</v>
       </c>
-      <c r="J68" s="54" t="s">
-        <v>12</v>
+      <c r="J68" s="34" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="3:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C69" s="73" t="s">
-        <v>29</v>
+      <c r="C69" s="69" t="s">
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>6</v>
@@ -8533,29 +9911,53 @@
         <v>7</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="41">
+        <v>71</v>
+      </c>
+      <c r="H69" s="7">
+        <v>3</v>
+      </c>
+      <c r="I69" s="38">
         <v>45418</v>
       </c>
-      <c r="J69" s="54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C70" s="32"/>
-      <c r="J70" s="21"/>
+      <c r="J69" s="41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="7">
+        <v>9</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H70" s="7">
+        <v>10</v>
+      </c>
+      <c r="I70" s="38">
+        <v>45418</v>
+      </c>
+      <c r="J70" s="41" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="71" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C71" s="36"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="23"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8577,8 +9979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53D959B-E411-475F-8D2F-46A6BAEF8854}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A42" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8589,1037 +9991,1073 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="126"/>
+      <c r="A1" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="52" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="57">
+      <c r="A3" s="53">
         <v>45405</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="58" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="53">
+        <v>45405</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="57">
+      <c r="C4" s="54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="53">
         <v>45405</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="58" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="57">
+      <c r="C5" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="53">
         <v>45405</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C6" s="54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="53">
+        <v>45405</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="57">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="53">
         <v>45405</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="58" t="s">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="145"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="53">
+        <v>45406</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="53">
+        <v>45406</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="53">
+        <v>45406</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="53">
+        <v>45406</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="53">
+        <v>45406</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="57">
-        <v>45405</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C14" s="54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="53">
+        <v>45406</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="57">
-        <v>45405</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="57">
-        <v>45406</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="57">
-        <v>45406</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="57">
-        <v>45406</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C15" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="55"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="57">
+        <v>45407</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="57">
+        <v>45407</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="57">
+        <v>45407</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="57">
-        <v>45406</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="57">
-        <v>45406</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C19" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="57">
+        <v>45407</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="57">
+        <v>45407</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="57">
+        <v>45407</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="57">
-        <v>45406</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="58" t="s">
+      <c r="C22" s="54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="58"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="56"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="57">
+        <v>45408</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="54" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="60"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="61">
-        <v>45407</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="58" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="57">
+        <v>45408</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="54" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="61">
-        <v>45407</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="58" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="57">
+        <v>45408</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="57">
+        <v>45408</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="61">
-        <v>45407</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="58" t="s">
+      <c r="C27" s="54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="57">
+        <v>45408</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="59">
+        <v>45408</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="61">
-        <v>45407</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="88"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="57">
+        <v>45409</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="57">
+        <v>45409</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="57">
+        <v>45409</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="57">
+        <v>45409</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="58" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="57">
+        <v>45409</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="54" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="61">
-        <v>45407</v>
-      </c>
-      <c r="B21" s="7" t="s">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="57">
+        <v>45409</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="88"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="57">
+        <v>45410</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="57">
+        <v>45410</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="57">
+        <v>45410</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="61">
-        <v>45407</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="58" t="s">
+      <c r="C40" s="54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="57">
+        <v>45410</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="62"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="60"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="61">
-        <v>45408</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="61">
-        <v>45408</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="58" t="s">
+      <c r="C41" s="54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="57">
+        <v>45410</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="57">
+        <v>45410</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="88"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="57">
+        <v>45411</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="57">
+        <v>45411</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="57">
+        <v>45411</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="57">
+        <v>45411</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="61">
-        <v>45408</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="61">
-        <v>45408</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="61">
-        <v>45408</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="63">
-        <v>45408</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="92"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="61">
-        <v>45409</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="61">
-        <v>45409</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="61">
-        <v>45409</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="61">
-        <v>45409</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="61">
-        <v>45409</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="61">
-        <v>45409</v>
-      </c>
-      <c r="B36" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="92"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="61">
-        <v>45410</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="61">
-        <v>45410</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="61">
-        <v>45410</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="61">
-        <v>45410</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="61">
-        <v>45410</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="61">
-        <v>45410</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="92"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="61">
+      <c r="C48" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="57">
         <v>45411</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="61">
+      <c r="B49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="59">
         <v>45411</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="61">
-        <v>45411</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="61">
-        <v>45411</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="61">
-        <v>45411</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="63">
-        <v>45411</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>172</v>
+      <c r="B50" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="61" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="133" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54" s="134"/>
-      <c r="C54" s="135"/>
+      <c r="A54" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="147"/>
+      <c r="C54" s="148"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="61">
+      <c r="A55" s="57">
         <v>45412</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="57">
+        <v>45412</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="57">
+        <v>45412</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="57">
+        <v>45412</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="54" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="61">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="57">
         <v>45412</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="58" t="s">
+      <c r="B59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="59">
+        <v>45412</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="91"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="93"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="57">
+        <v>45413</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="57">
+        <v>45413</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="57">
+        <v>45413</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="57">
+        <v>45413</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="57">
+        <v>45413</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="59">
+        <v>45413</v>
+      </c>
+      <c r="B67" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="91"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="95"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="57">
+        <v>45414</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="54" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="61">
-        <v>45412</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="61">
-        <v>45412</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="58" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="57">
+        <v>45414</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="54" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="61">
-        <v>45412</v>
-      </c>
-      <c r="B59" s="7" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="57">
+        <v>45414</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C71" s="54" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="63">
-        <v>45412</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="65" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="57">
+        <v>45414</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="57">
+        <v>45414</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="59">
+        <v>45414</v>
+      </c>
+      <c r="B74" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="61" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="91"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="95"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="53">
+        <v>45415</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="54" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="95"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="97"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="61">
-        <v>45413</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="61">
-        <v>45413</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="61">
-        <v>45413</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="61">
-        <v>45413</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="61">
-        <v>45413</v>
-      </c>
-      <c r="B66" s="7" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="53">
+        <v>45415</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="53">
+        <v>45415</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="63">
-        <v>45413</v>
-      </c>
-      <c r="B67" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="95"/>
-      <c r="B68" s="95"/>
-      <c r="C68" s="99"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="61">
-        <v>45414</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="58" t="s">
+      <c r="C78" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="53">
+        <v>45415</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="54" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="61">
-        <v>45414</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="61">
-        <v>45414</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="58" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="61">
-        <v>45414</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="61">
-        <v>45414</v>
-      </c>
-      <c r="B73" s="7" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="53">
+        <v>45415</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="96">
+        <v>45415</v>
+      </c>
+      <c r="B81" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="55"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="97">
+        <v>45416</v>
+      </c>
+      <c r="B83" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="99" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="97">
+        <v>45416</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="97">
+        <v>45416</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="63">
-        <v>45414</v>
-      </c>
-      <c r="B74" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="65" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="95"/>
-      <c r="B75" s="95"/>
-      <c r="C75" s="99"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="57">
-        <v>45415</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="58" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="57">
-        <v>45415</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="57">
-        <v>45415</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="58" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="57">
-        <v>45415</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="57">
-        <v>45415</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="C85" s="54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="97">
+        <v>45416</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="97">
+        <v>45416</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="97">
+        <v>45416</v>
+      </c>
+      <c r="B88" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="55"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="97">
+        <v>45417</v>
+      </c>
+      <c r="B90" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="99" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="97">
+        <v>45417</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="97">
+        <v>45417</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="100">
-        <v>45415</v>
-      </c>
-      <c r="B81" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="59"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="101">
+      <c r="C92" s="54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="97">
+        <v>45417</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" s="54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="97">
+        <v>45417</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="97">
+        <v>45417</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="55"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="88"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="102">
         <v>45418</v>
       </c>
-      <c r="B83" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="103"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="57">
+      <c r="B97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="102">
         <v>45418</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C84" s="58"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="57">
+      <c r="B98" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="102">
         <v>45418</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="58"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="57">
+      <c r="B99" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="102">
         <v>45418</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C86" s="58"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="57">
+      <c r="B100" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="102">
         <v>45418</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B101" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="103">
+        <v>45418</v>
+      </c>
+      <c r="B102" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="91"/>
+      <c r="B103" s="91"/>
+      <c r="C103" s="95"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="53">
+        <v>45419</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="54"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="53">
+        <v>45419</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="54"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="53">
+        <v>45419</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="58"/>
-    </row>
-    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="100">
-        <v>45418</v>
-      </c>
-      <c r="B88" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="65"/>
-    </row>
-    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="59"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="101">
+      <c r="C106" s="54"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="53">
         <v>45419</v>
       </c>
-      <c r="B90" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="103"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="57">
+      <c r="B107" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="54"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="53">
         <v>45419</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="58"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="57">
+      <c r="B108" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="54"/>
+    </row>
+    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="96">
         <v>45419</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="58"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="57">
-        <v>45419</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93" s="58"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="57">
-        <v>45419</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="58"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="57">
-        <v>45419</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C95" s="58"/>
-    </row>
-    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="104"/>
-      <c r="B96" s="104"/>
-      <c r="C96" s="105"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="101">
-        <v>45420</v>
-      </c>
-      <c r="B97" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="103"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="57">
-        <v>45420</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" s="58"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="57">
-        <v>45420</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" s="58"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="57">
-        <v>45420</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="58"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="57">
-        <v>45420</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" s="58"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="57">
-        <v>45420</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="58"/>
-    </row>
-    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="104"/>
-      <c r="B103" s="104"/>
-      <c r="C103" s="105"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="101">
-        <v>45421</v>
-      </c>
-      <c r="B104" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="103"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="57">
-        <v>45421</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="58"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="57">
-        <v>45421</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" s="58"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="57">
-        <v>45421</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C107" s="58"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="57">
-        <v>45421</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="58"/>
-    </row>
-    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="100">
-        <v>45421</v>
-      </c>
-      <c r="B109" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C109" s="65"/>
+      <c r="B109" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9634,10 +11072,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F06579-E269-4EF9-B570-7E87B660141A}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9647,51 +11085,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="A1" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
-      <c r="B2" s="58"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="B5" s="85" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="89" t="s">
-        <v>120</v>
-      </c>
-    </row>
     <row r="6" spans="1:8" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="90" t="s">
-        <v>171</v>
+      <c r="A6" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -9704,119 +11150,120 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E69F5A-B02F-42AF-8116-2B76A69569A0}">
-  <dimension ref="B1:K113"/>
+  <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="N102" sqref="N102"/>
+    <sheetView topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U146" sqref="U146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="6.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="94" t="s">
-        <v>232</v>
+      <c r="G2" s="90" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="98">
+        <v>173</v>
+      </c>
+      <c r="C7" s="94">
         <v>7</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="94">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="98">
+        <v>174</v>
+      </c>
+      <c r="C8" s="94">
         <v>6</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="94">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="98">
+        <v>175</v>
+      </c>
+      <c r="C9" s="94">
         <v>5</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="94">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="98">
+        <v>176</v>
+      </c>
+      <c r="C10" s="94">
         <v>4</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="94">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="98">
+        <v>177</v>
+      </c>
+      <c r="C11" s="94">
         <v>3</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="94">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="98">
+        <v>178</v>
+      </c>
+      <c r="C12" s="94">
         <v>2</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="94">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="98">
+        <v>179</v>
+      </c>
+      <c r="C13" s="94">
         <v>1</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="94">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="98">
+        <v>180</v>
+      </c>
+      <c r="C14" s="94">
         <v>0</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="94">
         <v>0</v>
       </c>
     </row>
@@ -9827,17 +11274,17 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="107">
+      <c r="B28" s="101">
         <v>47209</v>
       </c>
       <c r="C28" s="16">
@@ -9848,7 +11295,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="107">
+      <c r="B29" s="101">
         <v>11049</v>
       </c>
       <c r="C29" s="16">
@@ -9859,7 +11306,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="107">
+      <c r="B30" s="101">
         <v>37012</v>
       </c>
       <c r="C30" s="16">
@@ -9870,7 +11317,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="107">
+      <c r="B31" s="101">
         <v>37377</v>
       </c>
       <c r="C31" s="16">
@@ -9881,7 +11328,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="107">
+      <c r="B32" s="101">
         <v>37742</v>
       </c>
       <c r="C32" s="16">
@@ -9892,7 +11339,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="107">
+      <c r="B33" s="101">
         <v>38108</v>
       </c>
       <c r="C33" s="16">
@@ -9903,7 +11350,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="107">
+      <c r="B34" s="101">
         <v>38473</v>
       </c>
       <c r="C34" s="16">
@@ -9914,7 +11361,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="107">
+      <c r="B35" s="101">
         <v>38838</v>
       </c>
       <c r="C35" s="16">
@@ -9926,7 +11373,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C36" s="16">
         <v>0</v>
@@ -9937,15 +11384,15 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D41">
         <v>25</v>
@@ -9956,9 +11403,9 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="93">
+        <v>174</v>
+      </c>
+      <c r="D42" s="89">
         <v>24.553571428571399</v>
       </c>
       <c r="E42">
@@ -9967,7 +11414,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D43">
         <v>24.107142857142801</v>
@@ -9978,9 +11425,9 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="93">
+        <v>176</v>
+      </c>
+      <c r="D44" s="89">
         <v>23.660714285714199</v>
       </c>
       <c r="E44">
@@ -9989,7 +11436,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D45">
         <v>23.214285714285602</v>
@@ -10000,9 +11447,9 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="93">
+        <v>178</v>
+      </c>
+      <c r="D46" s="89">
         <v>22.767857142857</v>
       </c>
       <c r="E46">
@@ -10011,7 +11458,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D47">
         <v>22.321428571428399</v>
@@ -10022,9 +11469,9 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="93">
+        <v>180</v>
+      </c>
+      <c r="D48" s="89">
         <v>21.874999999999801</v>
       </c>
       <c r="E48">
@@ -10033,7 +11480,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D49">
         <v>21.4285714285712</v>
@@ -10044,9 +11491,9 @@
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="93">
+        <v>182</v>
+      </c>
+      <c r="D50" s="89">
         <v>20.982142857142598</v>
       </c>
       <c r="E50">
@@ -10055,7 +11502,7 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D51">
         <v>20.535714285714</v>
@@ -10066,9 +11513,9 @@
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
-        <v>186</v>
-      </c>
-      <c r="D52" s="93">
+        <v>184</v>
+      </c>
+      <c r="D52" s="89">
         <v>20.089285714285399</v>
       </c>
       <c r="E52">
@@ -10077,7 +11524,7 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D53">
         <v>19.642857142856801</v>
@@ -10088,9 +11535,9 @@
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" s="93">
+        <v>186</v>
+      </c>
+      <c r="D54" s="89">
         <v>19.1964285714282</v>
       </c>
       <c r="E54">
@@ -10099,7 +11546,7 @@
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D55">
         <v>18.749999999999599</v>
@@ -10110,9 +11557,9 @@
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="93">
+        <v>188</v>
+      </c>
+      <c r="D56" s="89">
         <v>18.303571428571001</v>
       </c>
       <c r="E56">
@@ -10121,7 +11568,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D57">
         <v>17.857142857142399</v>
@@ -10132,9 +11579,9 @@
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" s="93">
+        <v>190</v>
+      </c>
+      <c r="D58" s="89">
         <v>17.410714285713802</v>
       </c>
       <c r="E58">
@@ -10143,7 +11590,7 @@
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D59">
         <v>16.9642857142852</v>
@@ -10154,9 +11601,9 @@
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" s="93">
+        <v>192</v>
+      </c>
+      <c r="D60" s="89">
         <v>16.517857142856599</v>
       </c>
       <c r="E60">
@@ -10165,7 +11612,7 @@
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D61">
         <v>16.071428571428001</v>
@@ -10176,9 +11623,9 @@
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
-        <v>196</v>
-      </c>
-      <c r="D62" s="93">
+        <v>194</v>
+      </c>
+      <c r="D62" s="89">
         <v>15.6249999999994</v>
       </c>
       <c r="E62">
@@ -10187,7 +11634,7 @@
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D63">
         <v>15.1785714285708</v>
@@ -10198,9 +11645,9 @@
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" s="93">
+        <v>196</v>
+      </c>
+      <c r="D64" s="89">
         <v>14.7321428571422</v>
       </c>
       <c r="E64">
@@ -10209,7 +11656,7 @@
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65">
         <v>14.285714285713601</v>
@@ -10220,9 +11667,9 @@
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="93">
+        <v>198</v>
+      </c>
+      <c r="D66" s="89">
         <v>13.839285714284999</v>
       </c>
       <c r="E66">
@@ -10231,7 +11678,7 @@
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67">
         <v>13.3928571428564</v>
@@ -10242,9 +11689,9 @@
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="93">
+        <v>200</v>
+      </c>
+      <c r="D68" s="89">
         <v>12.9464285714278</v>
       </c>
       <c r="E68">
@@ -10253,7 +11700,7 @@
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69">
         <v>12.499999999999201</v>
@@ -10264,9 +11711,9 @@
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>204</v>
-      </c>
-      <c r="D70" s="93">
+        <v>202</v>
+      </c>
+      <c r="D70" s="89">
         <v>12.053571428570599</v>
       </c>
       <c r="E70">
@@ -10275,7 +11722,7 @@
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71">
         <v>11.607142857142</v>
@@ -10286,9 +11733,9 @@
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
-        <v>206</v>
-      </c>
-      <c r="D72" s="93">
+        <v>204</v>
+      </c>
+      <c r="D72" s="89">
         <v>11.1607142857134</v>
       </c>
       <c r="E72">
@@ -10297,7 +11744,7 @@
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73">
         <v>10.7142857142848</v>
@@ -10308,9 +11755,9 @@
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" s="93">
+        <v>206</v>
+      </c>
+      <c r="D74" s="89">
         <v>10.267857142856201</v>
       </c>
       <c r="E74">
@@ -10319,7 +11766,7 @@
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D75">
         <v>9.8214285714275995</v>
@@ -10330,9 +11777,9 @@
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
-        <v>210</v>
-      </c>
-      <c r="D76" s="93">
+        <v>208</v>
+      </c>
+      <c r="D76" s="89">
         <v>9.3749999999989999</v>
       </c>
       <c r="E76">
@@ -10341,7 +11788,7 @@
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D77">
         <v>8.9285714285704003</v>
@@ -10352,9 +11799,9 @@
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
-        <v>212</v>
-      </c>
-      <c r="D78" s="93">
+        <v>210</v>
+      </c>
+      <c r="D78" s="89">
         <v>8.4821428571416995</v>
       </c>
       <c r="E78">
@@ -10363,7 +11810,7 @@
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D79">
         <v>8.0357142857130999</v>
@@ -10374,9 +11821,9 @@
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80" s="93">
+        <v>212</v>
+      </c>
+      <c r="D80" s="89">
         <v>7.5892857142845003</v>
       </c>
       <c r="E80">
@@ -10385,7 +11832,7 @@
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D81">
         <v>7.1428571428558998</v>
@@ -10396,9 +11843,9 @@
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
-        <v>216</v>
-      </c>
-      <c r="D82" s="93">
+        <v>214</v>
+      </c>
+      <c r="D82" s="89">
         <v>6.6964285714273002</v>
       </c>
       <c r="E82">
@@ -10407,7 +11854,7 @@
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D83">
         <v>6.2499999999986997</v>
@@ -10418,9 +11865,9 @@
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
-        <v>218</v>
-      </c>
-      <c r="D84" s="93">
+        <v>216</v>
+      </c>
+      <c r="D84" s="89">
         <v>5.8035714285701001</v>
       </c>
       <c r="E84">
@@ -10429,7 +11876,7 @@
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D85">
         <v>5.3571428571414996</v>
@@ -10440,9 +11887,9 @@
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
-        <v>220</v>
-      </c>
-      <c r="D86" s="93">
+        <v>218</v>
+      </c>
+      <c r="D86" s="89">
         <v>4.9107142857129</v>
       </c>
       <c r="E86">
@@ -10451,7 +11898,7 @@
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D87">
         <v>4.4642857142843004</v>
@@ -10462,9 +11909,9 @@
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
-        <v>222</v>
-      </c>
-      <c r="D88" s="93">
+        <v>220</v>
+      </c>
+      <c r="D88" s="89">
         <v>4.0178571428556999</v>
       </c>
       <c r="E88">
@@ -10473,7 +11920,7 @@
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D89">
         <v>3.5714285714270999</v>
@@ -10484,9 +11931,9 @@
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
-        <v>224</v>
-      </c>
-      <c r="D90" s="93">
+        <v>222</v>
+      </c>
+      <c r="D90" s="89">
         <v>3.1249999999984999</v>
       </c>
       <c r="E90">
@@ -10495,7 +11942,7 @@
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D91">
         <v>2.6785714285698998</v>
@@ -10506,9 +11953,9 @@
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
-        <v>226</v>
-      </c>
-      <c r="D92" s="93">
+        <v>224</v>
+      </c>
+      <c r="D92" s="89">
         <v>2.2321428571412998</v>
       </c>
       <c r="E92">
@@ -10517,7 +11964,7 @@
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C93" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D93">
         <v>1.7857142857127</v>
@@ -10528,9 +11975,9 @@
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
-        <v>228</v>
-      </c>
-      <c r="D94" s="93">
+        <v>226</v>
+      </c>
+      <c r="D94" s="89">
         <v>1.3392857142840999</v>
       </c>
       <c r="E94">
@@ -10539,7 +11986,7 @@
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D95">
         <v>0.892857142855501</v>
@@ -10550,9 +11997,9 @@
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C96" t="s">
-        <v>230</v>
-      </c>
-      <c r="D96" s="93">
+        <v>228</v>
+      </c>
+      <c r="D96" s="89">
         <v>0.44642857142690001</v>
       </c>
       <c r="E96">
@@ -10561,7 +12008,7 @@
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -10571,89 +12018,917 @@
       </c>
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C105" s="138" t="s">
-        <v>243</v>
-      </c>
-      <c r="D105" s="138"/>
-      <c r="E105" s="138"/>
-      <c r="F105" s="138"/>
-      <c r="G105" s="138"/>
+      <c r="C105" s="151" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" s="151"/>
+      <c r="E105" s="151"/>
+      <c r="F105" s="151"/>
+      <c r="G105" s="151"/>
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D107" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E107" t="s">
+        <v>250</v>
+      </c>
+      <c r="F107" t="s">
+        <v>251</v>
+      </c>
+      <c r="G107" t="s">
         <v>252</v>
       </c>
-      <c r="F107" t="s">
+      <c r="H107" t="s">
         <v>253</v>
       </c>
-      <c r="G107" t="s">
+      <c r="I107" t="s">
         <v>254</v>
       </c>
-      <c r="H107" t="s">
+      <c r="J107" t="s">
         <v>255</v>
       </c>
-      <c r="I107" t="s">
+      <c r="K107" t="s">
         <v>256</v>
-      </c>
-      <c r="J107" t="s">
-        <v>257</v>
-      </c>
-      <c r="K107" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
-        <v>248</v>
-      </c>
-      <c r="D108" s="106">
+        <v>246</v>
+      </c>
+      <c r="D108" s="100">
         <v>7</v>
       </c>
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
-        <v>249</v>
-      </c>
-      <c r="D109" s="106">
+        <v>247</v>
+      </c>
+      <c r="D109" s="100">
         <v>7</v>
       </c>
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
-        <v>245</v>
-      </c>
-      <c r="D110" s="106"/>
+        <v>243</v>
+      </c>
+      <c r="D110" s="100"/>
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D112">
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D113">
         <v>14</v>
       </c>
     </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A119" s="105"/>
+      <c r="B119" s="105"/>
+      <c r="C119" s="105"/>
+      <c r="D119" s="105"/>
+      <c r="E119" s="105"/>
+      <c r="F119" s="105"/>
+      <c r="G119" s="105"/>
+      <c r="H119" s="105"/>
+      <c r="I119" s="105"/>
+      <c r="J119" s="105"/>
+      <c r="K119" s="105"/>
+      <c r="L119" s="105"/>
+      <c r="M119" s="105"/>
+      <c r="N119" s="105"/>
+      <c r="O119" s="105"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A120" s="105"/>
+      <c r="B120" s="105"/>
+      <c r="C120" s="105"/>
+      <c r="D120" s="105"/>
+      <c r="E120" s="105"/>
+      <c r="F120" s="105"/>
+      <c r="G120" s="105"/>
+      <c r="H120" s="105"/>
+      <c r="I120" s="105"/>
+      <c r="J120" s="105"/>
+      <c r="K120" s="105"/>
+      <c r="L120" s="105"/>
+      <c r="M120" s="105"/>
+      <c r="N120" s="105"/>
+      <c r="O120" s="105"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A121" s="105"/>
+      <c r="B121" s="105"/>
+      <c r="C121" s="105"/>
+      <c r="D121" s="105"/>
+      <c r="E121" s="105"/>
+      <c r="F121" s="105"/>
+      <c r="G121" s="105"/>
+      <c r="H121" s="105"/>
+      <c r="I121" s="105"/>
+      <c r="J121" s="105"/>
+      <c r="K121" s="105"/>
+      <c r="L121" s="105"/>
+      <c r="M121" s="105"/>
+      <c r="N121" s="105"/>
+      <c r="O121" s="105"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A122" s="105"/>
+      <c r="B122" s="105"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="105"/>
+      <c r="E122" s="105"/>
+      <c r="F122" s="105"/>
+      <c r="G122" s="105"/>
+      <c r="H122" s="105"/>
+      <c r="I122" s="105"/>
+      <c r="J122" s="105"/>
+      <c r="K122" s="105"/>
+      <c r="L122" s="105"/>
+      <c r="M122" s="105"/>
+      <c r="N122" s="105"/>
+      <c r="O122" s="105"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A123" s="105"/>
+      <c r="B123" s="105"/>
+      <c r="C123" s="105"/>
+      <c r="D123" s="105"/>
+      <c r="E123" s="105"/>
+      <c r="F123" s="105"/>
+      <c r="G123" s="105"/>
+      <c r="H123" s="105"/>
+      <c r="I123" s="105"/>
+      <c r="J123" s="105"/>
+      <c r="K123" s="105"/>
+      <c r="L123" s="105"/>
+      <c r="M123" s="105"/>
+      <c r="N123" s="105"/>
+      <c r="O123" s="105"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A124" s="152" t="s">
+        <v>286</v>
+      </c>
+      <c r="B124" s="152"/>
+      <c r="C124" s="152"/>
+      <c r="D124" s="152"/>
+      <c r="E124" s="152"/>
+      <c r="F124" s="152"/>
+      <c r="G124" s="152"/>
+      <c r="H124" s="152"/>
+      <c r="I124" s="152"/>
+      <c r="J124" s="152"/>
+      <c r="K124" s="152"/>
+      <c r="L124" s="152"/>
+      <c r="M124" s="152"/>
+      <c r="N124" s="152"/>
+      <c r="O124" s="105"/>
+      <c r="P124" s="105"/>
+      <c r="Q124" s="105"/>
+      <c r="R124" s="105"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A125" s="152"/>
+      <c r="B125" s="152"/>
+      <c r="C125" s="152"/>
+      <c r="D125" s="152"/>
+      <c r="E125" s="152"/>
+      <c r="F125" s="152"/>
+      <c r="G125" s="152"/>
+      <c r="H125" s="152"/>
+      <c r="I125" s="152"/>
+      <c r="J125" s="152"/>
+      <c r="K125" s="152"/>
+      <c r="L125" s="152"/>
+      <c r="M125" s="152"/>
+      <c r="N125" s="152"/>
+      <c r="O125" s="105"/>
+      <c r="P125" s="105"/>
+      <c r="Q125" s="105"/>
+      <c r="R125" s="105"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A126" s="152"/>
+      <c r="B126" s="152"/>
+      <c r="C126" s="152"/>
+      <c r="D126" s="152"/>
+      <c r="E126" s="152"/>
+      <c r="F126" s="152"/>
+      <c r="G126" s="152"/>
+      <c r="H126" s="152"/>
+      <c r="I126" s="152"/>
+      <c r="J126" s="152"/>
+      <c r="K126" s="152"/>
+      <c r="L126" s="152"/>
+      <c r="M126" s="152"/>
+      <c r="N126" s="152"/>
+      <c r="O126" s="105"/>
+      <c r="P126" s="105"/>
+      <c r="Q126" s="105"/>
+      <c r="R126" s="105"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A127" s="152"/>
+      <c r="B127" s="152"/>
+      <c r="C127" s="152"/>
+      <c r="D127" s="152"/>
+      <c r="E127" s="152"/>
+      <c r="F127" s="152"/>
+      <c r="G127" s="152"/>
+      <c r="H127" s="152"/>
+      <c r="I127" s="152"/>
+      <c r="J127" s="152"/>
+      <c r="K127" s="152"/>
+      <c r="L127" s="152"/>
+      <c r="M127" s="152"/>
+      <c r="N127" s="152"/>
+      <c r="O127" s="105"/>
+      <c r="P127" s="105"/>
+      <c r="Q127" s="105"/>
+      <c r="R127" s="105"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A128" s="152"/>
+      <c r="B128" s="152"/>
+      <c r="C128" s="152"/>
+      <c r="D128" s="152"/>
+      <c r="E128" s="152"/>
+      <c r="F128" s="152"/>
+      <c r="G128" s="152"/>
+      <c r="H128" s="152"/>
+      <c r="I128" s="152"/>
+      <c r="J128" s="152"/>
+      <c r="K128" s="152"/>
+      <c r="L128" s="152"/>
+      <c r="M128" s="152"/>
+      <c r="N128" s="152"/>
+      <c r="O128" s="105"/>
+      <c r="P128" s="105"/>
+      <c r="Q128" s="105"/>
+      <c r="R128" s="105"/>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A129" s="105"/>
+      <c r="B129" s="105"/>
+      <c r="C129" s="105"/>
+      <c r="D129" s="105"/>
+      <c r="E129" s="105"/>
+      <c r="F129" s="105"/>
+      <c r="G129" s="105"/>
+      <c r="H129" s="105"/>
+      <c r="I129" s="105"/>
+      <c r="J129" s="105"/>
+      <c r="K129" s="105"/>
+      <c r="L129" s="105"/>
+      <c r="M129" s="105"/>
+      <c r="N129" s="105"/>
+      <c r="O129" s="105"/>
+      <c r="P129" s="105"/>
+      <c r="Q129" s="105"/>
+      <c r="R129" s="105"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A130" s="105"/>
+      <c r="B130" s="105"/>
+      <c r="C130" s="105"/>
+      <c r="D130" s="105"/>
+      <c r="E130" s="105"/>
+      <c r="F130" s="105"/>
+      <c r="G130" s="105"/>
+      <c r="H130" s="105"/>
+      <c r="I130" s="105"/>
+      <c r="J130" s="105"/>
+      <c r="K130" s="105"/>
+      <c r="L130" s="105"/>
+      <c r="M130" s="105"/>
+      <c r="N130" s="105"/>
+      <c r="O130" s="105"/>
+      <c r="P130" s="105"/>
+      <c r="Q130" s="105"/>
+      <c r="R130" s="105"/>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A131" s="106"/>
+      <c r="B131" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="C131" s="112" t="s">
+        <v>275</v>
+      </c>
+      <c r="D131" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="E131" s="113" t="s">
+        <v>278</v>
+      </c>
+      <c r="F131" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="G131" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="H131" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="I131" s="113" t="s">
+        <v>282</v>
+      </c>
+      <c r="J131" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="K131" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="L131" s="106"/>
+      <c r="M131" s="106"/>
+      <c r="N131" s="106"/>
+      <c r="O131" s="105"/>
+      <c r="P131" s="105"/>
+      <c r="Q131" s="105"/>
+      <c r="R131" s="105"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A132" s="106"/>
+      <c r="B132" s="107" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" s="108">
+        <v>20</v>
+      </c>
+      <c r="D132" s="109">
+        <v>1</v>
+      </c>
+      <c r="E132" s="109"/>
+      <c r="F132" s="109"/>
+      <c r="G132" s="109">
+        <v>10</v>
+      </c>
+      <c r="H132" s="109"/>
+      <c r="I132" s="109">
+        <v>3</v>
+      </c>
+      <c r="J132" s="109">
+        <v>2</v>
+      </c>
+      <c r="K132" s="110">
+        <v>2</v>
+      </c>
+      <c r="L132" s="106"/>
+      <c r="M132" s="106"/>
+      <c r="N132" s="106"/>
+      <c r="O132" s="105"/>
+      <c r="P132" s="105"/>
+      <c r="Q132" s="105"/>
+      <c r="R132" s="105"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A133" s="106"/>
+      <c r="B133" s="107" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" s="109">
+        <v>10</v>
+      </c>
+      <c r="D133" s="109">
+        <v>5</v>
+      </c>
+      <c r="E133" s="109"/>
+      <c r="F133" s="109"/>
+      <c r="G133" s="109"/>
+      <c r="H133" s="109"/>
+      <c r="I133" s="109"/>
+      <c r="J133" s="109">
+        <v>2</v>
+      </c>
+      <c r="K133" s="110"/>
+      <c r="L133" s="106"/>
+      <c r="M133" s="106"/>
+      <c r="N133" s="106"/>
+      <c r="O133" s="105"/>
+      <c r="P133" s="105"/>
+      <c r="Q133" s="105"/>
+      <c r="R133" s="105"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A134" s="106"/>
+      <c r="B134" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="C134" s="109">
+        <v>15</v>
+      </c>
+      <c r="D134" s="109">
+        <v>6</v>
+      </c>
+      <c r="E134" s="109"/>
+      <c r="F134" s="109"/>
+      <c r="G134" s="109"/>
+      <c r="H134" s="109"/>
+      <c r="I134" s="109">
+        <v>1</v>
+      </c>
+      <c r="J134" s="109">
+        <v>2</v>
+      </c>
+      <c r="K134" s="110">
+        <v>2</v>
+      </c>
+      <c r="L134" s="106"/>
+      <c r="M134" s="106"/>
+      <c r="N134" s="106"/>
+      <c r="O134" s="105"/>
+      <c r="P134" s="105"/>
+      <c r="Q134" s="105"/>
+      <c r="R134" s="105"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A135" s="106"/>
+      <c r="B135" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="C135" s="109">
+        <v>10</v>
+      </c>
+      <c r="D135" s="109"/>
+      <c r="E135" s="109">
+        <v>3</v>
+      </c>
+      <c r="F135" s="109"/>
+      <c r="G135" s="109"/>
+      <c r="H135" s="109"/>
+      <c r="I135" s="109">
+        <v>2</v>
+      </c>
+      <c r="J135" s="109">
+        <v>2</v>
+      </c>
+      <c r="K135" s="110"/>
+      <c r="L135" s="106"/>
+      <c r="M135" s="106"/>
+      <c r="N135" s="106"/>
+      <c r="O135" s="105"/>
+      <c r="P135" s="105"/>
+      <c r="Q135" s="105"/>
+      <c r="R135" s="105"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A136" s="106"/>
+      <c r="B136" s="107" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136" s="109">
+        <v>8</v>
+      </c>
+      <c r="D136" s="109"/>
+      <c r="E136" s="109">
+        <v>2</v>
+      </c>
+      <c r="F136" s="109"/>
+      <c r="G136" s="109">
+        <v>2</v>
+      </c>
+      <c r="H136" s="109"/>
+      <c r="I136" s="109">
+        <v>3</v>
+      </c>
+      <c r="J136" s="109"/>
+      <c r="K136" s="110">
+        <v>2</v>
+      </c>
+      <c r="L136" s="106"/>
+      <c r="M136" s="106"/>
+      <c r="N136" s="106"/>
+      <c r="O136" s="105"/>
+      <c r="P136" s="105"/>
+      <c r="Q136" s="105"/>
+      <c r="R136" s="105"/>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A137" s="106"/>
+      <c r="B137" s="107" t="s">
+        <v>269</v>
+      </c>
+      <c r="C137" s="109">
+        <v>12</v>
+      </c>
+      <c r="D137" s="109"/>
+      <c r="E137" s="109">
+        <v>10</v>
+      </c>
+      <c r="F137" s="109"/>
+      <c r="G137" s="109">
+        <v>2</v>
+      </c>
+      <c r="H137" s="109">
+        <v>3</v>
+      </c>
+      <c r="I137" s="109">
+        <v>1</v>
+      </c>
+      <c r="J137" s="109"/>
+      <c r="K137" s="110">
+        <v>3</v>
+      </c>
+      <c r="L137" s="106"/>
+      <c r="M137" s="106"/>
+      <c r="N137" s="106"/>
+      <c r="O137" s="105"/>
+      <c r="P137" s="105"/>
+      <c r="Q137" s="105"/>
+      <c r="R137" s="105"/>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A138" s="106"/>
+      <c r="B138" s="107" t="s">
+        <v>270</v>
+      </c>
+      <c r="C138" s="109">
+        <v>15</v>
+      </c>
+      <c r="D138" s="109"/>
+      <c r="E138" s="109">
+        <v>3</v>
+      </c>
+      <c r="F138" s="109"/>
+      <c r="G138" s="109"/>
+      <c r="H138" s="109">
+        <v>2</v>
+      </c>
+      <c r="I138" s="109">
+        <v>1</v>
+      </c>
+      <c r="J138" s="109">
+        <v>1</v>
+      </c>
+      <c r="K138" s="110">
+        <v>3</v>
+      </c>
+      <c r="L138" s="106"/>
+      <c r="M138" s="106"/>
+      <c r="N138" s="106"/>
+      <c r="O138" s="105"/>
+      <c r="P138" s="105"/>
+      <c r="Q138" s="105"/>
+      <c r="R138" s="105"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A139" s="106"/>
+      <c r="B139" s="107" t="s">
+        <v>271</v>
+      </c>
+      <c r="C139" s="109">
+        <v>8</v>
+      </c>
+      <c r="D139" s="109"/>
+      <c r="E139" s="109"/>
+      <c r="F139" s="109">
+        <v>5</v>
+      </c>
+      <c r="G139" s="109"/>
+      <c r="H139" s="109">
+        <v>2</v>
+      </c>
+      <c r="I139" s="109">
+        <v>2</v>
+      </c>
+      <c r="J139" s="109">
+        <v>2</v>
+      </c>
+      <c r="K139" s="110"/>
+      <c r="L139" s="106"/>
+      <c r="M139" s="106"/>
+      <c r="N139" s="106"/>
+      <c r="O139" s="105"/>
+      <c r="P139" s="105"/>
+      <c r="Q139" s="105"/>
+      <c r="R139" s="105"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A140" s="106"/>
+      <c r="B140" s="107" t="s">
+        <v>272</v>
+      </c>
+      <c r="C140" s="109">
+        <v>12</v>
+      </c>
+      <c r="D140" s="109"/>
+      <c r="E140" s="109"/>
+      <c r="F140" s="109">
+        <v>4</v>
+      </c>
+      <c r="G140" s="109"/>
+      <c r="H140" s="109">
+        <v>2</v>
+      </c>
+      <c r="I140" s="109"/>
+      <c r="J140" s="109">
+        <v>4</v>
+      </c>
+      <c r="K140" s="110"/>
+      <c r="L140" s="106"/>
+      <c r="M140" s="106"/>
+      <c r="N140" s="106"/>
+      <c r="O140" s="105"/>
+      <c r="P140" s="105"/>
+      <c r="Q140" s="105"/>
+      <c r="R140" s="105"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A141" s="106"/>
+      <c r="B141" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="C141" s="109">
+        <v>10</v>
+      </c>
+      <c r="D141" s="109"/>
+      <c r="E141" s="109"/>
+      <c r="F141" s="109">
+        <v>7</v>
+      </c>
+      <c r="G141" s="109"/>
+      <c r="H141" s="109">
+        <v>10</v>
+      </c>
+      <c r="I141" s="109"/>
+      <c r="J141" s="109">
+        <v>1</v>
+      </c>
+      <c r="K141" s="110"/>
+      <c r="L141" s="106"/>
+      <c r="M141" s="106"/>
+      <c r="N141" s="106"/>
+      <c r="O141" s="105"/>
+      <c r="P141" s="105"/>
+      <c r="Q141" s="105"/>
+      <c r="R141" s="105"/>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A142" s="106"/>
+      <c r="B142" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="C142" s="116">
+        <f>SUM(C132:C141)</f>
+        <v>120</v>
+      </c>
+      <c r="D142" s="116">
+        <f>IF(SUM($D$132:$D$141)&gt;0,
+C$142-SUM(D$132:D$141),
+NA())</f>
+        <v>108</v>
+      </c>
+      <c r="E142" s="116">
+        <f t="shared" ref="E142:K142" si="0">IF(SUM($D$132:$D$141)&gt;0,
+D$142-SUM(E$132:E$141),
+NA())</f>
+        <v>90</v>
+      </c>
+      <c r="F142" s="116">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="G142" s="116">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H142" s="116">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="I142" s="116">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J142" s="116">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K142" s="117">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L142" s="106"/>
+      <c r="M142" s="106"/>
+      <c r="N142" s="106"/>
+      <c r="O142" s="105"/>
+      <c r="P142" s="105"/>
+      <c r="R142" s="105"/>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A143" s="106"/>
+      <c r="B143" s="118" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143" s="119">
+        <v>120</v>
+      </c>
+      <c r="D143" s="119">
+        <f>C$143-($C$143/COUNTA($D$131:$K$131))</f>
+        <v>105</v>
+      </c>
+      <c r="E143" s="119">
+        <f t="shared" ref="E143:K143" si="1">D$143-($C$143/COUNTA($D$131:$K$131))</f>
+        <v>90</v>
+      </c>
+      <c r="F143" s="119">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="G143" s="119">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H143" s="119">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I143" s="119">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J143" s="119">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K143" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L143" s="106"/>
+      <c r="M143" s="106"/>
+      <c r="N143" s="106"/>
+      <c r="O143" s="105"/>
+      <c r="P143" s="105"/>
+      <c r="Q143" s="105"/>
+      <c r="R143" s="105"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A144" s="105"/>
+      <c r="B144" s="105"/>
+      <c r="C144" s="105"/>
+      <c r="D144" s="105"/>
+      <c r="E144" s="105"/>
+      <c r="F144" s="105"/>
+      <c r="G144" s="105"/>
+      <c r="H144" s="105"/>
+      <c r="I144" s="105"/>
+      <c r="J144" s="105"/>
+      <c r="K144" s="105"/>
+      <c r="L144" s="105"/>
+      <c r="M144" s="105"/>
+      <c r="N144" s="105"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A145" s="105"/>
+      <c r="B145" s="105"/>
+      <c r="C145" s="105"/>
+      <c r="D145" s="105"/>
+      <c r="E145" s="105"/>
+      <c r="F145" s="105"/>
+      <c r="G145" s="105"/>
+      <c r="H145" s="105"/>
+      <c r="I145" s="105"/>
+      <c r="J145" s="105"/>
+      <c r="K145" s="105"/>
+      <c r="L145" s="105"/>
+      <c r="M145" s="105"/>
+      <c r="N145" s="105"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A146" s="105"/>
+      <c r="B146" s="105"/>
+      <c r="C146" s="105"/>
+      <c r="D146" s="105"/>
+      <c r="E146" s="105"/>
+      <c r="F146" s="105"/>
+      <c r="G146" s="105"/>
+      <c r="H146" s="105"/>
+      <c r="I146" s="105"/>
+      <c r="J146" s="105"/>
+      <c r="K146" s="105"/>
+      <c r="L146" s="105"/>
+      <c r="M146" s="105"/>
+      <c r="N146" s="105"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A147" s="105"/>
+      <c r="B147" s="105"/>
+      <c r="C147" s="105"/>
+      <c r="D147" s="105"/>
+      <c r="E147" s="105"/>
+      <c r="F147" s="105"/>
+      <c r="G147" s="105"/>
+      <c r="H147" s="105"/>
+      <c r="I147" s="105"/>
+      <c r="J147" s="105"/>
+      <c r="K147" s="105"/>
+      <c r="L147" s="105"/>
+      <c r="M147" s="105"/>
+      <c r="N147" s="105"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A148" s="105"/>
+      <c r="B148" s="105"/>
+      <c r="C148" s="105"/>
+      <c r="D148" s="105"/>
+      <c r="E148" s="105"/>
+      <c r="F148" s="105"/>
+      <c r="G148" s="105"/>
+      <c r="H148" s="105"/>
+      <c r="I148" s="105"/>
+      <c r="J148" s="105"/>
+      <c r="K148" s="105"/>
+      <c r="L148" s="105"/>
+      <c r="M148" s="105"/>
+      <c r="N148" s="105"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A149" s="105"/>
+      <c r="B149" s="105"/>
+      <c r="C149" s="105"/>
+      <c r="D149" s="105"/>
+      <c r="E149" s="105"/>
+      <c r="F149" s="105"/>
+      <c r="G149" s="105"/>
+      <c r="H149" s="105"/>
+      <c r="I149" s="105"/>
+      <c r="J149" s="105"/>
+      <c r="K149" s="105"/>
+      <c r="L149" s="105"/>
+      <c r="M149" s="105"/>
+      <c r="N149" s="105"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A150" s="105"/>
+      <c r="B150" s="105"/>
+      <c r="C150" s="105"/>
+      <c r="D150" s="105"/>
+      <c r="E150" s="105"/>
+      <c r="F150" s="105"/>
+      <c r="G150" s="105"/>
+      <c r="H150" s="105"/>
+      <c r="I150" s="105"/>
+      <c r="J150" s="105"/>
+      <c r="K150" s="105"/>
+      <c r="L150" s="105"/>
+      <c r="M150" s="105"/>
+      <c r="N150" s="105"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A151" s="105"/>
+      <c r="B151" s="105"/>
+      <c r="C151" s="105"/>
+      <c r="D151" s="105"/>
+      <c r="E151" s="105"/>
+      <c r="F151" s="105"/>
+      <c r="G151" s="105"/>
+      <c r="H151" s="105"/>
+      <c r="I151" s="105"/>
+      <c r="J151" s="105"/>
+      <c r="K151" s="105"/>
+      <c r="L151" s="105"/>
+      <c r="M151" s="105"/>
+      <c r="N151" s="105"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A152" s="105"/>
+      <c r="B152" s="105"/>
+      <c r="C152" s="105"/>
+      <c r="D152" s="105"/>
+      <c r="E152" s="105"/>
+      <c r="F152" s="105"/>
+      <c r="G152" s="105"/>
+      <c r="H152" s="105"/>
+      <c r="I152" s="105"/>
+      <c r="J152" s="105"/>
+      <c r="K152" s="105"/>
+      <c r="L152" s="105"/>
+      <c r="M152" s="105"/>
+      <c r="N152" s="105"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C105:G105"/>
+    <mergeCell ref="A124:N128"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
+++ b/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erione Technologies\Pim-Terceiro-Semestre-1\BackLog Produto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E0F782-911D-4DC6-953A-A30407A853AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758A00CB-A76A-4F3D-9313-6654BE00D6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="212">
   <si>
     <t>PLANEJAMENTO</t>
   </si>
@@ -437,12 +437,6 @@
     <t>TAREFA(S)</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Todos</t>
-  </si>
-  <si>
     <t>Dev Team</t>
   </si>
   <si>
@@ -473,9 +467,6 @@
     <t>Mateus ; Fábio ; Gabriel</t>
   </si>
   <si>
-    <t>T4</t>
-  </si>
-  <si>
     <t>Arieli; Bia; Luana</t>
   </si>
   <si>
@@ -503,9 +494,6 @@
     <t>Introdução</t>
   </si>
   <si>
-    <t>T8</t>
-  </si>
-  <si>
     <t xml:space="preserve">BAIXA </t>
   </si>
   <si>
@@ -557,13 +545,7 @@
     <t>SPRINT 05</t>
   </si>
   <si>
-    <t>T9</t>
-  </si>
-  <si>
     <t>Gabriel ; Fábio ; Mateus</t>
-  </si>
-  <si>
-    <t>T10</t>
   </si>
   <si>
     <t>Luana; Beatriz ; Arieli</t>
@@ -664,39 +646,6 @@
   </si>
   <si>
     <t>T25- A introdução deve apresentar o tema de modo contextualizado, de forma que fique claro ao leitor qual o objetivo do projeto. É preciso explicitar claramente o objetivo do trabalho e a delimitação do estudo. Pensem que seus leitores precisam entender o foco de seu trabalho logo ao ler o resumo e a introdução.</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T13 ; T14 ; T15</t>
-  </si>
-  <si>
-    <t>T11 ; T12</t>
-  </si>
-  <si>
-    <t>T16 ; T17</t>
-  </si>
-  <si>
-    <t>T25</t>
-  </si>
-  <si>
-    <t>T22</t>
-  </si>
-  <si>
-    <t>T18</t>
   </si>
   <si>
     <t>Gabriel; Arieli; Mateus</t>
@@ -862,9 +811,6 @@
     <t>06-05-24 | Segunda-Feira</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>atividade 1</t>
   </si>
   <si>
@@ -926,6 +872,55 @@
   </si>
   <si>
     <t>Gráfico de Burndown (em horas) SPRINT 6</t>
+  </si>
+  <si>
+    <t>T1- pesquisa do que são fazendas urbanas, seus tipos, e relatar um breve histórico no Brasil e no mundo</t>
+  </si>
+  <si>
+    <t>T2- Descrever o que significa segurança alimentar e banco de alimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3- Explorar os princípios da ODS (Objetivos de Desenvolvimento Sustentável). Explicar o que é ESG (em português meio ambiente, social e governança corporativa) e seu relacionamento com os princípios da ODS. </t>
+  </si>
+  <si>
+    <t>T4- Descrever os objetivos da COP30 (30ª Conferência da ONU sobre Mudanças Climáticas) e como o Brasil está envolvido nesse tema.</t>
+  </si>
+  <si>
+    <t>Luana ; Gabriel</t>
+  </si>
+  <si>
+    <t>Mateus ; Bia</t>
+  </si>
+  <si>
+    <t>Arieli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5- Descrever os requisitos dos usuários e os requisitos do sistema. </t>
+  </si>
+  <si>
+    <t>T6- Classificar cada requisito (tanto os de usuários quanto os de sistema) como requisito funcional ou não funcional.</t>
+  </si>
+  <si>
+    <t>T7-  Especificar o tipo de cada requisito não funcional levantado (usabilidade, desempenho, capacidade etc.)</t>
+  </si>
+  <si>
+    <t>Mateus ; Beatriz</t>
+  </si>
+  <si>
+    <t>Arieli ; Gabriel</t>
+  </si>
+  <si>
+    <t>Fábio ; Luana</t>
+  </si>
+  <si>
+    <t>T14- Demonstrar o comportamento dos casos de uso por meio do diagrama de sequência.
+ T15- Elaborar o diagrama de implantação (definir quantos servidores, banco de dados, estrutura utilizada para o sistema e como instalar o sistema).</t>
+  </si>
+  <si>
+    <t>T9- Definir e justificar o ciclo de vida de desenvolvimento de software</t>
+  </si>
+  <si>
+    <t>Reformular sprint backlog com as tarefas do backlog.</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2123,6 +2118,16 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8931,8 +8936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21C7278-4439-4CF1-82AD-0D14D81CCEDD}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8978,7 +8983,7 @@
       <c r="I4" s="119"/>
       <c r="J4" s="120"/>
       <c r="L4" s="117" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M4" s="117"/>
       <c r="N4" s="117"/>
@@ -8996,7 +9001,7 @@
     </row>
     <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="82" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="J6" s="21"/>
       <c r="L6" s="117"/>
@@ -9007,7 +9012,7 @@
     </row>
     <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="83" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="J7" s="21"/>
       <c r="L7" s="117"/>
@@ -9018,7 +9023,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="84" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="J8" s="21"/>
     </row>
@@ -9064,7 +9069,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="63" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>7</v>
@@ -9086,7 +9091,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>7</v>
@@ -9108,7 +9113,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>6</v>
@@ -9130,7 +9135,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>6</v>
@@ -9152,7 +9157,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>6</v>
@@ -9174,7 +9179,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>6</v>
@@ -9196,7 +9201,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>7</v>
@@ -9218,7 +9223,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>7</v>
@@ -9240,7 +9245,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>7</v>
@@ -9261,7 +9266,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>6</v>
@@ -9282,7 +9287,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>6</v>
@@ -9303,7 +9308,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="7">
@@ -9323,7 +9328,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>7</v>
@@ -9344,7 +9349,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>43</v>
@@ -9365,7 +9370,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>38</v>
@@ -9380,14 +9385,14 @@
     <row r="26" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="72"/>
       <c r="B26" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>5</v>
@@ -9401,14 +9406,14 @@
     </row>
     <row r="27" spans="1:10" ht="175.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="77" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="71" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>5</v>
@@ -9422,14 +9427,14 @@
     </row>
     <row r="28" spans="1:10" ht="198.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="71" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>5</v>
@@ -9443,14 +9448,14 @@
     </row>
     <row r="29" spans="1:10" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="77" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="71" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>5</v>
@@ -9464,14 +9469,14 @@
     </row>
     <row r="30" spans="1:10" ht="149" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>5</v>
@@ -9485,14 +9490,14 @@
     </row>
     <row r="31" spans="1:10" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="78" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D31" s="80"/>
       <c r="E31" s="79" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="F31" s="81" t="s">
         <v>5</v>
@@ -9511,7 +9516,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="G33" s="130" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H33" s="131"/>
       <c r="I33" s="131"/>
@@ -9523,10 +9528,10 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
@@ -9537,11 +9542,11 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="124" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J35" s="125"/>
     </row>
@@ -9551,7 +9556,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="126"/>
@@ -9563,7 +9568,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="126"/>
@@ -9575,7 +9580,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="126"/>
@@ -9587,7 +9592,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="126"/>
@@ -9599,7 +9604,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="128"/>
@@ -9681,16 +9686,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E39882E-15E1-49D7-8705-F56E6D1328C9}">
-  <dimension ref="C1:K71"/>
+  <dimension ref="C1:K83"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" customWidth="1"/>
     <col min="6" max="6" width="21.90625" customWidth="1"/>
     <col min="7" max="7" width="22.6328125" customWidth="1"/>
@@ -9706,7 +9711,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="H2" s="130" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I2" s="131"/>
       <c r="J2" s="131"/>
@@ -9718,10 +9723,10 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
@@ -9732,11 +9737,11 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="124" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K4" s="125"/>
     </row>
@@ -9746,7 +9751,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="126"/>
@@ -9758,7 +9763,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="126"/>
@@ -9770,7 +9775,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="126"/>
@@ -9782,7 +9787,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="126"/>
@@ -9794,7 +9799,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="128"/>
@@ -9905,19 +9910,19 @@
         <v>11</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>4</v>
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="3:11" ht="16" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:11" ht="87.5" x14ac:dyDescent="0.4">
       <c r="C23" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>63</v>
+      <c r="D23" s="148" t="s">
+        <v>196</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>7</v>
@@ -9926,7 +9931,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="H23" s="30">
         <v>3</v>
@@ -9935,13 +9940,13 @@
         <v>45383</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" ht="16" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="58.5" x14ac:dyDescent="0.4">
       <c r="C24" s="35"/>
-      <c r="D24" s="2" t="s">
-        <v>136</v>
+      <c r="D24" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>7</v>
@@ -9950,7 +9955,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H24" s="16">
         <v>3</v>
@@ -9959,13 +9964,13 @@
         <v>45383</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" ht="16" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="189" x14ac:dyDescent="0.4">
       <c r="C25" s="35"/>
-      <c r="D25" s="2" t="s">
-        <v>137</v>
+      <c r="D25" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>7</v>
@@ -9974,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="H25" s="16">
         <v>3</v>
@@ -9983,13 +9988,13 @@
         <v>45383</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="16" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="131" x14ac:dyDescent="0.4">
       <c r="C26" s="35"/>
-      <c r="D26" s="2" t="s">
-        <v>75</v>
+      <c r="D26" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>7</v>
@@ -9998,7 +10003,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="H26" s="16">
         <v>3</v>
@@ -10007,7 +10012,7 @@
         <v>45383</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10057,19 +10062,19 @@
         <v>11</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>4</v>
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="3:10" ht="29.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:10" ht="73" x14ac:dyDescent="0.4">
       <c r="C33" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>138</v>
+      <c r="D33" s="148" t="s">
+        <v>203</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>7</v>
@@ -10078,7 +10083,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="H33" s="30">
         <v>6</v>
@@ -10087,13 +10092,13 @@
         <v>45390</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" ht="16" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="102" x14ac:dyDescent="0.4">
       <c r="C34" s="35"/>
-      <c r="D34" s="17" t="s">
-        <v>139</v>
+      <c r="D34" s="148" t="s">
+        <v>204</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>7</v>
@@ -10102,7 +10107,7 @@
         <v>5</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="H34" s="30">
         <v>6</v>
@@ -10111,13 +10116,13 @@
         <v>45390</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" ht="16" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="102" x14ac:dyDescent="0.4">
       <c r="C35" s="35"/>
-      <c r="D35" s="17" t="s">
-        <v>140</v>
+      <c r="D35" s="148" t="s">
+        <v>205</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>7</v>
@@ -10126,7 +10131,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="H35" s="30">
         <v>6</v>
@@ -10135,7 +10140,7 @@
         <v>45390</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10151,7 +10156,7 @@
     <row r="38" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C39" s="133" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D39" s="134"/>
       <c r="E39" s="134"/>
@@ -10185,18 +10190,18 @@
         <v>11</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J41" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="3:10" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:10" ht="339.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>141</v>
+      <c r="D42" s="148" t="s">
+        <v>120</v>
       </c>
       <c r="E42" s="44" t="s">
         <v>7</v>
@@ -10205,7 +10210,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H42" s="45">
         <v>4</v>
@@ -10214,417 +10219,517 @@
         <v>45397</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="37"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="31"/>
+    </row>
+    <row r="44" spans="3:10" ht="230" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="D44" s="149" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="48">
+      <c r="F44" s="48">
         <v>5</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="7">
+      <c r="G44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="7">
         <v>5</v>
       </c>
-      <c r="I43" s="38">
+      <c r="I44" s="38">
         <v>45397</v>
       </c>
-      <c r="J43" s="39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="36"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="23"/>
-    </row>
-    <row r="46" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="133" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="135"/>
-    </row>
-    <row r="48" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C48" s="32"/>
-      <c r="J48" s="21"/>
+      <c r="J44" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="36"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="23"/>
+    </row>
+    <row r="47" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C48" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="135"/>
     </row>
     <row r="49" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="32"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D50" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E50" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F50" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G50" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J49" s="20" t="s">
+      <c r="I50" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="16" x14ac:dyDescent="0.35">
-      <c r="C50" s="43" t="s">
+    <row r="51" spans="3:10" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="44" t="s">
+      <c r="D51" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="47">
+      <c r="F51" s="47">
         <v>4</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" s="30">
+      <c r="G51" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="30">
         <v>2</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I51" s="29">
         <v>45404</v>
       </c>
-      <c r="J50" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="37" t="s">
+      <c r="J51" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="D52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="48">
+      <c r="F52" s="48">
         <v>9</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H51" s="7">
+      <c r="G52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="7">
         <v>5</v>
-      </c>
-      <c r="I51" s="38">
-        <v>45404</v>
-      </c>
-      <c r="J51" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" ht="16" x14ac:dyDescent="0.35">
-      <c r="C52" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F52" s="48">
-        <v>2</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="7">
-        <v>7</v>
       </c>
       <c r="I52" s="38">
         <v>45404</v>
       </c>
       <c r="J52" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C53" s="36"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="23"/>
-    </row>
-    <row r="55" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C56" s="133" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" s="134"/>
-      <c r="E56" s="134"/>
-      <c r="F56" s="134"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="135"/>
-    </row>
-    <row r="57" spans="3:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="32"/>
-      <c r="J57" s="21"/>
-    </row>
-    <row r="58" spans="3:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C58" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" ht="200" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="48">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="7">
+        <v>7</v>
+      </c>
+      <c r="I53" s="38">
+        <v>45404</v>
+      </c>
+      <c r="J53" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="36"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="56" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C57" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="135"/>
+    </row>
+    <row r="58" spans="3:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C58" s="32"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="3:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C59" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D59" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E59" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F59" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G59" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="H59" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J58" s="20" t="s">
+      <c r="I59" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J59" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="44" t="s">
+    <row r="60" spans="3:10" ht="164" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F60" s="45">
         <v>13</v>
       </c>
-      <c r="G59" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H59" s="45">
+      <c r="G60" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H60" s="45">
         <v>7</v>
       </c>
-      <c r="I59" s="29">
+      <c r="I60" s="29">
         <v>45411</v>
       </c>
-      <c r="J59" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C60" s="37" t="s">
+      <c r="J60" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="10" t="s">
+      <c r="D61" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="7">
         <v>9</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="7">
+      <c r="G61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H61" s="7">
         <v>6.5</v>
       </c>
-      <c r="I60" s="38">
+      <c r="I61" s="38">
         <v>45411</v>
       </c>
-      <c r="J60" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C61" s="36"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="23"/>
-    </row>
-    <row r="64" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="65" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C65" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="134"/>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134"/>
-      <c r="G65" s="134"/>
-      <c r="H65" s="134"/>
-      <c r="I65" s="134"/>
-      <c r="J65" s="135"/>
-    </row>
-    <row r="66" spans="3:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C66" s="32"/>
-      <c r="J66" s="21"/>
-    </row>
-    <row r="67" spans="3:10" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C67" s="18" t="s">
+      <c r="J61" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C62" s="36"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="65" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C66" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="135"/>
+    </row>
+    <row r="67" spans="3:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C67" s="32"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="3:10" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C68" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D68" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E68" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F68" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G68" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H68" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J67" s="20" t="s">
+      <c r="I68" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J68" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="3:10" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="43" t="s">
+    <row r="69" spans="3:10" ht="164" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E68" s="44" t="s">
+      <c r="D69" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F69" s="45">
         <v>10</v>
       </c>
-      <c r="G68" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="H68" s="45">
+      <c r="G69" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H69" s="45">
         <v>7</v>
       </c>
-      <c r="I68" s="29">
+      <c r="I69" s="29">
         <v>45418</v>
       </c>
-      <c r="J68" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C69" s="69" t="s">
+      <c r="J69" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="9" t="s">
+      <c r="D70" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>7</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H69" s="7">
+      <c r="G70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H70" s="7">
         <v>3</v>
-      </c>
-      <c r="I69" s="38">
-        <v>45418</v>
-      </c>
-      <c r="J69" s="41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C70" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="7">
-        <v>9</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H70" s="7">
-        <v>10</v>
       </c>
       <c r="I70" s="38">
         <v>45418</v>
       </c>
       <c r="J70" s="41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C71" s="78"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="61"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C71" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="7">
+        <v>9</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H71" s="7">
+        <v>10</v>
+      </c>
+      <c r="I71" s="38">
+        <v>45418</v>
+      </c>
+      <c r="J71" s="41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C72" s="78"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="61"/>
+    </row>
+    <row r="76" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="77" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C77" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" s="134"/>
+      <c r="E77" s="134"/>
+      <c r="F77" s="134"/>
+      <c r="G77" s="134"/>
+      <c r="H77" s="134"/>
+      <c r="I77" s="134"/>
+      <c r="J77" s="135"/>
+    </row>
+    <row r="78" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C78" s="32"/>
+      <c r="D78" s="151"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="151"/>
+      <c r="G78" s="151"/>
+      <c r="H78" s="151"/>
+      <c r="I78" s="151"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C79" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C80" s="32"/>
+      <c r="D80" s="151"/>
+      <c r="E80" s="151"/>
+      <c r="F80" s="151"/>
+      <c r="G80" s="151"/>
+      <c r="H80" s="151"/>
+      <c r="I80" s="151"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C81" s="32"/>
+      <c r="D81" s="151"/>
+      <c r="E81" s="151"/>
+      <c r="F81" s="151"/>
+      <c r="G81" s="151"/>
+      <c r="H81" s="151"/>
+      <c r="I81" s="151"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C82" s="32"/>
+      <c r="D82" s="151"/>
+      <c r="E82" s="151"/>
+      <c r="F82" s="151"/>
+      <c r="G82" s="151"/>
+      <c r="H82" s="151"/>
+      <c r="I82" s="151"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C83" s="36"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C65:J65"/>
+  <mergeCells count="10">
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C66:J66"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="J4:K9"/>
     <mergeCell ref="C15:J15"/>
@@ -10640,7 +10745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53D959B-E411-475F-8D2F-46A6BAEF8854}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="94" workbookViewId="0">
       <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
@@ -10653,7 +10758,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="133" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="135"/>
@@ -10699,7 +10804,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -10721,7 +10826,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -10748,7 +10853,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -10759,7 +10864,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -10770,7 +10875,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -10781,7 +10886,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -10792,7 +10897,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -10803,7 +10908,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -10819,7 +10924,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -10830,7 +10935,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -10841,7 +10946,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -10849,10 +10954,10 @@
         <v>45407</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -10863,7 +10968,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -10874,7 +10979,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -10890,7 +10995,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -10901,7 +11006,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -10912,7 +11017,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -10920,10 +11025,10 @@
         <v>45408</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -10934,7 +11039,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10945,7 +11050,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -10961,7 +11066,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -10972,7 +11077,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -10983,7 +11088,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -10991,10 +11096,10 @@
         <v>45409</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -11005,7 +11110,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11016,7 +11121,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -11032,7 +11137,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -11043,7 +11148,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -11054,7 +11159,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -11062,10 +11167,10 @@
         <v>45410</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -11076,7 +11181,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11087,7 +11192,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -11103,7 +11208,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -11114,7 +11219,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -11125,7 +11230,7 @@
         <v>22</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -11133,10 +11238,10 @@
         <v>45411</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -11147,7 +11252,7 @@
         <v>21</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11158,13 +11263,13 @@
         <v>25</v>
       </c>
       <c r="C50" s="61" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="142" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B54" s="143"/>
       <c r="C54" s="144"/>
@@ -11177,7 +11282,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -11188,7 +11293,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -11199,7 +11304,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="54" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -11207,10 +11312,10 @@
         <v>45412</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -11221,7 +11326,7 @@
         <v>21</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11232,7 +11337,7 @@
         <v>25</v>
       </c>
       <c r="C60" s="61" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -11248,7 +11353,7 @@
         <v>17</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -11259,7 +11364,7 @@
         <v>19</v>
       </c>
       <c r="C63" s="54" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -11270,7 +11375,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="54" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -11278,10 +11383,10 @@
         <v>45413</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -11292,7 +11397,7 @@
         <v>21</v>
       </c>
       <c r="C66" s="54" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11303,7 +11408,7 @@
         <v>25</v>
       </c>
       <c r="C67" s="54" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -11319,7 +11424,7 @@
         <v>17</v>
       </c>
       <c r="C69" s="54" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -11330,7 +11435,7 @@
         <v>19</v>
       </c>
       <c r="C70" s="54" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -11341,7 +11446,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="54" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -11349,10 +11454,10 @@
         <v>45414</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C72" s="54" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -11363,7 +11468,7 @@
         <v>21</v>
       </c>
       <c r="C73" s="54" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11374,7 +11479,7 @@
         <v>25</v>
       </c>
       <c r="C74" s="61" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -11390,7 +11495,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="54" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -11401,7 +11506,7 @@
         <v>19</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -11412,7 +11517,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="54" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -11420,10 +11525,10 @@
         <v>45415</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C79" s="54" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -11434,7 +11539,7 @@
         <v>21</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11445,7 +11550,7 @@
         <v>25</v>
       </c>
       <c r="C81" s="54" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11461,7 +11566,7 @@
         <v>17</v>
       </c>
       <c r="C83" s="96" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11472,7 +11577,7 @@
         <v>19</v>
       </c>
       <c r="C84" s="54" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11483,7 +11588,7 @@
         <v>22</v>
       </c>
       <c r="C85" s="54" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11491,10 +11596,10 @@
         <v>45416</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C86" s="54" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11505,7 +11610,7 @@
         <v>21</v>
       </c>
       <c r="C87" s="54" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11516,7 +11621,7 @@
         <v>25</v>
       </c>
       <c r="C88" s="54" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11532,7 +11637,7 @@
         <v>17</v>
       </c>
       <c r="C90" s="96" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11543,7 +11648,7 @@
         <v>19</v>
       </c>
       <c r="C91" s="54" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11554,7 +11659,7 @@
         <v>22</v>
       </c>
       <c r="C92" s="54" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11562,10 +11667,10 @@
         <v>45417</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C93" s="54" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11576,7 +11681,7 @@
         <v>21</v>
       </c>
       <c r="C94" s="54" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -11587,7 +11692,7 @@
         <v>25</v>
       </c>
       <c r="C95" s="54" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -11603,7 +11708,7 @@
         <v>17</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -11614,7 +11719,7 @@
         <v>19</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -11625,7 +11730,7 @@
         <v>22</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -11633,10 +11738,10 @@
         <v>45418</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -11647,7 +11752,7 @@
         <v>21</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11658,7 +11763,7 @@
         <v>25</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -11698,7 +11803,7 @@
         <v>45419</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C107" s="54"/>
     </row>
@@ -11736,7 +11841,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11747,7 +11852,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="65"/>
@@ -11763,42 +11868,42 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="67" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="67" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -11813,7 +11918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E69F5A-B02F-42AF-8116-2B76A69569A0}">
   <dimension ref="A5:R149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -11828,13 +11933,13 @@
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
@@ -11916,7 +12021,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C13" s="16">
         <v>0</v>
@@ -11927,13 +12032,13 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="16" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
@@ -12015,7 +12120,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B34" s="16" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C34" s="16">
         <v>0</v>
@@ -12111,7 +12216,7 @@
     </row>
     <row r="47" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="147" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B47" s="147"/>
       <c r="C47" s="147"/>
@@ -12254,34 +12359,34 @@
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="101"/>
       <c r="B54" s="106" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D54" s="108" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E54" s="108" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F54" s="108" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G54" s="108" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="H54" s="108" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="I54" s="108" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="J54" s="108" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="K54" s="109" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="L54" s="101"/>
       <c r="M54" s="101"/>
@@ -12294,7 +12399,7 @@
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="101"/>
       <c r="B55" s="102" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C55" s="103">
         <v>20</v>
@@ -12328,7 +12433,7 @@
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="101"/>
       <c r="B56" s="102" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C56" s="104">
         <v>10</v>
@@ -12356,7 +12461,7 @@
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="101"/>
       <c r="B57" s="102" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C57" s="104">
         <v>15</v>
@@ -12388,7 +12493,7 @@
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="101"/>
       <c r="B58" s="102" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C58" s="104">
         <v>10</v>
@@ -12418,7 +12523,7 @@
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="101"/>
       <c r="B59" s="102" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C59" s="104">
         <v>8</v>
@@ -12450,7 +12555,7 @@
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="101"/>
       <c r="B60" s="102" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C60" s="104">
         <v>12</v>
@@ -12484,7 +12589,7 @@
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="101"/>
       <c r="B61" s="102" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C61" s="104">
         <v>15</v>
@@ -12518,7 +12623,7 @@
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="101"/>
       <c r="B62" s="102" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C62" s="104">
         <v>8</v>
@@ -12550,7 +12655,7 @@
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="101"/>
       <c r="B63" s="102" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C63" s="104">
         <v>12</v>
@@ -12580,7 +12685,7 @@
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="101"/>
       <c r="B64" s="102" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C64" s="104">
         <v>10</v>
@@ -12610,58 +12715,44 @@
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="101"/>
       <c r="B65" s="110" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C65" s="111">
         <f>SUM(C55:C64)</f>
         <v>120</v>
       </c>
       <c r="D65" s="111">
-        <f>IF(SUM($D$55:$D$64)&gt;0,
+        <f t="shared" ref="D65:K65" si="0">IF(SUM($D$55:$D$64)&gt;0,
 C$65-SUM(D$55:D$64),
 NA())</f>
         <v>108</v>
       </c>
       <c r="E65" s="111">
-        <f>IF(SUM($D$55:$D$64)&gt;0,
-D$65-SUM(E$55:E$64),
-NA())</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="F65" s="111">
-        <f>IF(SUM($D$55:$D$64)&gt;0,
-E$65-SUM(F$55:F$64),
-NA())</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="G65" s="111">
-        <f>IF(SUM($D$55:$D$64)&gt;0,
-F$65-SUM(G$55:G$64),
-NA())</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H65" s="111">
-        <f>IF(SUM($D$55:$D$64)&gt;0,
-G$65-SUM(H$55:H$64),
-NA())</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="I65" s="111">
-        <f>IF(SUM($D$55:$D$64)&gt;0,
-H$65-SUM(I$55:I$64),
-NA())</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="J65" s="111">
-        <f>IF(SUM($D$55:$D$64)&gt;0,
-I$65-SUM(J$55:J$64),
-NA())</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K65" s="112">
-        <f>IF(SUM($D$55:$D$64)&gt;0,
-J$65-SUM(K$55:K$64),
-NA())</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L65" s="101"/>
@@ -12674,41 +12765,41 @@
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="101"/>
       <c r="B66" s="113" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C66" s="114">
         <v>120</v>
       </c>
       <c r="D66" s="114">
-        <f>C$66-($C$66/COUNTA($D$54:$K$54))</f>
+        <f t="shared" ref="D66:K66" si="1">C$66-($C$66/COUNTA($D$54:$K$54))</f>
         <v>105</v>
       </c>
       <c r="E66" s="114">
-        <f>D$66-($C$66/COUNTA($D$54:$K$54))</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="F66" s="114">
-        <f>E$66-($C$66/COUNTA($D$54:$K$54))</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="G66" s="114">
-        <f>F$66-($C$66/COUNTA($D$54:$K$54))</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="H66" s="114">
-        <f>G$66-($C$66/COUNTA($D$54:$K$54))</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="I66" s="114">
-        <f>H$66-($C$66/COUNTA($D$54:$K$54))</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J66" s="114">
-        <f>I$66-($C$66/COUNTA($D$54:$K$54))</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K66" s="115">
-        <f>J$66-($C$66/COUNTA($D$54:$K$54))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L66" s="101"/>
@@ -12865,13 +12956,13 @@
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C106" s="16" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.35">
@@ -12953,7 +13044,7 @@
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C114" s="16" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D114" s="16">
         <v>0</v>
@@ -12964,13 +13055,13 @@
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C124" s="16" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.35">
@@ -13052,7 +13143,7 @@
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C132" s="16" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D132" s="16">
         <v>0</v>
@@ -13063,13 +13154,13 @@
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C141" s="16" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.35">
@@ -13151,7 +13242,7 @@
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C149" s="16" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D149" s="16">
         <v>0</v>

--- a/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
+++ b/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erione Technologies\Pim-Terceiro-Semestre-1\BackLog Produto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AE0B8C-C25D-4F45-B6DE-B844309FC07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E1A276-C74D-4288-83E5-4FAD7383C1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="240">
   <si>
     <t>PLANEJAMENTO</t>
   </si>
@@ -1034,6 +1034,9 @@
       </rPr>
       <t xml:space="preserve"> o cliente reclamou novamente da organização porém dessa vez reveu os documentos dos diagramas de UML (Implantação, Sequência, Classe e Caso de Uso) além de dessa pedir o documento do astah ao invés de arquivos PNG. </t>
     </r>
+  </si>
+  <si>
+    <t>Não concluído</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2108,7 +2111,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2222,6 +2224,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2306,6 +2325,15 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2330,36 +2358,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2369,8 +2367,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11288,8 +11289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21C7278-4439-4CF1-82AD-0D14D81CCEDD}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11305,69 +11306,69 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:12" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="136"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="144"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="30"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="133" t="s">
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
     </row>
     <row r="5" spans="1:12" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="30"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
     </row>
     <row r="6" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="118" t="s">
         <v>117</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
     </row>
     <row r="7" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="119" t="s">
         <v>128</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
     </row>
     <row r="8" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="120" t="s">
         <v>129</v>
       </c>
       <c r="G8" s="21"/>
@@ -11381,25 +11382,25 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117" t="s">
+      <c r="D10" s="116"/>
+      <c r="E10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="117" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="215" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="40" t="s">
         <v>44</v>
       </c>
@@ -11413,12 +11414,12 @@
       <c r="F11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="104">
+      <c r="G11" s="103">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="215" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="64"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="35" t="s">
         <v>46</v>
       </c>
@@ -11432,12 +11433,12 @@
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="105">
+      <c r="G12" s="104">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="35" t="s">
         <v>47</v>
       </c>
@@ -11451,12 +11452,12 @@
       <c r="F13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="105">
+      <c r="G13" s="104">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="35" t="s">
         <v>48</v>
       </c>
@@ -11470,12 +11471,12 @@
       <c r="F14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="105">
+      <c r="G14" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="35" t="s">
         <v>49</v>
       </c>
@@ -11489,12 +11490,12 @@
       <c r="F15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="105">
+      <c r="G15" s="104">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="146" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="35" t="s">
         <v>51</v>
       </c>
@@ -11508,12 +11509,12 @@
       <c r="F16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="105">
+      <c r="G16" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="179.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="35" t="s">
         <v>52</v>
       </c>
@@ -11527,12 +11528,12 @@
       <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="105">
+      <c r="G17" s="104">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="64"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="35" t="s">
         <v>53</v>
       </c>
@@ -11546,12 +11547,12 @@
       <c r="F18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="105">
+      <c r="G18" s="104">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="225.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="65"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="35" t="s">
         <v>218</v>
       </c>
@@ -11565,7 +11566,7 @@
       <c r="F19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="105">
+      <c r="G19" s="104">
         <v>10</v>
       </c>
     </row>
@@ -11583,12 +11584,12 @@
       <c r="F20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="105">
+      <c r="G20" s="104">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="64"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="35" t="s">
         <v>55</v>
       </c>
@@ -11602,12 +11603,12 @@
       <c r="F21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="105">
+      <c r="G21" s="104">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="64"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="35" t="s">
         <v>57</v>
       </c>
@@ -11621,7 +11622,7 @@
       <c r="F22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="105">
+      <c r="G22" s="104">
         <v>13</v>
       </c>
     </row>
@@ -11639,12 +11640,12 @@
       <c r="F23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="105">
+      <c r="G23" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="123"/>
+      <c r="A24" s="122"/>
       <c r="B24" s="35" t="s">
         <v>58</v>
       </c>
@@ -11658,12 +11659,12 @@
       <c r="F24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="105">
+      <c r="G24" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="64"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="35" t="s">
         <v>72</v>
       </c>
@@ -11677,12 +11678,12 @@
       <c r="F25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="105">
+      <c r="G25" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="198.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="33" t="s">
         <v>119</v>
       </c>
@@ -11690,36 +11691,36 @@
         <v>118</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="62" t="s">
         <v>120</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="105">
+      <c r="G26" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="65" t="s">
         <v>123</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="62" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="105">
+      <c r="G27" s="104">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="149" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="65"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="33" t="s">
         <v>124</v>
       </c>
@@ -11733,114 +11734,114 @@
       <c r="F28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="105">
+      <c r="G28" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="68" t="s">
+      <c r="D29" s="68"/>
+      <c r="E29" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="106">
+      <c r="G29" s="105">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:7" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="124" t="s">
+      <c r="B31" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="134"/>
     </row>
     <row r="32" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="111" t="s">
+      <c r="C32" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="127" t="s">
+      <c r="D32" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="128"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="2:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="130"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="138"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="2:7" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="107" t="s">
+      <c r="C34" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="130"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="2:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="129"/>
-      <c r="E35" s="130"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="107" t="s">
+      <c r="C36" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="129"/>
-      <c r="E36" s="130"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="2:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="107" t="s">
+      <c r="C37" s="106" t="s">
         <v>222</v>
       </c>
-      <c r="D37" s="129"/>
-      <c r="E37" s="130"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="138"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="108" t="s">
+      <c r="C38" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="D38" s="131"/>
-      <c r="E38" s="132"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="140"/>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11916,8 +11917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E39882E-15E1-49D7-8705-F56E6D1328C9}">
   <dimension ref="C1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView topLeftCell="A84" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11938,12 +11939,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" s="5"/>
@@ -11970,10 +11971,10 @@
       <c r="I4" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="J4" s="143" t="s">
+      <c r="J4" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="144"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="3:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D5" s="5"/>
@@ -11986,8 +11987,8 @@
       <c r="I5" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="154"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D6" s="5"/>
@@ -12000,8 +12001,8 @@
       <c r="I6" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="146"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="154"/>
     </row>
     <row r="7" spans="3:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D7" s="5"/>
@@ -12014,8 +12015,8 @@
       <c r="I7" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="146"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D8" s="5"/>
@@ -12025,8 +12026,8 @@
       <c r="H8" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="145"/>
-      <c r="K8" s="146"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="154"/>
     </row>
     <row r="9" spans="3:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D9" s="5"/>
@@ -12039,8 +12040,8 @@
       <c r="I9" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="J9" s="147"/>
-      <c r="K9" s="148"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="156"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
@@ -12078,16 +12079,16 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="3:11" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="149" t="s">
+      <c r="C15" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="151"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="159"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D16" s="5"/>
@@ -12112,16 +12113,16 @@
     </row>
     <row r="19" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="142"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="30"/>
@@ -12158,7 +12159,7 @@
       <c r="C23" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="100" t="s">
         <v>176</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -12182,7 +12183,7 @@
     </row>
     <row r="24" spans="3:11" ht="58" x14ac:dyDescent="0.35">
       <c r="C24" s="31"/>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="100" t="s">
         <v>176</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -12310,16 +12311,16 @@
     </row>
     <row r="31" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C32" s="140" t="s">
+      <c r="C32" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="142"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="150"/>
     </row>
     <row r="33" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="30"/>
@@ -12356,7 +12357,7 @@
       <c r="C35" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="101" t="s">
+      <c r="D35" s="100" t="s">
         <v>181</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -12380,7 +12381,7 @@
     </row>
     <row r="36" spans="3:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C36" s="31"/>
-      <c r="D36" s="101" t="s">
+      <c r="D36" s="100" t="s">
         <v>181</v>
       </c>
       <c r="E36" s="10"/>
@@ -12402,7 +12403,7 @@
     </row>
     <row r="37" spans="3:11" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="31"/>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="100" t="s">
         <v>182</v>
       </c>
       <c r="E37" s="10"/>
@@ -12424,7 +12425,7 @@
     </row>
     <row r="38" spans="3:11" ht="88" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" s="31"/>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="100" t="s">
         <v>182</v>
       </c>
       <c r="E38" s="10"/>
@@ -12446,7 +12447,7 @@
     </row>
     <row r="39" spans="3:11" ht="89" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="33"/>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="100" t="s">
         <v>183</v>
       </c>
       <c r="E39" s="10" t="s">
@@ -12470,7 +12471,7 @@
     </row>
     <row r="40" spans="3:11" ht="58" x14ac:dyDescent="0.35">
       <c r="C40" s="33"/>
-      <c r="D40" s="101" t="s">
+      <c r="D40" s="100" t="s">
         <v>183</v>
       </c>
       <c r="E40" s="10" t="s">
@@ -12504,16 +12505,16 @@
     </row>
     <row r="43" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="140" t="s">
+      <c r="C44" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141"/>
-      <c r="J44" s="142"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="149"/>
+      <c r="J44" s="150"/>
     </row>
     <row r="45" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C45" s="30"/>
@@ -12549,7 +12550,7 @@
       <c r="C47" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="101" t="s">
+      <c r="D47" s="100" t="s">
         <v>195</v>
       </c>
       <c r="E47" s="41" t="s">
@@ -12573,7 +12574,7 @@
     </row>
     <row r="48" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C48" s="35"/>
-      <c r="D48" s="101" t="s">
+      <c r="D48" s="100" t="s">
         <v>194</v>
       </c>
       <c r="E48" s="41" t="s">
@@ -12597,7 +12598,7 @@
     </row>
     <row r="49" spans="3:10" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C49" s="35"/>
-      <c r="D49" s="101" t="s">
+      <c r="D49" s="100" t="s">
         <v>196</v>
       </c>
       <c r="E49" s="41" t="s">
@@ -12647,7 +12648,7 @@
     </row>
     <row r="51" spans="3:10" ht="230" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="35"/>
-      <c r="D51" s="102" t="s">
+      <c r="D51" s="101" t="s">
         <v>194</v>
       </c>
       <c r="E51" s="41" t="s">
@@ -12670,8 +12671,8 @@
       </c>
     </row>
     <row r="52" spans="3:10" ht="67" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C52" s="67"/>
-      <c r="D52" s="122" t="s">
+      <c r="C52" s="66"/>
+      <c r="D52" s="121" t="s">
         <v>194</v>
       </c>
       <c r="E52" s="41" t="s">
@@ -12683,7 +12684,7 @@
       <c r="G52" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="H52" s="69">
+      <c r="H52" s="68">
         <v>2</v>
       </c>
       <c r="I52" s="29">
@@ -12702,16 +12703,16 @@
       <c r="J54" s="21"/>
     </row>
     <row r="55" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C55" s="140" t="s">
+      <c r="C55" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="141"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="141"/>
-      <c r="G55" s="141"/>
-      <c r="H55" s="141"/>
-      <c r="I55" s="141"/>
-      <c r="J55" s="142"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="149"/>
+      <c r="F55" s="149"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="149"/>
+      <c r="J55" s="150"/>
     </row>
     <row r="56" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C56" s="30"/>
@@ -12747,7 +12748,7 @@
       <c r="C58" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="103" t="s">
+      <c r="D58" s="102" t="s">
         <v>199</v>
       </c>
       <c r="E58" s="41" t="s">
@@ -12771,7 +12772,7 @@
     </row>
     <row r="59" spans="3:10" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C59" s="40"/>
-      <c r="D59" s="103" t="s">
+      <c r="D59" s="102" t="s">
         <v>201</v>
       </c>
       <c r="E59" s="41"/>
@@ -12785,7 +12786,7 @@
     </row>
     <row r="60" spans="3:10" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C60" s="40"/>
-      <c r="D60" s="103" t="s">
+      <c r="D60" s="102" t="s">
         <v>200</v>
       </c>
       <c r="E60" s="41"/>
@@ -12825,7 +12826,7 @@
     </row>
     <row r="62" spans="3:10" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C62" s="35"/>
-      <c r="D62" s="102" t="s">
+      <c r="D62" s="101" t="s">
         <v>198</v>
       </c>
       <c r="E62" s="10"/>
@@ -12875,16 +12876,16 @@
     </row>
     <row r="66" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="67" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C67" s="140" t="s">
+      <c r="C67" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="141"/>
-      <c r="E67" s="141"/>
-      <c r="F67" s="141"/>
-      <c r="G67" s="141"/>
-      <c r="H67" s="141"/>
-      <c r="I67" s="141"/>
-      <c r="J67" s="142"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149"/>
+      <c r="F67" s="149"/>
+      <c r="G67" s="149"/>
+      <c r="H67" s="149"/>
+      <c r="I67" s="149"/>
+      <c r="J67" s="150"/>
     </row>
     <row r="68" spans="3:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C68" s="30"/>
@@ -12920,7 +12921,7 @@
       <c r="C70" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="D70" s="101" t="s">
+      <c r="D70" s="100" t="s">
         <v>112</v>
       </c>
       <c r="E70" s="41" t="s">
@@ -12980,16 +12981,16 @@
     </row>
     <row r="75" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="76" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C76" s="140" t="s">
+      <c r="C76" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="D76" s="141"/>
-      <c r="E76" s="141"/>
-      <c r="F76" s="141"/>
-      <c r="G76" s="141"/>
-      <c r="H76" s="141"/>
-      <c r="I76" s="141"/>
-      <c r="J76" s="142"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="149"/>
+      <c r="F76" s="149"/>
+      <c r="G76" s="149"/>
+      <c r="H76" s="149"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
     </row>
     <row r="77" spans="3:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C77" s="30"/>
@@ -13025,7 +13026,7 @@
       <c r="C79" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D79" s="101" t="s">
+      <c r="D79" s="100" t="s">
         <v>109</v>
       </c>
       <c r="E79" s="41" t="s">
@@ -13100,61 +13101,55 @@
       </c>
     </row>
     <row r="82" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C82" s="67"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="68"/>
       <c r="J82" s="56"/>
     </row>
     <row r="86" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="87" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C87" s="140" t="s">
+      <c r="C87" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="D87" s="141"/>
-      <c r="E87" s="141"/>
-      <c r="F87" s="141"/>
-      <c r="G87" s="141"/>
-      <c r="H87" s="141"/>
-      <c r="I87" s="141"/>
-      <c r="J87" s="142"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="149"/>
+      <c r="F87" s="149"/>
+      <c r="G87" s="149"/>
+      <c r="H87" s="149"/>
+      <c r="I87" s="149"/>
+      <c r="J87" s="150"/>
     </row>
     <row r="88" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C88" s="30"/>
-      <c r="D88" s="164"/>
-      <c r="E88" s="164"/>
-      <c r="F88" s="164"/>
-      <c r="G88" s="164"/>
-      <c r="H88" s="164"/>
-      <c r="I88" s="164"/>
       <c r="J88" s="21"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C89" s="161" t="s">
+      <c r="C89" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="162" t="s">
+      <c r="D89" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="162" t="s">
+      <c r="E89" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="F89" s="162" t="s">
+      <c r="F89" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="162" t="s">
+      <c r="G89" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="162" t="s">
+      <c r="H89" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="I89" s="162" t="s">
+      <c r="I89" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="J89" s="163" t="s">
+      <c r="J89" s="125" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13178,13 +13173,13 @@
       <c r="I90" s="36">
         <v>45425</v>
       </c>
-      <c r="J90" s="105"/>
+      <c r="J90" s="104"/>
     </row>
     <row r="91" spans="3:10" ht="29" x14ac:dyDescent="0.35">
       <c r="C91" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D91" s="166" t="s">
+      <c r="D91" s="5" t="s">
         <v>224</v>
       </c>
       <c r="E91" s="9" t="s">
@@ -13210,7 +13205,7 @@
       <c r="C92" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D92" s="166" t="s">
+      <c r="D92" s="5" t="s">
         <v>224</v>
       </c>
       <c r="E92" s="9" t="s">
@@ -13232,11 +13227,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="3:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C93" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="102" t="s">
+      <c r="D93" s="101" t="s">
         <v>227</v>
       </c>
       <c r="E93" s="9" t="s">
@@ -13252,7 +13247,9 @@
       <c r="I93" s="36">
         <v>45425</v>
       </c>
-      <c r="J93" s="105"/>
+      <c r="J93" s="175" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="94" spans="3:10" ht="29" x14ac:dyDescent="0.35">
       <c r="C94" s="61" t="s">
@@ -13282,7 +13279,7 @@
       <c r="C95" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="102" t="s">
+      <c r="D95" s="101" t="s">
         <v>225</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -13303,10 +13300,10 @@
       </c>
     </row>
     <row r="96" spans="3:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C96" s="165" t="s">
+      <c r="C96" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="D96" s="122" t="s">
+      <c r="D96" s="121" t="s">
         <v>205</v>
       </c>
       <c r="E96" s="10" t="s">
@@ -13319,32 +13316,28 @@
         <v>188</v>
       </c>
       <c r="H96" s="55"/>
-      <c r="I96" s="167">
+      <c r="I96" s="127">
         <v>45425</v>
       </c>
-      <c r="J96" s="106"/>
+      <c r="J96" s="175" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="98" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="99" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C99" s="140" t="s">
+      <c r="C99" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="D99" s="141"/>
-      <c r="E99" s="141"/>
-      <c r="F99" s="141"/>
-      <c r="G99" s="141"/>
-      <c r="H99" s="141"/>
-      <c r="I99" s="141"/>
-      <c r="J99" s="142"/>
+      <c r="D99" s="149"/>
+      <c r="E99" s="149"/>
+      <c r="F99" s="149"/>
+      <c r="G99" s="149"/>
+      <c r="H99" s="149"/>
+      <c r="I99" s="149"/>
+      <c r="J99" s="150"/>
     </row>
     <row r="100" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C100" s="30"/>
-      <c r="D100" s="164"/>
-      <c r="E100" s="164"/>
-      <c r="F100" s="164"/>
-      <c r="G100" s="164"/>
-      <c r="H100" s="164"/>
-      <c r="I100" s="164"/>
       <c r="J100" s="21"/>
     </row>
     <row r="101" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13375,13 +13368,9 @@
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C102" s="30"/>
-      <c r="D102" s="164"/>
-      <c r="E102" s="164"/>
-      <c r="F102" s="164"/>
       <c r="G102" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H102" s="164"/>
       <c r="I102" s="36">
         <v>45432</v>
       </c>
@@ -13389,13 +13378,9 @@
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C103" s="30"/>
-      <c r="D103" s="164"/>
-      <c r="E103" s="164"/>
-      <c r="F103" s="164"/>
       <c r="G103" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H103" s="164"/>
       <c r="I103" s="36">
         <v>45432</v>
       </c>
@@ -13403,13 +13388,9 @@
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C104" s="30"/>
-      <c r="D104" s="164"/>
-      <c r="E104" s="164"/>
-      <c r="F104" s="164"/>
       <c r="G104" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="164"/>
       <c r="I104" s="36">
         <v>45432</v>
       </c>
@@ -13417,13 +13398,9 @@
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C105" s="30"/>
-      <c r="D105" s="164"/>
-      <c r="E105" s="164"/>
-      <c r="F105" s="164"/>
       <c r="G105" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H105" s="164"/>
       <c r="I105" s="36">
         <v>45432</v>
       </c>
@@ -13431,13 +13408,9 @@
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C106" s="30"/>
-      <c r="D106" s="164"/>
-      <c r="E106" s="164"/>
-      <c r="F106" s="164"/>
       <c r="G106" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H106" s="164"/>
       <c r="I106" s="36">
         <v>45432</v>
       </c>
@@ -13459,17 +13432,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C76:J76"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="J4:K9"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C76:J76"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -13491,11 +13464,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="150"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
@@ -13575,9 +13548,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="152"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="154"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="48">
@@ -13647,7 +13620,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="50"/>
-      <c r="B16" s="71"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="51"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -13718,7 +13691,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="53"/>
-      <c r="B23" s="71"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="51"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -13788,7 +13761,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
     </row>
@@ -13859,7 +13832,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="72"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
     </row>
@@ -13930,7 +13903,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="72"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
     </row>
@@ -14002,11 +13975,11 @@
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="155" t="s">
+      <c r="A54" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="157"/>
+      <c r="B54" s="167"/>
+      <c r="C54" s="168"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="52">
@@ -14075,9 +14048,9 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="73"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="75"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="74"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="52">
@@ -14146,9 +14119,9 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="73"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="76"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="75"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="52">
@@ -14217,9 +14190,9 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="73"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="76"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="75"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="48">
@@ -14277,7 +14250,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="77">
+      <c r="A81" s="76">
         <v>45415</v>
       </c>
       <c r="B81" s="55" t="s">
@@ -14293,18 +14266,18 @@
       <c r="C82" s="50"/>
     </row>
     <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="78">
+      <c r="A83" s="77">
         <v>45416</v>
       </c>
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="80" t="s">
+      <c r="C83" s="79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="78">
+      <c r="A84" s="77">
         <v>45416</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -14315,7 +14288,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="78">
+      <c r="A85" s="77">
         <v>45416</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -14326,7 +14299,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="78">
+      <c r="A86" s="77">
         <v>45416</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -14337,7 +14310,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="78">
+      <c r="A87" s="77">
         <v>45416</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -14348,7 +14321,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="78">
+      <c r="A88" s="77">
         <v>45416</v>
       </c>
       <c r="B88" s="55" t="s">
@@ -14364,18 +14337,18 @@
       <c r="C89" s="50"/>
     </row>
     <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="78">
+      <c r="A90" s="77">
         <v>45417</v>
       </c>
-      <c r="B90" s="79" t="s">
+      <c r="B90" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="80" t="s">
+      <c r="C90" s="79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="78">
+      <c r="A91" s="77">
         <v>45417</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -14386,7 +14359,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="78">
+      <c r="A92" s="77">
         <v>45417</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -14397,7 +14370,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="78">
+      <c r="A93" s="77">
         <v>45417</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -14408,7 +14381,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="78">
+      <c r="A94" s="77">
         <v>45417</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -14419,7 +14392,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="78">
+      <c r="A95" s="77">
         <v>45417</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -14432,10 +14405,10 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="50"/>
       <c r="B96" s="50"/>
-      <c r="C96" s="72"/>
+      <c r="C96" s="71"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="81">
+      <c r="A97" s="80">
         <v>45418</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -14446,7 +14419,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="81">
+      <c r="A98" s="80">
         <v>45418</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -14457,7 +14430,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="81">
+      <c r="A99" s="80">
         <v>45418</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -14468,7 +14441,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="81">
+      <c r="A100" s="80">
         <v>45418</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -14479,7 +14452,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="81">
+      <c r="A101" s="80">
         <v>45418</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -14490,10 +14463,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="82">
+      <c r="A102" s="81">
         <v>45418</v>
       </c>
-      <c r="B102" s="83" t="s">
+      <c r="B102" s="82" t="s">
         <v>25</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -14501,9 +14474,9 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="168"/>
-      <c r="B103" s="169"/>
-      <c r="C103" s="170"/>
+      <c r="A103" s="160"/>
+      <c r="B103" s="161"/>
+      <c r="C103" s="162"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="48">
@@ -14551,7 +14524,7 @@
       <c r="C108" s="49"/>
     </row>
     <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="77">
+      <c r="A109" s="76">
         <v>45419</v>
       </c>
       <c r="B109" s="55" t="s">
@@ -14560,9 +14533,9 @@
       <c r="C109" s="56"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="168"/>
-      <c r="B110" s="169"/>
-      <c r="C110" s="170"/>
+      <c r="A110" s="160"/>
+      <c r="B110" s="161"/>
+      <c r="C110" s="162"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="48">
@@ -14613,9 +14586,9 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="168"/>
-      <c r="B117" s="169"/>
-      <c r="C117" s="170"/>
+      <c r="A117" s="160"/>
+      <c r="B117" s="161"/>
+      <c r="C117" s="162"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="48">
@@ -14666,9 +14639,9 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="168"/>
-      <c r="B124" s="169"/>
-      <c r="C124" s="170"/>
+      <c r="A124" s="160"/>
+      <c r="B124" s="161"/>
+      <c r="C124" s="162"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="48">
@@ -14719,9 +14692,9 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="168"/>
-      <c r="B131" s="169"/>
-      <c r="C131" s="170"/>
+      <c r="A131" s="160"/>
+      <c r="B131" s="161"/>
+      <c r="C131" s="162"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B132" s="7" t="s">
@@ -14754,9 +14727,9 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="168"/>
-      <c r="B138" s="169"/>
-      <c r="C138" s="170"/>
+      <c r="A138" s="160"/>
+      <c r="B138" s="161"/>
+      <c r="C138" s="162"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B139" s="7" t="s">
@@ -14819,9 +14792,9 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="168"/>
-      <c r="B152" s="169"/>
-      <c r="C152" s="170"/>
+      <c r="A152" s="160"/>
+      <c r="B152" s="161"/>
+      <c r="C152" s="162"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B153" s="7" t="s">
@@ -14854,9 +14827,9 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="168"/>
-      <c r="B159" s="169"/>
-      <c r="C159" s="170"/>
+      <c r="A159" s="160"/>
+      <c r="B159" s="161"/>
+      <c r="C159" s="162"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B160" s="7" t="s">
@@ -14889,9 +14862,9 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="168"/>
-      <c r="B166" s="169"/>
-      <c r="C166" s="170"/>
+      <c r="A166" s="160"/>
+      <c r="B166" s="161"/>
+      <c r="C166" s="162"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B167" s="7" t="s">
@@ -14924,12 +14897,17 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="168"/>
-      <c r="B173" s="169"/>
-      <c r="C173" s="170"/>
+      <c r="A173" s="160"/>
+      <c r="B173" s="161"/>
+      <c r="C173" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A110:C110"/>
     <mergeCell ref="A159:C159"/>
     <mergeCell ref="A166:C166"/>
     <mergeCell ref="A173:C173"/>
@@ -14938,11 +14916,6 @@
     <mergeCell ref="A131:C131"/>
     <mergeCell ref="A138:C138"/>
     <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A110:C110"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -14964,10 +14937,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="170"/>
       <c r="C1" s="59"/>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
@@ -14980,10 +14953,10 @@
       <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="129" t="s">
         <v>100</v>
       </c>
     </row>
@@ -15054,25 +15027,25 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="171" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="173" t="s">
+      <c r="C4" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="173" t="s">
+      <c r="D4" s="130" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="100">
+      <c r="B5" s="99">
         <v>45376</v>
       </c>
       <c r="C5" s="16">
@@ -15083,7 +15056,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="100">
+      <c r="B6" s="99">
         <v>45377</v>
       </c>
       <c r="C6" s="16">
@@ -15094,7 +15067,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="100">
+      <c r="B7" s="99">
         <v>45378</v>
       </c>
       <c r="C7" s="16">
@@ -15105,7 +15078,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>45379</v>
       </c>
       <c r="C8" s="16">
@@ -15116,7 +15089,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="100">
+      <c r="B9" s="99">
         <v>45380</v>
       </c>
       <c r="C9" s="16">
@@ -15127,7 +15100,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="100">
+      <c r="B10" s="99">
         <v>45381</v>
       </c>
       <c r="C10" s="16">
@@ -15138,7 +15111,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="100">
+      <c r="B11" s="99">
         <v>45382</v>
       </c>
       <c r="C11" s="16">
@@ -15160,35 +15133,35 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
     </row>
     <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="177"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
     </row>
     <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="173" t="s">
+      <c r="D16" s="130" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="100">
+      <c r="B17" s="99">
         <v>45383</v>
       </c>
       <c r="C17" s="16">
@@ -15199,7 +15172,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="100">
+      <c r="B18" s="99">
         <v>45384</v>
       </c>
       <c r="C18" s="16">
@@ -15210,7 +15183,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="100">
+      <c r="B19" s="99">
         <v>45385</v>
       </c>
       <c r="C19" s="16">
@@ -15221,7 +15194,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="100">
+      <c r="B20" s="99">
         <v>45386</v>
       </c>
       <c r="C20" s="16">
@@ -15232,7 +15205,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="100">
+      <c r="B21" s="99">
         <v>45387</v>
       </c>
       <c r="C21" s="16">
@@ -15243,7 +15216,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="100">
+      <c r="B22" s="99">
         <v>45388</v>
       </c>
       <c r="C22" s="16">
@@ -15254,7 +15227,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="100">
+      <c r="B23" s="99">
         <v>45389</v>
       </c>
       <c r="C23" s="16">
@@ -15276,40 +15249,40 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="177"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="177"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
     </row>
     <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="171" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="175"/>
-      <c r="D28" s="176"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="173" t="s">
+      <c r="B29" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="173" t="s">
+      <c r="C29" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="173" t="s">
+      <c r="D29" s="130" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="100">
+      <c r="B30" s="99">
         <v>45390</v>
       </c>
       <c r="C30" s="16">
@@ -15320,7 +15293,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="100">
+      <c r="B31" s="99">
         <v>45391</v>
       </c>
       <c r="C31" s="16">
@@ -15331,7 +15304,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="100">
+      <c r="B32" s="99">
         <v>45392</v>
       </c>
       <c r="C32" s="16">
@@ -15342,7 +15315,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="100">
+      <c r="B33" s="99">
         <v>45393</v>
       </c>
       <c r="C33" s="16">
@@ -15353,7 +15326,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="100">
+      <c r="B34" s="99">
         <v>45394</v>
       </c>
       <c r="C34" s="16">
@@ -15364,7 +15337,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="100">
+      <c r="B35" s="99">
         <v>45395</v>
       </c>
       <c r="C35" s="16">
@@ -15375,7 +15348,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="100">
+      <c r="B36" s="99">
         <v>45396</v>
       </c>
       <c r="C36" s="16">
@@ -15397,40 +15370,40 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="177"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
     </row>
     <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="177"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
     </row>
     <row r="41" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="171" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="175"/>
-      <c r="D41" s="176"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="173"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="173" t="s">
+      <c r="B42" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="173" t="s">
+      <c r="C42" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="173" t="s">
+      <c r="D42" s="130" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="100">
+      <c r="B43" s="99">
         <v>45397</v>
       </c>
       <c r="C43" s="16">
@@ -15441,7 +15414,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="100">
+      <c r="B44" s="99">
         <v>45398</v>
       </c>
       <c r="C44" s="16">
@@ -15452,7 +15425,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="100">
+      <c r="B45" s="99">
         <v>45399</v>
       </c>
       <c r="C45" s="16">
@@ -15463,7 +15436,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="100">
+      <c r="B46" s="99">
         <v>45400</v>
       </c>
       <c r="C46" s="16">
@@ -15474,7 +15447,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="100">
+      <c r="B47" s="99">
         <v>45401</v>
       </c>
       <c r="C47" s="16">
@@ -15485,7 +15458,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="100">
+      <c r="B48" s="99">
         <v>45402</v>
       </c>
       <c r="C48" s="16">
@@ -15496,7 +15469,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B49" s="100">
+      <c r="B49" s="99">
         <v>45403</v>
       </c>
       <c r="C49" s="16">
@@ -15519,25 +15492,25 @@
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="174" t="s">
+      <c r="B53" s="171" t="s">
         <v>236</v>
       </c>
-      <c r="C53" s="175"/>
-      <c r="D53" s="176"/>
+      <c r="C53" s="172"/>
+      <c r="D53" s="173"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B54" s="173" t="s">
+      <c r="B54" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="173" t="s">
+      <c r="C54" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="173" t="s">
+      <c r="D54" s="130" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B55" s="100">
+      <c r="B55" s="99">
         <v>45404</v>
       </c>
       <c r="C55" s="16">
@@ -15548,7 +15521,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B56" s="100">
+      <c r="B56" s="99">
         <v>45405</v>
       </c>
       <c r="C56" s="16">
@@ -15559,7 +15532,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B57" s="100">
+      <c r="B57" s="99">
         <v>45406</v>
       </c>
       <c r="C57" s="16">
@@ -15570,7 +15543,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B58" s="100">
+      <c r="B58" s="99">
         <v>45407</v>
       </c>
       <c r="C58" s="16">
@@ -15581,7 +15554,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B59" s="100">
+      <c r="B59" s="99">
         <v>45408</v>
       </c>
       <c r="C59" s="16">
@@ -15592,7 +15565,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B60" s="100">
+      <c r="B60" s="99">
         <v>45409</v>
       </c>
       <c r="C60" s="16">
@@ -15603,7 +15576,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B61" s="100">
+      <c r="B61" s="99">
         <v>45410</v>
       </c>
       <c r="C61" s="16">
@@ -15625,851 +15598,851 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="84"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
+      <c r="A64" s="83"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="83"/>
+      <c r="O64" s="83"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A65" s="84"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="83"/>
+      <c r="N65" s="83"/>
+      <c r="O65" s="83"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A66" s="84"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
+      <c r="A66" s="83"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="83"/>
+      <c r="O66" s="83"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="84"/>
-      <c r="O67" s="84"/>
+      <c r="A67" s="83"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A68" s="84"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="84"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="84"/>
+      <c r="A68" s="83"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
     </row>
     <row r="69" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="160" t="s">
+      <c r="A69" s="174" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="160"/>
-      <c r="C69" s="160"/>
-      <c r="D69" s="160"/>
-      <c r="E69" s="160"/>
-      <c r="F69" s="160"/>
-      <c r="G69" s="160"/>
-      <c r="H69" s="160"/>
-      <c r="I69" s="160"/>
-      <c r="J69" s="160"/>
-      <c r="K69" s="160"/>
-      <c r="L69" s="160"/>
-      <c r="M69" s="160"/>
-      <c r="N69" s="160"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
+      <c r="B69" s="174"/>
+      <c r="C69" s="174"/>
+      <c r="D69" s="174"/>
+      <c r="E69" s="174"/>
+      <c r="F69" s="174"/>
+      <c r="G69" s="174"/>
+      <c r="H69" s="174"/>
+      <c r="I69" s="174"/>
+      <c r="J69" s="174"/>
+      <c r="K69" s="174"/>
+      <c r="L69" s="174"/>
+      <c r="M69" s="174"/>
+      <c r="N69" s="174"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="83"/>
+      <c r="Q69" s="83"/>
+      <c r="R69" s="83"/>
     </row>
     <row r="70" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="160"/>
-      <c r="B70" s="160"/>
-      <c r="C70" s="160"/>
-      <c r="D70" s="160"/>
-      <c r="E70" s="160"/>
-      <c r="F70" s="160"/>
-      <c r="G70" s="160"/>
-      <c r="H70" s="160"/>
-      <c r="I70" s="160"/>
-      <c r="J70" s="160"/>
-      <c r="K70" s="160"/>
-      <c r="L70" s="160"/>
-      <c r="M70" s="160"/>
-      <c r="N70" s="160"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="84"/>
+      <c r="A70" s="174"/>
+      <c r="B70" s="174"/>
+      <c r="C70" s="174"/>
+      <c r="D70" s="174"/>
+      <c r="E70" s="174"/>
+      <c r="F70" s="174"/>
+      <c r="G70" s="174"/>
+      <c r="H70" s="174"/>
+      <c r="I70" s="174"/>
+      <c r="J70" s="174"/>
+      <c r="K70" s="174"/>
+      <c r="L70" s="174"/>
+      <c r="M70" s="174"/>
+      <c r="N70" s="174"/>
+      <c r="O70" s="83"/>
+      <c r="P70" s="83"/>
+      <c r="Q70" s="83"/>
+      <c r="R70" s="83"/>
     </row>
     <row r="71" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="160"/>
-      <c r="B71" s="160"/>
-      <c r="C71" s="160"/>
-      <c r="D71" s="160"/>
-      <c r="E71" s="160"/>
-      <c r="F71" s="160"/>
-      <c r="G71" s="160"/>
-      <c r="H71" s="160"/>
-      <c r="I71" s="160"/>
-      <c r="J71" s="160"/>
-      <c r="K71" s="160"/>
-      <c r="L71" s="160"/>
-      <c r="M71" s="160"/>
-      <c r="N71" s="160"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
+      <c r="A71" s="174"/>
+      <c r="B71" s="174"/>
+      <c r="C71" s="174"/>
+      <c r="D71" s="174"/>
+      <c r="E71" s="174"/>
+      <c r="F71" s="174"/>
+      <c r="G71" s="174"/>
+      <c r="H71" s="174"/>
+      <c r="I71" s="174"/>
+      <c r="J71" s="174"/>
+      <c r="K71" s="174"/>
+      <c r="L71" s="174"/>
+      <c r="M71" s="174"/>
+      <c r="N71" s="174"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="83"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="83"/>
     </row>
     <row r="72" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="160"/>
-      <c r="B72" s="160"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="160"/>
-      <c r="E72" s="160"/>
-      <c r="F72" s="160"/>
-      <c r="G72" s="160"/>
-      <c r="H72" s="160"/>
-      <c r="I72" s="160"/>
-      <c r="J72" s="160"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="160"/>
-      <c r="M72" s="160"/>
-      <c r="N72" s="160"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="84"/>
+      <c r="A72" s="174"/>
+      <c r="B72" s="174"/>
+      <c r="C72" s="174"/>
+      <c r="D72" s="174"/>
+      <c r="E72" s="174"/>
+      <c r="F72" s="174"/>
+      <c r="G72" s="174"/>
+      <c r="H72" s="174"/>
+      <c r="I72" s="174"/>
+      <c r="J72" s="174"/>
+      <c r="K72" s="174"/>
+      <c r="L72" s="174"/>
+      <c r="M72" s="174"/>
+      <c r="N72" s="174"/>
+      <c r="O72" s="83"/>
+      <c r="P72" s="83"/>
+      <c r="Q72" s="83"/>
+      <c r="R72" s="83"/>
     </row>
     <row r="73" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="160"/>
-      <c r="B73" s="160"/>
-      <c r="C73" s="160"/>
-      <c r="D73" s="160"/>
-      <c r="E73" s="160"/>
-      <c r="F73" s="160"/>
-      <c r="G73" s="160"/>
-      <c r="H73" s="160"/>
-      <c r="I73" s="160"/>
-      <c r="J73" s="160"/>
-      <c r="K73" s="160"/>
-      <c r="L73" s="160"/>
-      <c r="M73" s="160"/>
-      <c r="N73" s="160"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84"/>
-      <c r="Q73" s="84"/>
-      <c r="R73" s="84"/>
+      <c r="A73" s="174"/>
+      <c r="B73" s="174"/>
+      <c r="C73" s="174"/>
+      <c r="D73" s="174"/>
+      <c r="E73" s="174"/>
+      <c r="F73" s="174"/>
+      <c r="G73" s="174"/>
+      <c r="H73" s="174"/>
+      <c r="I73" s="174"/>
+      <c r="J73" s="174"/>
+      <c r="K73" s="174"/>
+      <c r="L73" s="174"/>
+      <c r="M73" s="174"/>
+      <c r="N73" s="174"/>
+      <c r="O73" s="83"/>
+      <c r="P73" s="83"/>
+      <c r="Q73" s="83"/>
+      <c r="R73" s="83"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A74" s="84"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="84"/>
-      <c r="N74" s="84"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="84"/>
-      <c r="Q74" s="84"/>
-      <c r="R74" s="84"/>
+      <c r="A74" s="83"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="83"/>
+      <c r="K74" s="83"/>
+      <c r="L74" s="83"/>
+      <c r="M74" s="83"/>
+      <c r="N74" s="83"/>
+      <c r="O74" s="83"/>
+      <c r="P74" s="83"/>
+      <c r="Q74" s="83"/>
+      <c r="R74" s="83"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A75" s="84"/>
-      <c r="B75" s="84"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84"/>
-      <c r="R75" s="84"/>
+      <c r="A75" s="83"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="83"/>
+      <c r="K75" s="83"/>
+      <c r="L75" s="83"/>
+      <c r="M75" s="83"/>
+      <c r="N75" s="83"/>
+      <c r="O75" s="83"/>
+      <c r="P75" s="83"/>
+      <c r="Q75" s="83"/>
+      <c r="R75" s="83"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A76" s="85"/>
-      <c r="B76" s="90" t="s">
+      <c r="A76" s="84"/>
+      <c r="B76" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="91" t="s">
+      <c r="C76" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="D76" s="92" t="s">
+      <c r="D76" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="E76" s="92" t="s">
+      <c r="E76" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="F76" s="92" t="s">
+      <c r="F76" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="G76" s="92" t="s">
+      <c r="G76" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="H76" s="92" t="s">
+      <c r="H76" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="I76" s="92" t="s">
+      <c r="I76" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="J76" s="92" t="s">
+      <c r="J76" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="K76" s="93" t="s">
+      <c r="K76" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="L76" s="85"/>
-      <c r="M76" s="85"/>
-      <c r="N76" s="85"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="84"/>
-      <c r="R76" s="84"/>
+      <c r="L76" s="84"/>
+      <c r="M76" s="84"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="83"/>
+      <c r="P76" s="83"/>
+      <c r="Q76" s="83"/>
+      <c r="R76" s="83"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A77" s="85"/>
-      <c r="B77" s="86" t="s">
+      <c r="A77" s="84"/>
+      <c r="B77" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="87">
+      <c r="C77" s="86">
         <v>20</v>
       </c>
-      <c r="D77" s="88">
+      <c r="D77" s="87">
         <v>1</v>
       </c>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88">
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="87">
         <v>10</v>
       </c>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88">
+      <c r="H77" s="87"/>
+      <c r="I77" s="87">
         <v>3</v>
       </c>
-      <c r="J77" s="88">
+      <c r="J77" s="87">
         <v>2</v>
       </c>
-      <c r="K77" s="89">
+      <c r="K77" s="88">
         <v>2</v>
       </c>
-      <c r="L77" s="85"/>
-      <c r="M77" s="85"/>
-      <c r="N77" s="85"/>
-      <c r="O77" s="84"/>
-      <c r="P77" s="84"/>
-      <c r="Q77" s="84"/>
-      <c r="R77" s="84"/>
+      <c r="L77" s="84"/>
+      <c r="M77" s="84"/>
+      <c r="N77" s="84"/>
+      <c r="O77" s="83"/>
+      <c r="P77" s="83"/>
+      <c r="Q77" s="83"/>
+      <c r="R77" s="83"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A78" s="85"/>
-      <c r="B78" s="86" t="s">
+      <c r="A78" s="84"/>
+      <c r="B78" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="88">
+      <c r="C78" s="87">
         <v>10</v>
       </c>
-      <c r="D78" s="88">
+      <c r="D78" s="87">
         <v>5</v>
       </c>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="88">
+      <c r="E78" s="87"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="87"/>
+      <c r="J78" s="87">
         <v>2</v>
       </c>
-      <c r="K78" s="89"/>
-      <c r="L78" s="85"/>
-      <c r="M78" s="85"/>
-      <c r="N78" s="85"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="84"/>
-      <c r="Q78" s="84"/>
-      <c r="R78" s="84"/>
+      <c r="K78" s="88"/>
+      <c r="L78" s="84"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="84"/>
+      <c r="O78" s="83"/>
+      <c r="P78" s="83"/>
+      <c r="Q78" s="83"/>
+      <c r="R78" s="83"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A79" s="85"/>
-      <c r="B79" s="86" t="s">
+      <c r="A79" s="84"/>
+      <c r="B79" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="88">
+      <c r="C79" s="87">
         <v>15</v>
       </c>
-      <c r="D79" s="88">
+      <c r="D79" s="87">
         <v>6</v>
       </c>
-      <c r="E79" s="88"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="88"/>
-      <c r="H79" s="88"/>
-      <c r="I79" s="88">
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="87"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="87">
         <v>1</v>
       </c>
-      <c r="J79" s="88">
+      <c r="J79" s="87">
         <v>2</v>
       </c>
-      <c r="K79" s="89">
+      <c r="K79" s="88">
         <v>2</v>
       </c>
-      <c r="L79" s="85"/>
-      <c r="M79" s="85"/>
-      <c r="N79" s="85"/>
-      <c r="O79" s="84"/>
-      <c r="P79" s="84"/>
-      <c r="Q79" s="84"/>
-      <c r="R79" s="84"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="84"/>
+      <c r="N79" s="84"/>
+      <c r="O79" s="83"/>
+      <c r="P79" s="83"/>
+      <c r="Q79" s="83"/>
+      <c r="R79" s="83"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A80" s="85"/>
-      <c r="B80" s="86" t="s">
+      <c r="A80" s="84"/>
+      <c r="B80" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="88">
+      <c r="C80" s="87">
         <v>10</v>
       </c>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88">
+      <c r="D80" s="87"/>
+      <c r="E80" s="87">
         <v>3</v>
       </c>
-      <c r="F80" s="88"/>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88">
+      <c r="F80" s="87"/>
+      <c r="G80" s="87"/>
+      <c r="H80" s="87"/>
+      <c r="I80" s="87">
         <v>2</v>
       </c>
-      <c r="J80" s="88">
+      <c r="J80" s="87">
         <v>2</v>
       </c>
-      <c r="K80" s="89"/>
-      <c r="L80" s="85"/>
-      <c r="M80" s="85"/>
-      <c r="N80" s="85"/>
-      <c r="O80" s="84"/>
-      <c r="P80" s="84"/>
-      <c r="Q80" s="84"/>
-      <c r="R80" s="84"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="84"/>
+      <c r="M80" s="84"/>
+      <c r="N80" s="84"/>
+      <c r="O80" s="83"/>
+      <c r="P80" s="83"/>
+      <c r="Q80" s="83"/>
+      <c r="R80" s="83"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A81" s="85"/>
-      <c r="B81" s="86" t="s">
+      <c r="A81" s="84"/>
+      <c r="B81" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="88">
+      <c r="C81" s="87">
         <v>8</v>
       </c>
-      <c r="D81" s="88"/>
-      <c r="E81" s="88">
+      <c r="D81" s="87"/>
+      <c r="E81" s="87">
         <v>2</v>
       </c>
-      <c r="F81" s="88"/>
-      <c r="G81" s="88">
+      <c r="F81" s="87"/>
+      <c r="G81" s="87">
         <v>2</v>
       </c>
-      <c r="H81" s="88"/>
-      <c r="I81" s="88">
+      <c r="H81" s="87"/>
+      <c r="I81" s="87">
         <v>3</v>
       </c>
-      <c r="J81" s="88"/>
-      <c r="K81" s="89">
+      <c r="J81" s="87"/>
+      <c r="K81" s="88">
         <v>2</v>
       </c>
-      <c r="L81" s="85"/>
-      <c r="M81" s="85"/>
-      <c r="N81" s="85"/>
-      <c r="O81" s="84"/>
-      <c r="P81" s="84"/>
-      <c r="Q81" s="84"/>
-      <c r="R81" s="84"/>
+      <c r="L81" s="84"/>
+      <c r="M81" s="84"/>
+      <c r="N81" s="84"/>
+      <c r="O81" s="83"/>
+      <c r="P81" s="83"/>
+      <c r="Q81" s="83"/>
+      <c r="R81" s="83"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A82" s="85"/>
-      <c r="B82" s="86" t="s">
+      <c r="A82" s="84"/>
+      <c r="B82" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="88">
+      <c r="C82" s="87">
         <v>12</v>
       </c>
-      <c r="D82" s="88"/>
-      <c r="E82" s="88">
+      <c r="D82" s="87"/>
+      <c r="E82" s="87">
         <v>10</v>
       </c>
-      <c r="F82" s="88"/>
-      <c r="G82" s="88">
+      <c r="F82" s="87"/>
+      <c r="G82" s="87">
         <v>2</v>
       </c>
-      <c r="H82" s="88">
+      <c r="H82" s="87">
         <v>3</v>
       </c>
-      <c r="I82" s="88">
+      <c r="I82" s="87">
         <v>1</v>
       </c>
-      <c r="J82" s="88"/>
-      <c r="K82" s="89">
+      <c r="J82" s="87"/>
+      <c r="K82" s="88">
         <v>3</v>
       </c>
-      <c r="L82" s="85"/>
-      <c r="M82" s="85"/>
-      <c r="N82" s="85"/>
-      <c r="O82" s="84"/>
-      <c r="P82" s="84"/>
-      <c r="Q82" s="84"/>
-      <c r="R82" s="84"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="84"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="83"/>
+      <c r="P82" s="83"/>
+      <c r="Q82" s="83"/>
+      <c r="R82" s="83"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A83" s="85"/>
-      <c r="B83" s="86" t="s">
+      <c r="A83" s="84"/>
+      <c r="B83" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="88">
+      <c r="C83" s="87">
         <v>15</v>
       </c>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88">
+      <c r="D83" s="87"/>
+      <c r="E83" s="87">
         <v>3</v>
       </c>
-      <c r="F83" s="88"/>
-      <c r="G83" s="88"/>
-      <c r="H83" s="88">
+      <c r="F83" s="87"/>
+      <c r="G83" s="87"/>
+      <c r="H83" s="87">
         <v>2</v>
       </c>
-      <c r="I83" s="88">
+      <c r="I83" s="87">
         <v>1</v>
       </c>
-      <c r="J83" s="88">
+      <c r="J83" s="87">
         <v>1</v>
       </c>
-      <c r="K83" s="89">
+      <c r="K83" s="88">
         <v>3</v>
       </c>
-      <c r="L83" s="85"/>
-      <c r="M83" s="85"/>
-      <c r="N83" s="85"/>
-      <c r="O83" s="84"/>
-      <c r="P83" s="84"/>
-      <c r="Q83" s="84"/>
-      <c r="R83" s="84"/>
+      <c r="L83" s="84"/>
+      <c r="M83" s="84"/>
+      <c r="N83" s="84"/>
+      <c r="O83" s="83"/>
+      <c r="P83" s="83"/>
+      <c r="Q83" s="83"/>
+      <c r="R83" s="83"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A84" s="85"/>
-      <c r="B84" s="86" t="s">
+      <c r="A84" s="84"/>
+      <c r="B84" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="C84" s="88">
+      <c r="C84" s="87">
         <v>8</v>
       </c>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="88">
+      <c r="D84" s="87"/>
+      <c r="E84" s="87"/>
+      <c r="F84" s="87">
         <v>5</v>
       </c>
-      <c r="G84" s="88"/>
-      <c r="H84" s="88">
+      <c r="G84" s="87"/>
+      <c r="H84" s="87">
         <v>2</v>
       </c>
-      <c r="I84" s="88">
+      <c r="I84" s="87">
         <v>2</v>
       </c>
-      <c r="J84" s="88">
+      <c r="J84" s="87">
         <v>2</v>
       </c>
-      <c r="K84" s="89"/>
-      <c r="L84" s="85"/>
-      <c r="M84" s="85"/>
-      <c r="N84" s="85"/>
-      <c r="O84" s="84"/>
-      <c r="P84" s="84"/>
-      <c r="Q84" s="84"/>
-      <c r="R84" s="84"/>
+      <c r="K84" s="88"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="83"/>
+      <c r="P84" s="83"/>
+      <c r="Q84" s="83"/>
+      <c r="R84" s="83"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A85" s="85"/>
-      <c r="B85" s="86" t="s">
+      <c r="A85" s="84"/>
+      <c r="B85" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="88">
+      <c r="C85" s="87">
         <v>12</v>
       </c>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="88">
+      <c r="D85" s="87"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="87">
         <v>4</v>
       </c>
-      <c r="G85" s="88"/>
-      <c r="H85" s="88">
+      <c r="G85" s="87"/>
+      <c r="H85" s="87">
         <v>2</v>
       </c>
-      <c r="I85" s="88"/>
-      <c r="J85" s="88">
+      <c r="I85" s="87"/>
+      <c r="J85" s="87">
         <v>4</v>
       </c>
-      <c r="K85" s="89"/>
-      <c r="L85" s="85"/>
-      <c r="M85" s="85"/>
-      <c r="N85" s="85"/>
-      <c r="O85" s="84"/>
-      <c r="P85" s="84"/>
-      <c r="Q85" s="84"/>
-      <c r="R85" s="84"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="84"/>
+      <c r="M85" s="84"/>
+      <c r="N85" s="84"/>
+      <c r="O85" s="83"/>
+      <c r="P85" s="83"/>
+      <c r="Q85" s="83"/>
+      <c r="R85" s="83"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A86" s="85"/>
-      <c r="B86" s="86" t="s">
+      <c r="A86" s="84"/>
+      <c r="B86" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="C86" s="88">
+      <c r="C86" s="87">
         <v>10</v>
       </c>
-      <c r="D86" s="88"/>
-      <c r="E86" s="88"/>
-      <c r="F86" s="88">
+      <c r="D86" s="87"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="87">
         <v>7</v>
       </c>
-      <c r="G86" s="88"/>
-      <c r="H86" s="88">
+      <c r="G86" s="87"/>
+      <c r="H86" s="87">
         <v>10</v>
       </c>
-      <c r="I86" s="88"/>
-      <c r="J86" s="88">
+      <c r="I86" s="87"/>
+      <c r="J86" s="87">
         <v>1</v>
       </c>
-      <c r="K86" s="89"/>
-      <c r="L86" s="85"/>
-      <c r="M86" s="85"/>
-      <c r="N86" s="85"/>
-      <c r="O86" s="84"/>
-      <c r="P86" s="84"/>
-      <c r="Q86" s="84"/>
-      <c r="R86" s="84"/>
+      <c r="K86" s="88"/>
+      <c r="L86" s="84"/>
+      <c r="M86" s="84"/>
+      <c r="N86" s="84"/>
+      <c r="O86" s="83"/>
+      <c r="P86" s="83"/>
+      <c r="Q86" s="83"/>
+      <c r="R86" s="83"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A87" s="85"/>
-      <c r="B87" s="94" t="s">
+      <c r="A87" s="84"/>
+      <c r="B87" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="C87" s="95">
+      <c r="C87" s="94">
         <f>SUM(C77:C86)</f>
         <v>120</v>
       </c>
-      <c r="D87" s="95">
+      <c r="D87" s="94">
         <f t="shared" ref="D87:K87" si="0">IF(SUM($D$77:$D$86)&gt;0,
 C$87-SUM(D$77:D$86),
 NA())</f>
         <v>108</v>
       </c>
-      <c r="E87" s="95">
+      <c r="E87" s="94">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="F87" s="95">
+      <c r="F87" s="94">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="G87" s="95">
+      <c r="G87" s="94">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H87" s="95">
+      <c r="H87" s="94">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I87" s="95">
+      <c r="I87" s="94">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="J87" s="95">
+      <c r="J87" s="94">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K87" s="96">
+      <c r="K87" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L87" s="85"/>
-      <c r="M87" s="85"/>
-      <c r="N87" s="85"/>
-      <c r="O87" s="84"/>
-      <c r="P87" s="84"/>
-      <c r="R87" s="84"/>
+      <c r="L87" s="84"/>
+      <c r="M87" s="84"/>
+      <c r="N87" s="84"/>
+      <c r="O87" s="83"/>
+      <c r="P87" s="83"/>
+      <c r="R87" s="83"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A88" s="85"/>
-      <c r="B88" s="97" t="s">
+      <c r="A88" s="84"/>
+      <c r="B88" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="98">
+      <c r="C88" s="97">
         <v>120</v>
       </c>
-      <c r="D88" s="98">
+      <c r="D88" s="97">
         <f t="shared" ref="D88:K88" si="1">C$88-($C$88/COUNTA($D$76:$K$76))</f>
         <v>105</v>
       </c>
-      <c r="E88" s="98">
+      <c r="E88" s="97">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="F88" s="98">
+      <c r="F88" s="97">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="G88" s="98">
+      <c r="G88" s="97">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H88" s="98">
+      <c r="H88" s="97">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I88" s="98">
+      <c r="I88" s="97">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J88" s="98">
+      <c r="J88" s="97">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K88" s="99">
+      <c r="K88" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L88" s="85"/>
-      <c r="M88" s="85"/>
-      <c r="N88" s="85"/>
-      <c r="O88" s="84"/>
-      <c r="P88" s="84"/>
-      <c r="Q88" s="84"/>
-      <c r="R88" s="84"/>
+      <c r="L88" s="84"/>
+      <c r="M88" s="84"/>
+      <c r="N88" s="84"/>
+      <c r="O88" s="83"/>
+      <c r="P88" s="83"/>
+      <c r="Q88" s="83"/>
+      <c r="R88" s="83"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A89" s="84"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="84"/>
-      <c r="F89" s="84"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84"/>
-      <c r="K89" s="84"/>
-      <c r="L89" s="84"/>
-      <c r="M89" s="84"/>
-      <c r="N89" s="84"/>
+      <c r="A89" s="83"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="83"/>
+      <c r="K89" s="83"/>
+      <c r="L89" s="83"/>
+      <c r="M89" s="83"/>
+      <c r="N89" s="83"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A90" s="84"/>
-      <c r="B90" s="84"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="84"/>
-      <c r="F90" s="84"/>
-      <c r="G90" s="84"/>
-      <c r="H90" s="84"/>
-      <c r="I90" s="84"/>
-      <c r="J90" s="84"/>
-      <c r="K90" s="84"/>
-      <c r="L90" s="84"/>
-      <c r="M90" s="84"/>
-      <c r="N90" s="84"/>
+      <c r="A90" s="83"/>
+      <c r="B90" s="83"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="83"/>
+      <c r="J90" s="83"/>
+      <c r="K90" s="83"/>
+      <c r="L90" s="83"/>
+      <c r="M90" s="83"/>
+      <c r="N90" s="83"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A91" s="84"/>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="84"/>
-      <c r="G91" s="84"/>
-      <c r="H91" s="84"/>
-      <c r="I91" s="84"/>
-      <c r="J91" s="84"/>
-      <c r="K91" s="84"/>
-      <c r="L91" s="84"/>
-      <c r="M91" s="84"/>
-      <c r="N91" s="84"/>
+      <c r="A91" s="83"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="83"/>
+      <c r="I91" s="83"/>
+      <c r="J91" s="83"/>
+      <c r="K91" s="83"/>
+      <c r="L91" s="83"/>
+      <c r="M91" s="83"/>
+      <c r="N91" s="83"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A92" s="84"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="84"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="84"/>
-      <c r="I92" s="84"/>
-      <c r="J92" s="84"/>
-      <c r="K92" s="84"/>
-      <c r="L92" s="84"/>
-      <c r="M92" s="84"/>
-      <c r="N92" s="84"/>
+      <c r="A92" s="83"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="83"/>
+      <c r="I92" s="83"/>
+      <c r="J92" s="83"/>
+      <c r="K92" s="83"/>
+      <c r="L92" s="83"/>
+      <c r="M92" s="83"/>
+      <c r="N92" s="83"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A93" s="84"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
-      <c r="I93" s="84"/>
-      <c r="J93" s="84"/>
-      <c r="K93" s="84"/>
-      <c r="L93" s="84"/>
-      <c r="M93" s="84"/>
-      <c r="N93" s="84"/>
+      <c r="A93" s="83"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="83"/>
+      <c r="J93" s="83"/>
+      <c r="K93" s="83"/>
+      <c r="L93" s="83"/>
+      <c r="M93" s="83"/>
+      <c r="N93" s="83"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A94" s="84"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="84"/>
-      <c r="H94" s="84"/>
-      <c r="I94" s="84"/>
-      <c r="J94" s="84"/>
-      <c r="K94" s="84"/>
-      <c r="L94" s="84"/>
-      <c r="M94" s="84"/>
-      <c r="N94" s="84"/>
+      <c r="A94" s="83"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
+      <c r="I94" s="83"/>
+      <c r="J94" s="83"/>
+      <c r="K94" s="83"/>
+      <c r="L94" s="83"/>
+      <c r="M94" s="83"/>
+      <c r="N94" s="83"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A95" s="84"/>
-      <c r="B95" s="84"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="84"/>
-      <c r="H95" s="84"/>
-      <c r="I95" s="84"/>
-      <c r="J95" s="84"/>
-      <c r="K95" s="84"/>
-      <c r="L95" s="84"/>
-      <c r="M95" s="84"/>
-      <c r="N95" s="84"/>
+      <c r="A95" s="83"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="83"/>
+      <c r="I95" s="83"/>
+      <c r="J95" s="83"/>
+      <c r="K95" s="83"/>
+      <c r="L95" s="83"/>
+      <c r="M95" s="83"/>
+      <c r="N95" s="83"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A96" s="84"/>
-      <c r="B96" s="84"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="84"/>
-      <c r="G96" s="84"/>
-      <c r="H96" s="84"/>
-      <c r="I96" s="84"/>
-      <c r="J96" s="84"/>
-      <c r="K96" s="84"/>
-      <c r="L96" s="84"/>
-      <c r="M96" s="84"/>
-      <c r="N96" s="84"/>
+      <c r="A96" s="83"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="83"/>
+      <c r="I96" s="83"/>
+      <c r="J96" s="83"/>
+      <c r="K96" s="83"/>
+      <c r="L96" s="83"/>
+      <c r="M96" s="83"/>
+      <c r="N96" s="83"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A97" s="84"/>
-      <c r="B97" s="84"/>
-      <c r="C97" s="84"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="84"/>
-      <c r="H97" s="84"/>
-      <c r="I97" s="84"/>
-      <c r="J97" s="84"/>
-      <c r="K97" s="84"/>
-      <c r="L97" s="84"/>
-      <c r="M97" s="84"/>
-      <c r="N97" s="84"/>
+      <c r="A97" s="83"/>
+      <c r="B97" s="83"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="83"/>
+      <c r="I97" s="83"/>
+      <c r="J97" s="83"/>
+      <c r="K97" s="83"/>
+      <c r="L97" s="83"/>
+      <c r="M97" s="83"/>
+      <c r="N97" s="83"/>
     </row>
     <row r="126" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="127" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B127" s="174" t="s">
+      <c r="B127" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="C127" s="175"/>
-      <c r="D127" s="176"/>
+      <c r="C127" s="172"/>
+      <c r="D127" s="173"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B128" s="173" t="s">
+      <c r="B128" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="C128" s="173" t="s">
+      <c r="C128" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="D128" s="173" t="s">
+      <c r="D128" s="130" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B129" s="100">
+      <c r="B129" s="99">
         <v>45419</v>
       </c>
       <c r="C129" s="16">
@@ -16480,7 +16453,7 @@
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B130" s="100">
+      <c r="B130" s="99">
         <v>45420</v>
       </c>
       <c r="C130" s="16">
@@ -16491,7 +16464,7 @@
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B131" s="100">
+      <c r="B131" s="99">
         <v>45421</v>
       </c>
       <c r="C131" s="16">
@@ -16502,7 +16475,7 @@
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B132" s="100">
+      <c r="B132" s="99">
         <v>45422</v>
       </c>
       <c r="C132" s="16">
@@ -16513,7 +16486,7 @@
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B133" s="100">
+      <c r="B133" s="99">
         <v>45423</v>
       </c>
       <c r="C133" s="16">
@@ -16524,7 +16497,7 @@
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B134" s="100">
+      <c r="B134" s="99">
         <v>45424</v>
       </c>
       <c r="C134" s="16">
@@ -16535,7 +16508,7 @@
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B135" s="100">
+      <c r="B135" s="99">
         <v>45425</v>
       </c>
       <c r="C135" s="16">
@@ -16558,25 +16531,25 @@
     </row>
     <row r="140" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="141" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B141" s="174" t="s">
+      <c r="B141" s="171" t="s">
         <v>237</v>
       </c>
-      <c r="C141" s="175"/>
-      <c r="D141" s="176"/>
+      <c r="C141" s="172"/>
+      <c r="D141" s="173"/>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B142" s="173" t="s">
+      <c r="B142" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="173" t="s">
+      <c r="C142" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="D142" s="173" t="s">
+      <c r="D142" s="130" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B143" s="100">
+      <c r="B143" s="99">
         <v>45404</v>
       </c>
       <c r="C143" s="16">
@@ -16587,7 +16560,7 @@
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B144" s="100">
+      <c r="B144" s="99">
         <v>45405</v>
       </c>
       <c r="C144" s="16">
@@ -16598,7 +16571,7 @@
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B145" s="100">
+      <c r="B145" s="99">
         <v>45406</v>
       </c>
       <c r="C145" s="16">
@@ -16609,7 +16582,7 @@
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B146" s="100">
+      <c r="B146" s="99">
         <v>45407</v>
       </c>
       <c r="C146" s="16">
@@ -16620,7 +16593,7 @@
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B147" s="100">
+      <c r="B147" s="99">
         <v>45408</v>
       </c>
       <c r="C147" s="16">
@@ -16631,7 +16604,7 @@
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B148" s="100">
+      <c r="B148" s="99">
         <v>45409</v>
       </c>
       <c r="C148" s="16">
@@ -16642,7 +16615,7 @@
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B149" s="100">
+      <c r="B149" s="99">
         <v>45410</v>
       </c>
       <c r="C149" s="16">
@@ -16665,14 +16638,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B127:D127"/>
     <mergeCell ref="B141:D141"/>
     <mergeCell ref="A69:N73"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
+++ b/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erione Technologies\Pim-Terceiro-Semestre-1\BackLog Produto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E1A276-C74D-4288-83E5-4FAD7383C1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4017815-3427-45CF-9C7C-EF809E2AE633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="267">
   <si>
     <t>PLANEJAMENTO</t>
   </si>
@@ -1037,6 +1037,91 @@
   </si>
   <si>
     <t>Não concluído</t>
+  </si>
+  <si>
+    <t>Estruturação do documento</t>
+  </si>
+  <si>
+    <t>Análise de mercado</t>
+  </si>
+  <si>
+    <t>Juntar todas as tarefas feitas</t>
+  </si>
+  <si>
+    <t>Estimativa e viabilidade</t>
+  </si>
+  <si>
+    <t>Diagrama UML</t>
+  </si>
+  <si>
+    <t>Fazer diagrama de implantaçao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planilha de testes </t>
+  </si>
+  <si>
+    <t>Documentação de teste e CRUD</t>
+  </si>
+  <si>
+    <t>Finalizar prototipagem de telas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizar as telas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">descrever quais recursos humanos serão utilizados
+fazer o diagrama de implantação </t>
+  </si>
+  <si>
+    <t>ENTREGUE- corrigir a introdução e ciclo de vida de software</t>
+  </si>
+  <si>
+    <t>FINALIZADO- Corrigir os diagramas UML e ajudar a Arieli</t>
+  </si>
+  <si>
+    <t>NÃO FINALIZADO- Finalizar o restante dos protótipos</t>
+  </si>
+  <si>
+    <t>NÃO FINALIZADO- struturar o documento do PIM</t>
+  </si>
+  <si>
+    <t>ENTREGA SPRINT 7 E RETROSPECTIVA DA SPRINT</t>
+  </si>
+  <si>
+    <t>Finalizar estruturação do documento</t>
+  </si>
+  <si>
+    <t>Documentar estimativa e viabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizar protótipos de telas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizar digarama de implantaçao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINALIZADO- descrever quais recursos humanos serão utilizados
+NÃO FINALIZADO- fazer o diagrama de implantação </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizar CRUD e planilha de testes </t>
+  </si>
+  <si>
+    <t>FINALIZADO- Documentar estimativa e viabilidade</t>
+  </si>
+  <si>
+    <t>FINALIZADO- Documentar estimativa e viabilidade
+FINALIZADO- alterar diagra de sequência</t>
+  </si>
+  <si>
+    <t>Documentar estimativa e viabilidade;
+Alterar diagrama de sequência</t>
+  </si>
+  <si>
+    <t>13-05-24 | Segunda-Feira</t>
+  </si>
+  <si>
+    <t>Cliente não compareceu a reunião</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +2065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2241,6 +2326,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2325,15 +2413,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2350,6 +2429,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2370,8 +2458,46 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11289,8 +11415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21C7278-4439-4CF1-82AD-0D14D81CCEDD}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11306,66 +11432,66 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:12" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="30"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="141" t="s">
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
     </row>
     <row r="5" spans="1:12" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="30"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
     </row>
     <row r="6" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="118" t="s">
         <v>117</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
     </row>
     <row r="7" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="119" t="s">
         <v>128</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
     </row>
     <row r="8" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B8" s="120" t="s">
@@ -11552,7 +11678,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="225.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="64"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="35" t="s">
         <v>218</v>
       </c>
@@ -11571,6 +11697,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="98" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="122"/>
       <c r="B20" s="35" t="s">
         <v>54</v>
       </c>
@@ -11627,6 +11754,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="122"/>
       <c r="B23" s="35" t="s">
         <v>56</v>
       </c>
@@ -11758,12 +11886,12 @@
     </row>
     <row r="30" spans="1:7" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:7" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="135"/>
     </row>
     <row r="32" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="109" t="s">
@@ -11772,10 +11900,10 @@
       <c r="C32" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="135" t="s">
+      <c r="D32" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="136"/>
+      <c r="E32" s="137"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="2:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -11785,8 +11913,8 @@
       <c r="C33" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="D33" s="137"/>
-      <c r="E33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="139"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="2:7" ht="38" customHeight="1" x14ac:dyDescent="0.35">
@@ -11796,8 +11924,8 @@
       <c r="C34" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="D34" s="137"/>
-      <c r="E34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="139"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="2:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11807,8 +11935,8 @@
       <c r="C35" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="137"/>
-      <c r="E35" s="138"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="139"/>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
@@ -11818,8 +11946,8 @@
       <c r="C36" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="137"/>
-      <c r="E36" s="138"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="139"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="2:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11829,8 +11957,8 @@
       <c r="C37" s="106" t="s">
         <v>222</v>
       </c>
-      <c r="D37" s="137"/>
-      <c r="E37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="139"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -11840,8 +11968,8 @@
       <c r="C38" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="D38" s="139"/>
-      <c r="E38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="141"/>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11917,8 +12045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E39882E-15E1-49D7-8705-F56E6D1328C9}">
   <dimension ref="C1:K107"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11939,12 +12067,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
     </row>
     <row r="3" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" s="5"/>
@@ -11971,10 +12099,10 @@
       <c r="I4" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="J4" s="151" t="s">
+      <c r="J4" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="152"/>
+      <c r="K4" s="153"/>
     </row>
     <row r="5" spans="3:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D5" s="5"/>
@@ -11987,8 +12115,8 @@
       <c r="I5" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="J5" s="153"/>
-      <c r="K5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="155"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D6" s="5"/>
@@ -12001,8 +12129,8 @@
       <c r="I6" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="153"/>
-      <c r="K6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
     </row>
     <row r="7" spans="3:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D7" s="5"/>
@@ -12015,8 +12143,8 @@
       <c r="I7" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="155"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D8" s="5"/>
@@ -12026,8 +12154,8 @@
       <c r="H8" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="153"/>
-      <c r="K8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="155"/>
     </row>
     <row r="9" spans="3:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D9" s="5"/>
@@ -12040,8 +12168,8 @@
       <c r="I9" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="J9" s="155"/>
-      <c r="K9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="157"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
@@ -12079,16 +12207,16 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="3:11" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D16" s="5"/>
@@ -12113,16 +12241,16 @@
     </row>
     <row r="19" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
     </row>
     <row r="21" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="30"/>
@@ -12311,16 +12439,16 @@
     </row>
     <row r="31" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C32" s="148" t="s">
+      <c r="C32" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="151"/>
     </row>
     <row r="33" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="30"/>
@@ -12505,16 +12633,16 @@
     </row>
     <row r="43" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="148" t="s">
+      <c r="C44" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="151"/>
     </row>
     <row r="45" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C45" s="30"/>
@@ -12703,16 +12831,16 @@
       <c r="J54" s="21"/>
     </row>
     <row r="55" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C55" s="148" t="s">
+      <c r="C55" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="149"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="149"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="150"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="151"/>
     </row>
     <row r="56" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C56" s="30"/>
@@ -12876,16 +13004,16 @@
     </row>
     <row r="66" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="67" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C67" s="148" t="s">
+      <c r="C67" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="149"/>
-      <c r="G67" s="149"/>
-      <c r="H67" s="149"/>
-      <c r="I67" s="149"/>
-      <c r="J67" s="150"/>
+      <c r="D67" s="150"/>
+      <c r="E67" s="150"/>
+      <c r="F67" s="150"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="150"/>
+      <c r="I67" s="150"/>
+      <c r="J67" s="151"/>
     </row>
     <row r="68" spans="3:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C68" s="30"/>
@@ -12981,16 +13109,16 @@
     </row>
     <row r="75" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="76" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C76" s="148" t="s">
+      <c r="C76" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="D76" s="149"/>
-      <c r="E76" s="149"/>
-      <c r="F76" s="149"/>
-      <c r="G76" s="149"/>
-      <c r="H76" s="149"/>
-      <c r="I76" s="149"/>
-      <c r="J76" s="150"/>
+      <c r="D76" s="150"/>
+      <c r="E76" s="150"/>
+      <c r="F76" s="150"/>
+      <c r="G76" s="150"/>
+      <c r="H76" s="150"/>
+      <c r="I76" s="150"/>
+      <c r="J76" s="151"/>
     </row>
     <row r="77" spans="3:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C77" s="30"/>
@@ -13112,16 +13240,16 @@
     </row>
     <row r="86" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="87" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C87" s="148" t="s">
+      <c r="C87" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="D87" s="149"/>
-      <c r="E87" s="149"/>
-      <c r="F87" s="149"/>
-      <c r="G87" s="149"/>
-      <c r="H87" s="149"/>
-      <c r="I87" s="149"/>
-      <c r="J87" s="150"/>
+      <c r="D87" s="150"/>
+      <c r="E87" s="150"/>
+      <c r="F87" s="150"/>
+      <c r="G87" s="150"/>
+      <c r="H87" s="150"/>
+      <c r="I87" s="150"/>
+      <c r="J87" s="151"/>
     </row>
     <row r="88" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C88" s="30"/>
@@ -13243,11 +13371,13 @@
       <c r="G93" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H93" s="7"/>
+      <c r="H93" s="7">
+        <v>2</v>
+      </c>
       <c r="I93" s="36">
         <v>45425</v>
       </c>
-      <c r="J93" s="175" t="s">
+      <c r="J93" s="132" t="s">
         <v>239</v>
       </c>
     </row>
@@ -13267,7 +13397,9 @@
       <c r="G94" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H94" s="7"/>
+      <c r="H94" s="7">
+        <v>1</v>
+      </c>
       <c r="I94" s="36">
         <v>45425</v>
       </c>
@@ -13291,7 +13423,9 @@
       <c r="G95" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H95" s="7"/>
+      <c r="H95" s="7">
+        <v>2</v>
+      </c>
       <c r="I95" s="36">
         <v>45425</v>
       </c>
@@ -13315,26 +13449,28 @@
       <c r="G96" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="H96" s="55"/>
+      <c r="H96" s="55">
+        <v>1</v>
+      </c>
       <c r="I96" s="127">
         <v>45425</v>
       </c>
-      <c r="J96" s="175" t="s">
+      <c r="J96" s="132" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="98" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="99" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C99" s="148" t="s">
+      <c r="C99" s="149" t="s">
         <v>220</v>
       </c>
-      <c r="D99" s="149"/>
-      <c r="E99" s="149"/>
-      <c r="F99" s="149"/>
-      <c r="G99" s="149"/>
-      <c r="H99" s="149"/>
-      <c r="I99" s="149"/>
-      <c r="J99" s="150"/>
+      <c r="D99" s="150"/>
+      <c r="E99" s="150"/>
+      <c r="F99" s="150"/>
+      <c r="G99" s="150"/>
+      <c r="H99" s="150"/>
+      <c r="I99" s="150"/>
+      <c r="J99" s="151"/>
     </row>
     <row r="100" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C100" s="30"/>
@@ -13367,82 +13503,174 @@
       </c>
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C102" s="30"/>
+      <c r="C102" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" t="s">
+        <v>242</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="131">
+        <v>4</v>
+      </c>
       <c r="G102" s="7" t="s">
         <v>191</v>
       </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
       <c r="I102" s="36">
         <v>45432</v>
       </c>
-      <c r="J102" s="21"/>
+      <c r="J102" s="32" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C103" s="30"/>
+      <c r="C103" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D103" t="s">
+        <v>243</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="131">
+        <v>1</v>
+      </c>
       <c r="G103" s="7" t="s">
         <v>185</v>
       </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
       <c r="I103" s="36">
         <v>45432</v>
       </c>
-      <c r="J103" s="21"/>
+      <c r="J103" s="32" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C104" s="30"/>
+      <c r="C104" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D104" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="131">
+        <v>1</v>
+      </c>
       <c r="G104" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
       <c r="I104" s="36">
         <v>45432</v>
       </c>
-      <c r="J104" s="21"/>
+      <c r="J104" s="32" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C105" s="30"/>
+      <c r="C105" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105" t="s">
+        <v>245</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="131">
+        <v>1</v>
+      </c>
       <c r="G105" s="7" t="s">
         <v>180</v>
       </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
       <c r="I105" s="36">
         <v>45432</v>
       </c>
-      <c r="J105" s="21"/>
+      <c r="J105" s="32" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C106" s="30"/>
+      <c r="C106" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" t="s">
+        <v>247</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="131">
+        <v>3</v>
+      </c>
       <c r="G106" s="7" t="s">
         <v>193</v>
       </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
       <c r="I106" s="36">
         <v>45432</v>
       </c>
-      <c r="J106" s="21"/>
+      <c r="J106" s="32" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="107" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C107" s="34"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
+      <c r="C107" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="176">
+        <v>3</v>
+      </c>
       <c r="G107" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="H107" s="22"/>
+      <c r="H107" s="22">
+        <v>2</v>
+      </c>
       <c r="I107" s="36">
         <v>45432</v>
       </c>
-      <c r="J107" s="23"/>
+      <c r="J107" s="32" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C76:J76"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="J4:K9"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C76:J76"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -13450,10 +13678,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53D959B-E411-475F-8D2F-46A6BAEF8854}">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView topLeftCell="A163" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13464,11 +13692,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="150"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="151"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
@@ -13548,9 +13776,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="163"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="165"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="48">
@@ -13975,11 +14203,11 @@
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="166" t="s">
+      <c r="A54" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="167"/>
-      <c r="C54" s="168"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="52">
@@ -14473,84 +14701,98 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="160"/>
-      <c r="B103" s="161"/>
-      <c r="C103" s="162"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="48">
-        <v>45419</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="49"/>
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="167"/>
+      <c r="B103" s="168"/>
+      <c r="C103" s="169"/>
+    </row>
+    <row r="104" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A104" s="164" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="165"/>
+      <c r="C104" s="166"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="48">
         <v>45419</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="49"/>
+        <v>17</v>
+      </c>
+      <c r="C105" s="178" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="48">
         <v>45419</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="49"/>
+        <v>19</v>
+      </c>
+      <c r="C106" s="179" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="48">
         <v>45419</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C107" s="49"/>
+        <v>22</v>
+      </c>
+      <c r="C107" s="180" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="48">
         <v>45419</v>
       </c>
       <c r="B108" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" s="179" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="48">
+        <v>45419</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C108" s="49"/>
-    </row>
-    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="76">
+      <c r="C109" s="181" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="76">
         <v>45419</v>
       </c>
-      <c r="B109" s="55" t="s">
+      <c r="B110" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="56"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="160"/>
-      <c r="B110" s="161"/>
-      <c r="C110" s="162"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="48">
+      <c r="C110" s="180" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="182"/>
+      <c r="B111" s="183"/>
+      <c r="C111" s="184"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="177">
         <v>45420</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B112" s="42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="48">
-        <v>45420</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>19</v>
+      <c r="C112" s="178" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -14558,7 +14800,10 @@
         <v>45420</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C113" s="179" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -14566,7 +14811,10 @@
         <v>45420</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>84</v>
+        <v>22</v>
+      </c>
+      <c r="C114" s="180" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -14574,36 +14822,48 @@
         <v>45420</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+      <c r="C115" s="179" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="48">
         <v>45420</v>
       </c>
-      <c r="B116" s="55" t="s">
+      <c r="B116" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="181" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="48">
+        <v>45420</v>
+      </c>
+      <c r="B117" s="55" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="160"/>
-      <c r="B117" s="161"/>
-      <c r="C117" s="162"/>
+      <c r="C117" s="180" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="48">
-        <v>45421</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="A118" s="167"/>
+      <c r="B118" s="168"/>
+      <c r="C118" s="169"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="48">
         <v>45421</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C119" s="178" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -14611,7 +14871,10 @@
         <v>45421</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C120" s="179" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -14619,7 +14882,10 @@
         <v>45421</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>84</v>
+        <v>22</v>
+      </c>
+      <c r="C121" s="180" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -14627,36 +14893,48 @@
         <v>45421</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+      <c r="C122" s="179" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="48">
         <v>45421</v>
       </c>
-      <c r="B123" s="55" t="s">
+      <c r="B123" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="181" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="48">
+        <v>45421</v>
+      </c>
+      <c r="B124" s="55" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="160"/>
-      <c r="B124" s="161"/>
-      <c r="C124" s="162"/>
+      <c r="C124" s="180" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="48">
-        <v>45422</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="A125" s="167"/>
+      <c r="B125" s="168"/>
+      <c r="C125" s="169"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="48">
         <v>45422</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C126" s="178" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -14664,7 +14942,10 @@
         <v>45422</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C127" s="179" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -14672,7 +14953,10 @@
         <v>45422</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>84</v>
+        <v>22</v>
+      </c>
+      <c r="C128" s="180" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -14680,242 +14964,656 @@
         <v>45422</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+      <c r="C129" s="179" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="48">
         <v>45422</v>
       </c>
-      <c r="B130" s="55" t="s">
+      <c r="B130" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="181" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="48">
+        <v>45422</v>
+      </c>
+      <c r="B131" s="55" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="160"/>
-      <c r="B131" s="161"/>
-      <c r="C131" s="162"/>
+      <c r="C131" s="180" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B132" s="7" t="s">
+      <c r="A132" s="167"/>
+      <c r="B132" s="168"/>
+      <c r="C132" s="169"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="52">
+        <v>45423</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B133" s="7" t="s">
+      <c r="C133" s="178" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="52">
+        <v>45423</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B134" s="7" t="s">
+      <c r="C134" s="179" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="52">
+        <v>45423</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B135" s="7" t="s">
+      <c r="C135" s="180" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="52">
+        <v>45423</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B136" s="7" t="s">
+      <c r="C136" s="179" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="52">
+        <v>45423</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B137" s="55" t="s">
+      <c r="C137" s="181" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="52">
+        <v>45423</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="160"/>
-      <c r="B138" s="161"/>
-      <c r="C138" s="162"/>
+      <c r="C138" s="180" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B139" s="7" t="s">
+      <c r="A139" s="186"/>
+      <c r="B139" s="185"/>
+      <c r="C139" s="187"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="52">
+        <v>45424</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B140" s="7" t="s">
+      <c r="C140" s="178" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="52">
+        <v>45424</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B141" s="7" t="s">
+      <c r="C141" s="179" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="52">
+        <v>45424</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B142" s="7" t="s">
+      <c r="C142" s="180" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="52">
+        <v>45424</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B143" s="7" t="s">
+      <c r="C143" s="179" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="52">
+        <v>45424</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B144" s="55" t="s">
+      <c r="C144" s="181" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="52">
+        <v>45424</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="C145" s="180" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B146" s="7" t="s">
+      <c r="A146" s="186"/>
+      <c r="B146" s="185"/>
+      <c r="C146" s="187"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="188">
+        <v>45425</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B147" s="7" t="s">
+      <c r="C147" s="49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="188">
+        <v>45425</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B148" s="7" t="s">
+      <c r="C148" s="49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="188">
+        <v>45425</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B149" s="7" t="s">
+      <c r="C149" s="49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="188">
+        <v>45425</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B150" s="7" t="s">
+      <c r="C150" s="49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="188">
+        <v>45425</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B151" s="55" t="s">
+      <c r="C151" s="49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="188">
+        <v>45425</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="160"/>
-      <c r="B152" s="161"/>
-      <c r="C152" s="162"/>
+      <c r="C152" s="49" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B153" s="7" t="s">
+      <c r="A153" s="186"/>
+      <c r="B153" s="185"/>
+      <c r="C153" s="187"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="188">
+        <v>45426</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B154" s="7" t="s">
+      <c r="C154" s="189" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="188">
+        <v>45426</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B155" s="7" t="s">
+      <c r="C155" s="189" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="188">
+        <v>45426</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B156" s="7" t="s">
+      <c r="C156" s="189" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="188">
+        <v>45426</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B157" s="7" t="s">
+      <c r="C157" s="189" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="188">
+        <v>45426</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B158" s="55" t="s">
+      <c r="C158" s="189" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="188">
+        <v>45426</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="160"/>
-      <c r="B159" s="161"/>
-      <c r="C159" s="162"/>
+      <c r="C159" s="189" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B160" s="7" t="s">
+      <c r="A160" s="186"/>
+      <c r="B160" s="185"/>
+      <c r="C160" s="187"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="188">
+        <v>45427</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B161" s="7" t="s">
+      <c r="C161" s="189" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="188">
+        <v>45427</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B162" s="7" t="s">
+      <c r="C162" s="189" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="188">
+        <v>45427</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B163" s="7" t="s">
+      <c r="C163" s="189" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="188">
+        <v>45427</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B164" s="7" t="s">
+      <c r="C164" s="189" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="188">
+        <v>45427</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B165" s="55" t="s">
+      <c r="C165" s="189" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="188">
+        <v>45427</v>
+      </c>
+      <c r="B166" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="160"/>
-      <c r="B166" s="161"/>
-      <c r="C166" s="162"/>
+      <c r="C166" s="189" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B167" s="7" t="s">
+      <c r="A167" s="186"/>
+      <c r="B167" s="185"/>
+      <c r="C167" s="187"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="188">
+        <v>45428</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B168" s="7" t="s">
+      <c r="C168" s="189" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A169" s="188">
+        <v>45428</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B169" s="7" t="s">
+      <c r="C169" s="190" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="188">
+        <v>45428</v>
+      </c>
+      <c r="B170" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B170" s="7" t="s">
+      <c r="C170" s="189" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="188">
+        <v>45428</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B171" s="7" t="s">
+      <c r="C171" s="189" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="188">
+        <v>45428</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B172" s="55" t="s">
+      <c r="C172" s="189" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="188">
+        <v>45428</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="160"/>
-      <c r="B173" s="161"/>
-      <c r="C173" s="162"/>
+      <c r="C173" s="189" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="186"/>
+      <c r="B174" s="185"/>
+      <c r="C174" s="187"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="188">
+        <v>45429</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="189" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A176" s="188">
+        <v>45429</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="190" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="188">
+        <v>45429</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" s="189" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="188">
+        <v>45429</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C178" s="189" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="188">
+        <v>45429</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" s="189" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="188">
+        <v>45429</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C180" s="189" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="186"/>
+      <c r="B181" s="185"/>
+      <c r="C181" s="187"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="188">
+        <v>45430</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" s="49"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="188">
+        <v>45430</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="49"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="188">
+        <v>45430</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="49"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="188">
+        <v>45430</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C185" s="49"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="188">
+        <v>45430</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" s="49"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="188">
+        <v>45430</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" s="49"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="186"/>
+      <c r="B188" s="185"/>
+      <c r="C188" s="187"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="33"/>
+      <c r="B189" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" s="49"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="33"/>
+      <c r="B190" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="49"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="33"/>
+      <c r="B191" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="49"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="33"/>
+      <c r="B192" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C192" s="49"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="33"/>
+      <c r="B193" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C193" s="49"/>
+    </row>
+    <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="66"/>
+      <c r="B194" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C194" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A146:C146"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A104:C104"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -14927,7 +15625,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14937,10 +15635,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="170"/>
+      <c r="B1" s="171"/>
       <c r="C1" s="59"/>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
@@ -14993,8 +15691,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
@@ -15027,11 +15729,11 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="130" t="s">
@@ -15143,11 +15845,11 @@
       <c r="D14" s="131"/>
     </row>
     <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="130" t="s">
@@ -15264,11 +15966,11 @@
       <c r="D27" s="131"/>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="172" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="174"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="130" t="s">
@@ -15385,11 +16087,11 @@
       <c r="D40" s="131"/>
     </row>
     <row r="41" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="171" t="s">
+      <c r="B41" s="172" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="172"/>
-      <c r="D41" s="173"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="174"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="130" t="s">
@@ -15492,11 +16194,11 @@
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="171" t="s">
+      <c r="B53" s="172" t="s">
         <v>236</v>
       </c>
-      <c r="C53" s="172"/>
-      <c r="D53" s="173"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="174"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B54" s="130" t="s">
@@ -15683,102 +16385,102 @@
       <c r="O68" s="83"/>
     </row>
     <row r="69" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="174" t="s">
+      <c r="A69" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="174"/>
-      <c r="C69" s="174"/>
-      <c r="D69" s="174"/>
-      <c r="E69" s="174"/>
-      <c r="F69" s="174"/>
-      <c r="G69" s="174"/>
-      <c r="H69" s="174"/>
-      <c r="I69" s="174"/>
-      <c r="J69" s="174"/>
-      <c r="K69" s="174"/>
-      <c r="L69" s="174"/>
-      <c r="M69" s="174"/>
-      <c r="N69" s="174"/>
+      <c r="B69" s="175"/>
+      <c r="C69" s="175"/>
+      <c r="D69" s="175"/>
+      <c r="E69" s="175"/>
+      <c r="F69" s="175"/>
+      <c r="G69" s="175"/>
+      <c r="H69" s="175"/>
+      <c r="I69" s="175"/>
+      <c r="J69" s="175"/>
+      <c r="K69" s="175"/>
+      <c r="L69" s="175"/>
+      <c r="M69" s="175"/>
+      <c r="N69" s="175"/>
       <c r="O69" s="83"/>
       <c r="P69" s="83"/>
       <c r="Q69" s="83"/>
       <c r="R69" s="83"/>
     </row>
     <row r="70" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="174"/>
-      <c r="B70" s="174"/>
-      <c r="C70" s="174"/>
-      <c r="D70" s="174"/>
-      <c r="E70" s="174"/>
-      <c r="F70" s="174"/>
-      <c r="G70" s="174"/>
-      <c r="H70" s="174"/>
-      <c r="I70" s="174"/>
-      <c r="J70" s="174"/>
-      <c r="K70" s="174"/>
-      <c r="L70" s="174"/>
-      <c r="M70" s="174"/>
-      <c r="N70" s="174"/>
+      <c r="A70" s="175"/>
+      <c r="B70" s="175"/>
+      <c r="C70" s="175"/>
+      <c r="D70" s="175"/>
+      <c r="E70" s="175"/>
+      <c r="F70" s="175"/>
+      <c r="G70" s="175"/>
+      <c r="H70" s="175"/>
+      <c r="I70" s="175"/>
+      <c r="J70" s="175"/>
+      <c r="K70" s="175"/>
+      <c r="L70" s="175"/>
+      <c r="M70" s="175"/>
+      <c r="N70" s="175"/>
       <c r="O70" s="83"/>
       <c r="P70" s="83"/>
       <c r="Q70" s="83"/>
       <c r="R70" s="83"/>
     </row>
     <row r="71" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="174"/>
-      <c r="B71" s="174"/>
-      <c r="C71" s="174"/>
-      <c r="D71" s="174"/>
-      <c r="E71" s="174"/>
-      <c r="F71" s="174"/>
-      <c r="G71" s="174"/>
-      <c r="H71" s="174"/>
-      <c r="I71" s="174"/>
-      <c r="J71" s="174"/>
-      <c r="K71" s="174"/>
-      <c r="L71" s="174"/>
-      <c r="M71" s="174"/>
-      <c r="N71" s="174"/>
+      <c r="A71" s="175"/>
+      <c r="B71" s="175"/>
+      <c r="C71" s="175"/>
+      <c r="D71" s="175"/>
+      <c r="E71" s="175"/>
+      <c r="F71" s="175"/>
+      <c r="G71" s="175"/>
+      <c r="H71" s="175"/>
+      <c r="I71" s="175"/>
+      <c r="J71" s="175"/>
+      <c r="K71" s="175"/>
+      <c r="L71" s="175"/>
+      <c r="M71" s="175"/>
+      <c r="N71" s="175"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="83"/>
       <c r="R71" s="83"/>
     </row>
     <row r="72" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="174"/>
-      <c r="B72" s="174"/>
-      <c r="C72" s="174"/>
-      <c r="D72" s="174"/>
-      <c r="E72" s="174"/>
-      <c r="F72" s="174"/>
-      <c r="G72" s="174"/>
-      <c r="H72" s="174"/>
-      <c r="I72" s="174"/>
-      <c r="J72" s="174"/>
-      <c r="K72" s="174"/>
-      <c r="L72" s="174"/>
-      <c r="M72" s="174"/>
-      <c r="N72" s="174"/>
+      <c r="A72" s="175"/>
+      <c r="B72" s="175"/>
+      <c r="C72" s="175"/>
+      <c r="D72" s="175"/>
+      <c r="E72" s="175"/>
+      <c r="F72" s="175"/>
+      <c r="G72" s="175"/>
+      <c r="H72" s="175"/>
+      <c r="I72" s="175"/>
+      <c r="J72" s="175"/>
+      <c r="K72" s="175"/>
+      <c r="L72" s="175"/>
+      <c r="M72" s="175"/>
+      <c r="N72" s="175"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="83"/>
       <c r="R72" s="83"/>
     </row>
     <row r="73" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="174"/>
-      <c r="B73" s="174"/>
-      <c r="C73" s="174"/>
-      <c r="D73" s="174"/>
-      <c r="E73" s="174"/>
-      <c r="F73" s="174"/>
-      <c r="G73" s="174"/>
-      <c r="H73" s="174"/>
-      <c r="I73" s="174"/>
-      <c r="J73" s="174"/>
-      <c r="K73" s="174"/>
-      <c r="L73" s="174"/>
-      <c r="M73" s="174"/>
-      <c r="N73" s="174"/>
+      <c r="A73" s="175"/>
+      <c r="B73" s="175"/>
+      <c r="C73" s="175"/>
+      <c r="D73" s="175"/>
+      <c r="E73" s="175"/>
+      <c r="F73" s="175"/>
+      <c r="G73" s="175"/>
+      <c r="H73" s="175"/>
+      <c r="I73" s="175"/>
+      <c r="J73" s="175"/>
+      <c r="K73" s="175"/>
+      <c r="L73" s="175"/>
+      <c r="M73" s="175"/>
+      <c r="N73" s="175"/>
       <c r="O73" s="83"/>
       <c r="P73" s="83"/>
       <c r="Q73" s="83"/>
@@ -16424,11 +17126,11 @@
     </row>
     <row r="126" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="127" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B127" s="171" t="s">
+      <c r="B127" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="C127" s="172"/>
-      <c r="D127" s="173"/>
+      <c r="C127" s="173"/>
+      <c r="D127" s="174"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B128" s="130" t="s">
@@ -16531,11 +17233,11 @@
     </row>
     <row r="140" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="141" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B141" s="171" t="s">
+      <c r="B141" s="172" t="s">
         <v>237</v>
       </c>
-      <c r="C141" s="172"/>
-      <c r="D141" s="173"/>
+      <c r="C141" s="173"/>
+      <c r="D141" s="174"/>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142" s="130" t="s">
@@ -16638,14 +17340,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="A69:N73"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="A69:N73"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
